--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,6 +743,6469 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-2.375543527695881</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C17">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-2.395558073150426</v>
+      </c>
+      <c r="G17">
+        <v>-0.007423066663676092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C18">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-2.412918169027142</v>
+      </c>
+      <c r="G18">
+        <v>-0.01219168374952373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C19">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-2.430278264903858</v>
+      </c>
+      <c r="G19">
+        <v>-0.01638119103822966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C20">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-2.446480141186292</v>
+      </c>
+      <c r="G20">
+        <v>-0.02057069832693603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C21">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>-2.462941250853814</v>
+      </c>
+      <c r="G21">
+        <v>-0.02444032920358952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C22">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>-2.479571649760833</v>
+      </c>
+      <c r="G22">
+        <v>-0.02789836403380175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C23">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-2.495360154508027</v>
+      </c>
+      <c r="G23">
+        <v>-0.03167627527606465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C24">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-2.511096860793739</v>
+      </c>
+      <c r="G24">
+        <v>-0.03449633277097108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C25">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-2.527378959413181</v>
+      </c>
+      <c r="G25">
+        <v>-0.03811202385042134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C26">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-2.544011877038051</v>
+      </c>
+      <c r="G26">
+        <v>-0.04255356143348221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-2.557881448131801</v>
+      </c>
+      <c r="G27">
+        <v>-0.04365673421419691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C28">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-2.572817464250666</v>
+      </c>
+      <c r="G28">
+        <v>-0.04497521983122921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C29">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>-2.589093851829339</v>
+      </c>
+      <c r="G29">
+        <v>-0.04756497599240683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C30">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>-2.60308885600197</v>
+      </c>
+      <c r="G30">
+        <v>-0.05027831220229673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C31">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-2.616115241615619</v>
+      </c>
+      <c r="G31">
+        <v>-0.04990878608421268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C32">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-2.629999000998837</v>
+      </c>
+      <c r="G32">
+        <v>-0.05231538291777205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C33">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-2.646590502516207</v>
+      </c>
+      <c r="G33">
+        <v>-0.05509207171540531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C34">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-2.659353414289208</v>
+      </c>
+      <c r="G34">
+        <v>-0.05691240899442218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C35">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>-2.674915991011027</v>
+      </c>
+      <c r="G35">
+        <v>-0.0566553053829455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C36">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-2.688529124758507</v>
+      </c>
+      <c r="G36">
+        <v>-0.05860128185633995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C37">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>-2.703929186091629</v>
+      </c>
+      <c r="G37">
+        <v>-0.06396460378750368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-2.715917686520979</v>
+      </c>
+      <c r="G38">
+        <v>-0.06318251124877672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C39">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>-2.730201323417614</v>
+      </c>
+      <c r="G39">
+        <v>-0.06174420177349105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C40">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-2.742759629284203</v>
+      </c>
+      <c r="G40">
+        <v>-0.06221724823468988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C41">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-2.754979017006276</v>
+      </c>
+      <c r="G41">
+        <v>-0.06464851953867568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C42">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-2.767199953091127</v>
+      </c>
+      <c r="G42">
+        <v>-0.06427797683265757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C43">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-2.780438577850539</v>
+      </c>
+      <c r="G43">
+        <v>-0.06492512280120177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C44">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>-2.794303517013279</v>
+      </c>
+      <c r="G44">
+        <v>-0.06425677406334729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C45">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-2.805162970230981</v>
+      </c>
+      <c r="G45">
+        <v>-0.06230243866866192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C46">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-2.819705264147832</v>
+      </c>
+      <c r="G46">
+        <v>-0.06300473607359458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C47">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-2.830484275651844</v>
+      </c>
+      <c r="G47">
+        <v>-0.06330717714670375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C48">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>-2.841876994368953</v>
+      </c>
+      <c r="G48">
+        <v>-0.06302854589850393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>-2.853377361732215</v>
+      </c>
+      <c r="G49">
+        <v>-0.06203564695893715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C50">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-2.866348170781511</v>
+      </c>
+      <c r="G50">
+        <v>-0.06207402924536409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C51">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-2.876649876959829</v>
+      </c>
+      <c r="G51">
+        <v>-0.05993257426714627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C52">
+        <v>0.6545454545454545</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-2.88682416919193</v>
+      </c>
+      <c r="G52">
+        <v>-0.05786114305487211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C53">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>-2.900539411304881</v>
+      </c>
+      <c r="G53">
+        <v>-0.05911116834685537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C54">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>-2.910503627832593</v>
+      </c>
+      <c r="G54">
+        <v>-0.05507836771771357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C55">
+        <v>0.7090909090909091</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-2.921075283460968</v>
+      </c>
+      <c r="G55">
+        <v>-0.0542586493272651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C56">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-2.931373101696569</v>
+      </c>
+      <c r="G56">
+        <v>-0.05102802694797182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C57">
+        <v>0.7454545454545455</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>-2.942167396393269</v>
+      </c>
+      <c r="G57">
+        <v>-0.04933054287806482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C58">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-2.952132344440312</v>
+      </c>
+      <c r="G58">
+        <v>-0.04713116608712353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C59">
+        <v>0.7818181818181819</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>-2.964117865188245</v>
+      </c>
+      <c r="G59">
+        <v>-0.04676708405193253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-2.97293321957183</v>
+      </c>
+      <c r="G60">
+        <v>-0.04213837133954396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C61">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>-2.983094543857332</v>
+      </c>
+      <c r="G61">
+        <v>-0.03895109715855477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C62">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-2.99313616916387</v>
+      </c>
+      <c r="G62">
+        <v>-0.03838461708802615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C63">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>-3.00258873935545</v>
+      </c>
+      <c r="G63">
+        <v>-0.03460949088871895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C64">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>-3.011659384640481</v>
+      </c>
+      <c r="G64">
+        <v>-0.03172487498289928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C65">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-3.020474146068132</v>
+      </c>
+      <c r="G65">
+        <v>-0.02648876368028896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C66">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>-3.029288907495784</v>
+      </c>
+      <c r="G66">
+        <v>-0.024171440256465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C67">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="F67">
+        <v>-3.037629855811117</v>
+      </c>
+      <c r="G67">
+        <v>-0.01992090978092911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C68">
+        <v>0.9454545454545454</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-3.045241107156754</v>
+      </c>
+      <c r="G68">
+        <v>-0.01494068233569729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C69">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>-3.052852358502391</v>
+      </c>
+      <c r="G69">
+        <v>-0.009960454890465445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C70">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-3.060463609848026</v>
+      </c>
+      <c r="G70">
+        <v>-0.004980227445232278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>55</v>
+      </c>
+      <c r="B71">
+        <v>0.8409867485114212</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-3.068074861193663</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-2.539320329712258</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>147</v>
+      </c>
+      <c r="B73">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C73">
+        <v>0.006802721088435374</v>
+      </c>
+      <c r="D73">
+        <v>146</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-2.546808765086408</v>
+      </c>
+      <c r="G73">
+        <v>-0.002452541257806029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C74">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="D74">
+        <v>145</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-2.554297200460558</v>
+      </c>
+      <c r="G74">
+        <v>-0.004905082515612502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C75">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D75">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-2.561785635834708</v>
+      </c>
+      <c r="G75">
+        <v>-0.007357623773418087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C76">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="D76">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-2.568918717571136</v>
+      </c>
+      <c r="G76">
+        <v>-0.009454811393502904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>147</v>
+      </c>
+      <c r="B77">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C77">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-2.575565251522296</v>
+      </c>
+      <c r="G77">
+        <v>-0.01099615642772767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C78">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>-2.582477405892838</v>
+      </c>
+      <c r="G78">
+        <v>-0.01290266593950218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>147</v>
+      </c>
+      <c r="B79">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C79">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-2.589558399122135</v>
+      </c>
+      <c r="G79">
+        <v>-0.01497330202882763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C80">
+        <v>0.05442176870748299</v>
+      </c>
+      <c r="D80">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-2.596007074269171</v>
+      </c>
+      <c r="G80">
+        <v>-0.01639959162616078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>147</v>
+      </c>
+      <c r="B81">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C81">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-2.602718990536284</v>
+      </c>
+      <c r="G81">
+        <v>-0.01777113285492593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C82">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>-2.609562064864056</v>
+      </c>
+      <c r="G82">
+        <v>-0.01950538634326326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>147</v>
+      </c>
+      <c r="B83">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C83">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="D83">
+        <v>136</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-2.616074601474897</v>
+      </c>
+      <c r="G83">
+        <v>-0.02092322171688599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C84">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-2.622872972655704</v>
+      </c>
+      <c r="G84">
+        <v>-0.02270131407691434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C85">
+        <v>0.08843537414965986</v>
+      </c>
+      <c r="D85">
+        <v>134</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-2.629413942758345</v>
+      </c>
+      <c r="G85">
+        <v>-0.02430684382788728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>147</v>
+      </c>
+      <c r="B86">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C86">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D86">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-2.635920203213631</v>
+      </c>
+      <c r="G86">
+        <v>-0.02609735587255724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>147</v>
+      </c>
+      <c r="B87">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C87">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="D87">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-2.64233650818106</v>
+      </c>
+      <c r="G87">
+        <v>-0.02623464611558646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>147</v>
+      </c>
+      <c r="B88">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C88">
+        <v>0.108843537414966</v>
+      </c>
+      <c r="D88">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-2.649083326574416</v>
+      </c>
+      <c r="G88">
+        <v>-0.02918869100065447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C89">
+        <v>0.1156462585034014</v>
+      </c>
+      <c r="D89">
+        <v>130</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-2.655353743327588</v>
+      </c>
+      <c r="G89">
+        <v>-0.03042321363748313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>147</v>
+      </c>
+      <c r="B90">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C90">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="D90">
+        <v>129</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-2.661133234501968</v>
+      </c>
+      <c r="G90">
+        <v>-0.03116681069551896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C91">
+        <v>0.1292517006802721</v>
+      </c>
+      <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-2.668909504826393</v>
+      </c>
+      <c r="G91">
+        <v>-0.03152109478037701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>147</v>
+      </c>
+      <c r="B92">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C92">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="D92">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-2.674904601195727</v>
+      </c>
+      <c r="G92">
+        <v>-0.03486638915659013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C93">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-2.681104381096317</v>
+      </c>
+      <c r="G93">
+        <v>-0.0345223436750719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>147</v>
+      </c>
+      <c r="B94">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C94">
+        <v>0.1496598639455782</v>
+      </c>
+      <c r="D94">
+        <v>125</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-2.686189819850171</v>
+      </c>
+      <c r="G94">
+        <v>-0.03602692625276749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>147</v>
+      </c>
+      <c r="B95">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C95">
+        <v>0.1564625850340136</v>
+      </c>
+      <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>-2.69289765958836</v>
+      </c>
+      <c r="G95">
+        <v>-0.03775176520019041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>147</v>
+      </c>
+      <c r="B96">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C96">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="D96">
+        <v>123</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-2.698779249213122</v>
+      </c>
+      <c r="G96">
+        <v>-0.03859746070860925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>147</v>
+      </c>
+      <c r="B97">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C97">
+        <v>0.1700680272108843</v>
+      </c>
+      <c r="D97">
+        <v>122</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-2.706151335039248</v>
+      </c>
+      <c r="G97">
+        <v>-0.03943709509888649</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>147</v>
+      </c>
+      <c r="B98">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C98">
+        <v>0.1768707482993197</v>
+      </c>
+      <c r="D98">
+        <v>121</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-2.711580274096619</v>
+      </c>
+      <c r="G98">
+        <v>-0.04059961113766031</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C99">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="D99">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-2.717604860825898</v>
+      </c>
+      <c r="G99">
+        <v>-0.0407730729632938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>147</v>
+      </c>
+      <c r="B100">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C100">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="D100">
+        <v>119</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-2.724753828427402</v>
+      </c>
+      <c r="G100">
+        <v>-0.04207416083230475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>147</v>
+      </c>
+      <c r="B101">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C101">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>-2.730268004402294</v>
+      </c>
+      <c r="G101">
+        <v>-0.04338617953062007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>147</v>
+      </c>
+      <c r="B102">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C102">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="D102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-2.736561219088442</v>
+      </c>
+      <c r="G102">
+        <v>-0.0461640658858653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C103">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="D103">
+        <v>116</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-2.74212329609162</v>
+      </c>
+      <c r="G103">
+        <v>-0.04603597435826856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C104">
+        <v>0.217687074829932</v>
+      </c>
+      <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>-2.74682907877122</v>
+      </c>
+      <c r="G104">
+        <v>-0.04616850484636603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>147</v>
+      </c>
+      <c r="B105">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C105">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="D105">
+        <v>114</v>
+      </c>
+      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-2.754250915664425</v>
+      </c>
+      <c r="G105">
+        <v>-0.04739612575879604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C106">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="D106">
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-2.760232265750846</v>
+      </c>
+      <c r="G106">
+        <v>-0.04863226590547187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>147</v>
+      </c>
+      <c r="B107">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C107">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="D107">
+        <v>112</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-2.765555480868113</v>
+      </c>
+      <c r="G107">
+        <v>-0.04997885708381733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>147</v>
+      </c>
+      <c r="B108">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C108">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="D108">
+        <v>111</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-2.771356585730893</v>
+      </c>
+      <c r="G108">
+        <v>-0.04931127912235267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>147</v>
+      </c>
+      <c r="B109">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C109">
+        <v>0.2517006802721088</v>
+      </c>
+      <c r="D109">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-2.776539318580752</v>
+      </c>
+      <c r="G109">
+        <v>-0.0505607304791964</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>147</v>
+      </c>
+      <c r="B110">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C110">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-2.783353780879945</v>
+      </c>
+      <c r="G110">
+        <v>-0.05175443090219844</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C111">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="D111">
+        <v>108</v>
+      </c>
+      <c r="E111">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-2.789321479352505</v>
+      </c>
+      <c r="G111">
+        <v>-0.05269060899187994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C112">
+        <v>0.272108843537415</v>
+      </c>
+      <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-2.793907240188338</v>
+      </c>
+      <c r="G112">
+        <v>-0.050478030493321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C113">
+        <v>0.2789115646258503</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-2.801169191488479</v>
+      </c>
+      <c r="G113">
+        <v>-0.05319224958284319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C114">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D114">
+        <v>105</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-2.805858629815597</v>
+      </c>
+      <c r="G114">
+        <v>-0.05503074721689294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>147</v>
+      </c>
+      <c r="B115">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C115">
+        <v>0.2925170068027211</v>
+      </c>
+      <c r="D115">
+        <v>104</v>
+      </c>
+      <c r="E115">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-2.811808888161365</v>
+      </c>
+      <c r="G115">
+        <v>-0.05486006461287496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>147</v>
+      </c>
+      <c r="B116">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C116">
+        <v>0.2993197278911565</v>
+      </c>
+      <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-2.817349426240577</v>
+      </c>
+      <c r="G116">
+        <v>-0.05643180023737093</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>147</v>
+      </c>
+      <c r="B117">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C117">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>-2.823377397667701</v>
+      </c>
+      <c r="G117">
+        <v>-0.0562908823777184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C118">
+        <v>0.3129251700680272</v>
+      </c>
+      <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-2.829629667868577</v>
+      </c>
+      <c r="G118">
+        <v>-0.05726313633123215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C119">
+        <v>0.3197278911564626</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>-2.835076125596493</v>
+      </c>
+      <c r="G119">
+        <v>-0.05631853554134625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>147</v>
+      </c>
+      <c r="B120">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C120">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="D120">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-2.840519610803688</v>
+      </c>
+      <c r="G120">
+        <v>-0.05947636350691998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C121">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D121">
+        <v>98</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-2.845559162875121</v>
+      </c>
+      <c r="G121">
+        <v>-0.05877331039507538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C122">
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>-2.851619937706023</v>
+      </c>
+      <c r="G122">
+        <v>-0.05994165907784477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>147</v>
+      </c>
+      <c r="B123">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C123">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-2.856804524357035</v>
+      </c>
+      <c r="G123">
+        <v>-0.06065359471123588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>147</v>
+      </c>
+      <c r="B124">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C124">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="D124">
+        <v>95</v>
+      </c>
+      <c r="E124">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-2.863304014956172</v>
+      </c>
+      <c r="G124">
+        <v>-0.06088631165212877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>147</v>
+      </c>
+      <c r="B125">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C125">
+        <v>0.3605442176870748</v>
+      </c>
+      <c r="D125">
+        <v>94</v>
+      </c>
+      <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-2.868038558631957</v>
+      </c>
+      <c r="G125">
+        <v>-0.06125249218174944</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C126">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="D126">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-2.872159132949446</v>
+      </c>
+      <c r="G126">
+        <v>-0.06063008521175894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>147</v>
+      </c>
+      <c r="B127">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C127">
+        <v>0.3741496598639456</v>
+      </c>
+      <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>-2.878808066511982</v>
+      </c>
+      <c r="G127">
+        <v>-0.06251356040080625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C128">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-2.883890970104383</v>
+      </c>
+      <c r="G128">
+        <v>-0.06256056987686343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C129">
+        <v>0.3877551020408163</v>
+      </c>
+      <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <v>-2.889463861049427</v>
+      </c>
+      <c r="G129">
+        <v>-0.06309756670556421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C130">
+        <v>0.3945578231292517</v>
+      </c>
+      <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-2.896039624558266</v>
+      </c>
+      <c r="G130">
+        <v>-0.06328759646185755</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C131">
+        <v>0.4013605442176871</v>
+      </c>
+      <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>-2.900616703320556</v>
+      </c>
+      <c r="G131">
+        <v>-0.06244029215308222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>147</v>
+      </c>
+      <c r="B132">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C132">
+        <v>0.4081632653061225</v>
+      </c>
+      <c r="D132">
+        <v>87</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-2.905710124969141</v>
+      </c>
+      <c r="G132">
+        <v>-0.06228072510123206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C133">
+        <v>0.4149659863945578</v>
+      </c>
+      <c r="D133">
+        <v>86</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-2.912970138673634</v>
+      </c>
+      <c r="G133">
+        <v>-0.06646026786439463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C134">
+        <v>0.4217687074829932</v>
+      </c>
+      <c r="D134">
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-2.917988315850658</v>
+      </c>
+      <c r="G134">
+        <v>-0.06487395191742684</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C135">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D135">
+        <v>84</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-2.921639917452575</v>
+      </c>
+      <c r="G135">
+        <v>-0.06444861705805249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C136">
+        <v>0.4353741496598639</v>
+      </c>
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>-2.926486542031304</v>
+      </c>
+      <c r="G136">
+        <v>-0.06320054470983627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C137">
+        <v>0.4421768707482993</v>
+      </c>
+      <c r="D137">
+        <v>82</v>
+      </c>
+      <c r="E137">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-2.931923978972324</v>
+      </c>
+      <c r="G137">
+        <v>-0.06514780682008059</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C138">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="D138">
+        <v>81</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-2.939161867125809</v>
+      </c>
+      <c r="G138">
+        <v>-0.06453681260502275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C139">
+        <v>0.4557823129251701</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
+        <v>-2.943016363075936</v>
+      </c>
+      <c r="G139">
+        <v>-0.06432967559488256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C140">
+        <v>0.4625850340136055</v>
+      </c>
+      <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-2.947154831104334</v>
+      </c>
+      <c r="G140">
+        <v>-0.06521029770017517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C141">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="D141">
+        <v>78</v>
+      </c>
+      <c r="E141">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-2.953513376051183</v>
+      </c>
+      <c r="G141">
+        <v>-0.06487259826826097</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C142">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>-2.958527152083551</v>
+      </c>
+      <c r="G142">
+        <v>-0.06507547864257512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C143">
+        <v>0.4829931972789115</v>
+      </c>
+      <c r="D143">
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-2.963161409944452</v>
+      </c>
+      <c r="G143">
+        <v>-0.06603582700293265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C144">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-2.96915670054732</v>
+      </c>
+      <c r="G144">
+        <v>-0.06395610603712765</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C145">
+        <v>0.4965986394557823</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-2.973330436994923</v>
+      </c>
+      <c r="G145">
+        <v>-0.06409575148595748</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C146">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="D146">
+        <v>73</v>
+      </c>
+      <c r="E146">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-2.97842178918242</v>
+      </c>
+      <c r="G146">
+        <v>-0.06642998883671369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C147">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D147">
+        <v>72</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-2.983888982592713</v>
+      </c>
+      <c r="G147">
+        <v>-0.06687659415465852</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C148">
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-2.987827495640212</v>
+      </c>
+      <c r="G148">
+        <v>-0.06315823744911908</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C149">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D149">
+        <v>70</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-2.993899411152625</v>
+      </c>
+      <c r="G149">
+        <v>-0.06681523448188242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C150">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D150">
+        <v>69</v>
+      </c>
+      <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-2.999497075429243</v>
+      </c>
+      <c r="G150">
+        <v>-0.06573028350423216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C151">
+        <v>0.5374149659863946</v>
+      </c>
+      <c r="D151">
+        <v>68</v>
+      </c>
+      <c r="E151">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-3.003564323096088</v>
+      </c>
+      <c r="G151">
+        <v>-0.06556489936887488</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C152">
+        <v>0.54421768707483</v>
+      </c>
+      <c r="D152">
+        <v>67</v>
+      </c>
+      <c r="E152">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-3.008031638205385</v>
+      </c>
+      <c r="G152">
+        <v>-0.06356326226043429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C153">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D153">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-3.012531522195989</v>
+      </c>
+      <c r="G153">
+        <v>-0.06530376905987123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C154">
+        <v>0.5578231292517006</v>
+      </c>
+      <c r="D154">
+        <v>65</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-3.017370839678942</v>
+      </c>
+      <c r="G154">
+        <v>-0.06450570345248585</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C155">
+        <v>0.564625850340136</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-3.02256891238684</v>
+      </c>
+      <c r="G155">
+        <v>-0.06526937101803409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C156">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D156">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-3.027049076795723</v>
+      </c>
+      <c r="G156">
+        <v>-0.06373741006675449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C157">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>-3.033177618038506</v>
+      </c>
+      <c r="G157">
+        <v>-0.06580628843701208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C158">
+        <v>0.5850340136054422</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-3.037182443602491</v>
+      </c>
+      <c r="G158">
+        <v>-0.06322745541665342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>147</v>
+      </c>
+      <c r="B159">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C159">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
+        <v>-3.041314520381992</v>
+      </c>
+      <c r="G159">
+        <v>-0.06269727302206562</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C160">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="D160">
+        <v>59</v>
+      </c>
+      <c r="E160">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-3.046045034390356</v>
+      </c>
+      <c r="G160">
+        <v>-0.06261647331626063</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C161">
+        <v>0.6054421768707483</v>
+      </c>
+      <c r="D161">
+        <v>58</v>
+      </c>
+      <c r="E161">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-3.05178921781233</v>
+      </c>
+      <c r="G161">
+        <v>-0.06054322589794925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C162">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-3.055497690266626</v>
+      </c>
+      <c r="G162">
+        <v>-0.06294689008341303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>147</v>
+      </c>
+      <c r="B163">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C163">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="D163">
+        <v>56</v>
+      </c>
+      <c r="E163">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-3.060398629893007</v>
+      </c>
+      <c r="G163">
+        <v>-0.06129378699509569</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C164">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="D164">
+        <v>55</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-3.065547424134266</v>
+      </c>
+      <c r="G164">
+        <v>-0.0607369777344654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C165">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D165">
+        <v>54</v>
+      </c>
+      <c r="E165">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-3.069512308596327</v>
+      </c>
+      <c r="G165">
+        <v>-0.06166983817002236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C166">
+        <v>0.6394557823129252</v>
+      </c>
+      <c r="D166">
+        <v>53</v>
+      </c>
+      <c r="E166">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-3.074533173133353</v>
+      </c>
+      <c r="G166">
+        <v>-0.06097622948162984</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>147</v>
+      </c>
+      <c r="B167">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C167">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>-3.078264381169941</v>
+      </c>
+      <c r="G167">
+        <v>-0.06053411040500811</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C168">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D168">
+        <v>51</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-3.084723730629742</v>
+      </c>
+      <c r="G168">
+        <v>-0.0608790390515771</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>147</v>
+      </c>
+      <c r="B169">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C169">
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-3.087626073767444</v>
+      </c>
+      <c r="G169">
+        <v>-0.05879315262597495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>147</v>
+      </c>
+      <c r="B170">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C170">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D170">
+        <v>49</v>
+      </c>
+      <c r="E170">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-3.092227083351973</v>
+      </c>
+      <c r="G170">
+        <v>-0.0593891302380074</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C171">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-3.096016638868221</v>
+      </c>
+      <c r="G171">
+        <v>-0.05749690737886426</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>147</v>
+      </c>
+      <c r="B172">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C172">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-3.100484214344698</v>
+      </c>
+      <c r="G172">
+        <v>-0.05757447299804497</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C173">
+        <v>0.6870748299319728</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-3.105770486938536</v>
+      </c>
+      <c r="G173">
+        <v>-0.05619661795255637</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>147</v>
+      </c>
+      <c r="B174">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C174">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="D174">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-3.109621873376897</v>
+      </c>
+      <c r="G174">
+        <v>-0.05657591410343865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>147</v>
+      </c>
+      <c r="B175">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C175">
+        <v>0.7006802721088435</v>
+      </c>
+      <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
+        <v>-3.113957906070075</v>
+      </c>
+      <c r="G175">
+        <v>-0.05464416678249029</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C176">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="D176">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-3.118404510010039</v>
+      </c>
+      <c r="G176">
+        <v>-0.05535119219801021</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>147</v>
+      </c>
+      <c r="B177">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C177">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D177">
+        <v>42</v>
+      </c>
+      <c r="E177">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-3.122991052256344</v>
+      </c>
+      <c r="G177">
+        <v>-0.05451272035511234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C178">
+        <v>0.7210884353741497</v>
+      </c>
+      <c r="D178">
+        <v>41</v>
+      </c>
+      <c r="E178">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-3.12833793551298</v>
+      </c>
+      <c r="G178">
+        <v>-0.05521282946826322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>147</v>
+      </c>
+      <c r="B179">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C179">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-3.131712437322017</v>
+      </c>
+      <c r="G179">
+        <v>-0.05269995996468202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>147</v>
+      </c>
+      <c r="B180">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C180">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
+        <v>-3.135509268863138</v>
+      </c>
+      <c r="G180">
+        <v>-0.05231237458573335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>147</v>
+      </c>
+      <c r="B181">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C181">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-3.139865092071808</v>
+      </c>
+      <c r="G181">
+        <v>-0.05110815729102203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>147</v>
+      </c>
+      <c r="B182">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C182">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="D182">
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-3.145196647099427</v>
+      </c>
+      <c r="G182">
+        <v>-0.05081807796817384</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>147</v>
+      </c>
+      <c r="B183">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C183">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
+        <v>-3.148288811725139</v>
+      </c>
+      <c r="G183">
+        <v>-0.04894437230727799</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>147</v>
+      </c>
+      <c r="B184">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C184">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
+        <v>-3.152479170436997</v>
+      </c>
+      <c r="G184">
+        <v>-0.04913869969421669</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C185">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="D185">
+        <v>34</v>
+      </c>
+      <c r="E185">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-3.156608835974352</v>
+      </c>
+      <c r="G185">
+        <v>-0.04823247111522722</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>147</v>
+      </c>
+      <c r="B186">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C186">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
+        <v>-3.161724487504789</v>
+      </c>
+      <c r="G186">
+        <v>-0.04831222852932016</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>147</v>
+      </c>
+      <c r="B187">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C187">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-3.165852585369716</v>
+      </c>
+      <c r="G187">
+        <v>-0.04568019412243263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>147</v>
+      </c>
+      <c r="B188">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C188">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="D188">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-3.169431122465233</v>
+      </c>
+      <c r="G188">
+        <v>-0.04594707525707697</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>147</v>
+      </c>
+      <c r="B189">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C189">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-3.172200110505028</v>
+      </c>
+      <c r="G189">
+        <v>-0.04312406070774544</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>147</v>
+      </c>
+      <c r="B190">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C190">
+        <v>0.8027210884353742</v>
+      </c>
+      <c r="D190">
+        <v>29</v>
+      </c>
+      <c r="E190">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-3.177643895311918</v>
+      </c>
+      <c r="G190">
+        <v>-0.04392875055045486</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>147</v>
+      </c>
+      <c r="B191">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C191">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D191">
+        <v>28</v>
+      </c>
+      <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-3.18110152892093</v>
+      </c>
+      <c r="G191">
+        <v>-0.04240670327907442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C192">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D192">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-3.185312938511351</v>
+      </c>
+      <c r="G192">
+        <v>-0.04168531483781862</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>147</v>
+      </c>
+      <c r="B193">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C193">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-3.188864608815957</v>
+      </c>
+      <c r="G193">
+        <v>-0.04020109102608116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>147</v>
+      </c>
+      <c r="B194">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C194">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="D194">
+        <v>25</v>
+      </c>
+      <c r="E194">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-3.193837629771055</v>
+      </c>
+      <c r="G194">
+        <v>-0.03782036327736354</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C195">
+        <v>0.8367346938775511</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
+        <v>-3.196537363429834</v>
+      </c>
+      <c r="G195">
+        <v>-0.03557416378238415</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C196">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="D196">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-3.201777041389918</v>
+      </c>
+      <c r="G196">
+        <v>-0.03486481853727397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>147</v>
+      </c>
+      <c r="B197">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C197">
+        <v>0.8503401360544217</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-3.204874322321524</v>
+      </c>
+      <c r="G197">
+        <v>-0.03400953066537504</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>147</v>
+      </c>
+      <c r="B198">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C198">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-3.20819280033235</v>
+      </c>
+      <c r="G198">
+        <v>-0.03398854764317283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>147</v>
+      </c>
+      <c r="B199">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C199">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-3.212140938449512</v>
+      </c>
+      <c r="G199">
+        <v>-0.03231039694045595</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>147</v>
+      </c>
+      <c r="B200">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C200">
+        <v>0.8707482993197279</v>
+      </c>
+      <c r="D200">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-3.216287894662362</v>
+      </c>
+      <c r="G200">
+        <v>-0.03237311805807846</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>147</v>
+      </c>
+      <c r="B201">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C201">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-3.219231865451615</v>
+      </c>
+      <c r="G201">
+        <v>-0.02928001078480946</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C202">
+        <v>0.8843537414965986</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
+        <v>-3.223389859328152</v>
+      </c>
+      <c r="G202">
+        <v>-0.02940329449118079</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C203">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-3.227337722599358</v>
+      </c>
+      <c r="G203">
+        <v>-0.02780662982893739</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>147</v>
+      </c>
+      <c r="B204">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C204">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-3.230560875315556</v>
+      </c>
+      <c r="G204">
+        <v>-0.02551131368624537</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C205">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-3.234850950007271</v>
+      </c>
+      <c r="G205">
+        <v>-0.0241622952537813</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>147</v>
+      </c>
+      <c r="B206">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C206">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-3.23776747350049</v>
+      </c>
+      <c r="G206">
+        <v>-0.02268296112119655</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>147</v>
+      </c>
+      <c r="B207">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C207">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-3.241924004610194</v>
+      </c>
+      <c r="G207">
+        <v>-0.02258006850071517</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C208">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-3.244860117350785</v>
+      </c>
+      <c r="G208">
+        <v>-0.02065818781574924</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>147</v>
+      </c>
+      <c r="B209">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C209">
+        <v>0.9319727891156463</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
+        <v>-3.248643250752723</v>
+      </c>
+      <c r="G209">
+        <v>-0.01881198180935567</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>147</v>
+      </c>
+      <c r="B210">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C210">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-3.251942375758687</v>
+      </c>
+      <c r="G210">
+        <v>-0.01766865799096431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>147</v>
+      </c>
+      <c r="B211">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C211">
+        <v>0.9455782312925171</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-3.255945964937248</v>
+      </c>
+      <c r="G211">
+        <v>-0.015959953087192</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C212">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
+        <v>-3.259228123569707</v>
+      </c>
+      <c r="G212">
+        <v>-0.01427280723887626</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>147</v>
+      </c>
+      <c r="B213">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C213">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
+        <v>-3.261885290265493</v>
+      </c>
+      <c r="G213">
+        <v>-0.01226302225547936</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C214">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-3.265038201220376</v>
+      </c>
+      <c r="G214">
+        <v>-0.01050632354082642</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>147</v>
+      </c>
+      <c r="B215">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C215">
+        <v>0.9727891156462585</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-3.268205776406384</v>
+      </c>
+      <c r="G215">
+        <v>-0.008752588056941374</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>147</v>
+      </c>
+      <c r="B216">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C216">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-3.271053523508494</v>
+      </c>
+      <c r="G216">
+        <v>-0.006564441042706697</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C217">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-3.273901270610602</v>
+      </c>
+      <c r="G217">
+        <v>-0.004376294028471131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>147</v>
+      </c>
+      <c r="B218">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C218">
+        <v>0.9931972789115646</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-3.276749017712711</v>
+      </c>
+      <c r="G218">
+        <v>-0.00218814701423601</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>147</v>
+      </c>
+      <c r="B219">
+        <v>1.261480122767132</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.279596764814819</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>309</v>
+      </c>
+      <c r="B220">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>309</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>-2.631196380133129</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>309</v>
+      </c>
+      <c r="B221">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C221">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="D221">
+        <v>279</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-2.731854252092865</v>
+      </c>
+      <c r="G221">
+        <v>-0.0258118952904014</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>309</v>
+      </c>
+      <c r="B222">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C222">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="D222">
+        <v>248</v>
+      </c>
+      <c r="E222">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-2.827239704395923</v>
+      </c>
+      <c r="G222">
+        <v>-0.04461711384999667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>309</v>
+      </c>
+      <c r="B223">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C223">
+        <v>0.2977346278317152</v>
+      </c>
+      <c r="D223">
+        <v>217</v>
+      </c>
+      <c r="E223">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-2.91693774680435</v>
+      </c>
+      <c r="G223">
+        <v>-0.05616230655272569</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>309</v>
+      </c>
+      <c r="B224">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C224">
+        <v>0.3980582524271845</v>
+      </c>
+      <c r="D224">
+        <v>186</v>
+      </c>
+      <c r="E224">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-2.999974988709505</v>
+      </c>
+      <c r="G224">
+        <v>-0.06213941817935242</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>309</v>
+      </c>
+      <c r="B225">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C225">
+        <v>0.4983818770226537</v>
+      </c>
+      <c r="D225">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-3.078805366803566</v>
+      </c>
+      <c r="G225">
+        <v>-0.06489045909411528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C226">
+        <v>0.598705501618123</v>
+      </c>
+      <c r="D226">
+        <v>124</v>
+      </c>
+      <c r="E226">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-3.152462856986095</v>
+      </c>
+      <c r="G226">
+        <v>-0.0614763946049619</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>309</v>
+      </c>
+      <c r="B227">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C227">
+        <v>0.6990291262135923</v>
+      </c>
+      <c r="D227">
+        <v>93</v>
+      </c>
+      <c r="E227">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-3.222779265391401</v>
+      </c>
+      <c r="G227">
+        <v>-0.05492736132035214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>309</v>
+      </c>
+      <c r="B228">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C228">
+        <v>0.7993527508090615</v>
+      </c>
+      <c r="D228">
+        <v>62</v>
+      </c>
+      <c r="E228">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.287034081079529</v>
+      </c>
+      <c r="G228">
+        <v>-0.04108423754776991</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>309</v>
+      </c>
+      <c r="B229">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C229">
+        <v>0.8996763754045307</v>
+      </c>
+      <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.345714766432807</v>
+      </c>
+      <c r="G229">
+        <v>-0.02394448519907111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1.681973497022842</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.39825701976517</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>561</v>
+      </c>
+      <c r="B231">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>561</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>-2.689721342252404</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>561</v>
+      </c>
+      <c r="B232">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C232">
+        <v>0.09982174688057041</v>
+      </c>
+      <c r="D232">
+        <v>505</v>
+      </c>
+      <c r="E232">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-2.794455079300617</v>
+      </c>
+      <c r="G232">
+        <v>-0.02557133017608226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>561</v>
+      </c>
+      <c r="B233">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C233">
+        <v>0.1996434937611408</v>
+      </c>
+      <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
+        <v>-2.891553877731871</v>
+      </c>
+      <c r="G233">
+        <v>-0.04528764911689942</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>561</v>
+      </c>
+      <c r="B234">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C234">
+        <v>0.2994652406417112</v>
+      </c>
+      <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>-2.980698635625816</v>
+      </c>
+      <c r="G234">
+        <v>-0.05615996382956001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>561</v>
+      </c>
+      <c r="B235">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C235">
+        <v>0.3992869875222816</v>
+      </c>
+      <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
+        <v>-3.064219455351278</v>
+      </c>
+      <c r="G235">
+        <v>-0.06140834037373821</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>561</v>
+      </c>
+      <c r="B236">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C236">
+        <v>0.499108734402852</v>
+      </c>
+      <c r="D236">
+        <v>281</v>
+      </c>
+      <c r="E236">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-3.145906443201307</v>
+      </c>
+      <c r="G236">
+        <v>-0.06315537502948776</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>561</v>
+      </c>
+      <c r="B237">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C237">
+        <v>0.5989304812834224</v>
+      </c>
+      <c r="D237">
+        <v>225</v>
+      </c>
+      <c r="E237">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.2202980231463</v>
+      </c>
+      <c r="G237">
+        <v>-0.06072646791790248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>561</v>
+      </c>
+      <c r="B238">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C238">
+        <v>0.6987522281639929</v>
+      </c>
+      <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
+        <v>-3.291058861599091</v>
+      </c>
+      <c r="G238">
+        <v>-0.05341448146908667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>561</v>
+      </c>
+      <c r="B239">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C239">
+        <v>0.7985739750445633</v>
+      </c>
+      <c r="D239">
+        <v>113</v>
+      </c>
+      <c r="E239">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.357324380601446</v>
+      </c>
+      <c r="G239">
+        <v>-0.04122845134248943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>561</v>
+      </c>
+      <c r="B240">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C240">
+        <v>0.8983957219251337</v>
+      </c>
+      <c r="D240">
+        <v>57</v>
+      </c>
+      <c r="E240">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.418474156389017</v>
+      </c>
+      <c r="G240">
+        <v>-0.02393108065535704</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>561</v>
+      </c>
+      <c r="B241">
+        <v>2.102466871278553</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.47384349626491</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>923</v>
+      </c>
+      <c r="B242">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>923</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>-2.73018641722108</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>923</v>
+      </c>
+      <c r="B243">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C243">
+        <v>0.09967497291440953</v>
+      </c>
+      <c r="D243">
+        <v>831</v>
+      </c>
+      <c r="E243">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-2.8351695298974</v>
+      </c>
+      <c r="G243">
+        <v>-0.02508078868133046</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>923</v>
+      </c>
+      <c r="B244">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C244">
+        <v>0.1993499458288191</v>
+      </c>
+      <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
+        <v>-2.933197904419471</v>
+      </c>
+      <c r="G244">
+        <v>-0.04370423592941464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>923</v>
+      </c>
+      <c r="B245">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C245">
+        <v>0.2990249187432286</v>
+      </c>
+      <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>-3.023879013235936</v>
+      </c>
+      <c r="G245">
+        <v>-0.05569305583028328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>923</v>
+      </c>
+      <c r="B246">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C246">
+        <v>0.399783315276273</v>
+      </c>
+      <c r="D246">
+        <v>554</v>
+      </c>
+      <c r="E246">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-3.109882438845054</v>
+      </c>
+      <c r="G246">
+        <v>-0.06119070875689547</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>923</v>
+      </c>
+      <c r="B247">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C247">
+        <v>0.4994582881906826</v>
+      </c>
+      <c r="D247">
+        <v>462</v>
+      </c>
+      <c r="E247">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-3.190823174972335</v>
+      </c>
+      <c r="G247">
+        <v>-0.0630449838364302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>923</v>
+      </c>
+      <c r="B248">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C248">
+        <v>0.5991332611050921</v>
+      </c>
+      <c r="D248">
+        <v>370</v>
+      </c>
+      <c r="E248">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.266787407213697</v>
+      </c>
+      <c r="G248">
+        <v>-0.05914424075405922</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>923</v>
+      </c>
+      <c r="B249">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C249">
+        <v>0.6998916576381365</v>
+      </c>
+      <c r="D249">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.3403428772343</v>
+      </c>
+      <c r="G249">
+        <v>-0.05309956523338721</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>923</v>
+      </c>
+      <c r="B250">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C250">
+        <v>0.7995666305525461</v>
+      </c>
+      <c r="D250">
+        <v>185</v>
+      </c>
+      <c r="E250">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.407650667027655</v>
+      </c>
+      <c r="G250">
+        <v>-0.04107417496521792</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>923</v>
+      </c>
+      <c r="B251">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C251">
+        <v>0.8992416034669556</v>
+      </c>
+      <c r="D251">
+        <v>93</v>
+      </c>
+      <c r="E251">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.469901674104343</v>
+      </c>
+      <c r="G251">
+        <v>-0.02312128374753591</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>923</v>
+      </c>
+      <c r="B252">
+        <v>2.522960245534263</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
+        <v>-3.526105169360068</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>1415</v>
+      </c>
+      <c r="B253">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1415</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>-2.75980554892964</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>1415</v>
+      </c>
+      <c r="B254">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C254">
+        <v>0.09964664310954063</v>
+      </c>
+      <c r="D254">
+        <v>1274</v>
+      </c>
+      <c r="E254">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-2.865194681046909</v>
+      </c>
+      <c r="G254">
+        <v>-0.02453062410560891</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>1415</v>
+      </c>
+      <c r="B255">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C255">
+        <v>0.2</v>
+      </c>
+      <c r="D255">
+        <v>1132</v>
+      </c>
+      <c r="E255">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-2.964788582840611</v>
+      </c>
+      <c r="G255">
+        <v>-0.04380272145593578</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>1415</v>
+      </c>
+      <c r="B256">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C256">
+        <v>0.2996466431095406</v>
+      </c>
+      <c r="D256">
+        <v>991</v>
+      </c>
+      <c r="E256">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-3.056111762776336</v>
+      </c>
+      <c r="G256">
+        <v>-0.05511530734791936</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>1415</v>
+      </c>
+      <c r="B257">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C257">
+        <v>0.4</v>
+      </c>
+      <c r="D257">
+        <v>849</v>
+      </c>
+      <c r="E257">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-3.142202058853327</v>
+      </c>
+      <c r="G257">
+        <v>-0.05860433794154263</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>1415</v>
+      </c>
+      <c r="B258">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C258">
+        <v>0.4996466431095407</v>
+      </c>
+      <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
+        <v>-3.223491741377815</v>
+      </c>
+      <c r="G258">
+        <v>-0.06169374593439114</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>1415</v>
+      </c>
+      <c r="B259">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C259">
+        <v>0.6</v>
+      </c>
+      <c r="D259">
+        <v>566</v>
+      </c>
+      <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.301396318520953</v>
+      </c>
+      <c r="G259">
+        <v>-0.05847773367816367</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>1415</v>
+      </c>
+      <c r="B260">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C260">
+        <v>0.6996466431095406</v>
+      </c>
+      <c r="D260">
+        <v>425</v>
+      </c>
+      <c r="E260">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.374459451048292</v>
+      </c>
+      <c r="G260">
+        <v>-0.05124594810471084</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>1415</v>
+      </c>
+      <c r="B261">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261">
+        <v>283</v>
+      </c>
+      <c r="E261">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.442861442607177</v>
+      </c>
+      <c r="G261">
+        <v>-0.03928450472781986</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>1415</v>
+      </c>
+      <c r="B262">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C262">
+        <v>0.8996466431095407</v>
+      </c>
+      <c r="D262">
+        <v>142</v>
+      </c>
+      <c r="E262">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.506193720388489</v>
+      </c>
+      <c r="G262">
+        <v>-0.02247821198851802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>1415</v>
+      </c>
+      <c r="B263">
+        <v>2.943453619789974</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.564359030990466</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>2057</v>
+      </c>
+      <c r="B264">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2057</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>-2.782412269773912</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>2057</v>
+      </c>
+      <c r="B265">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C265">
+        <v>0.09965969859017987</v>
+      </c>
+      <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
+        <v>-2.888185494707817</v>
+      </c>
+      <c r="G265">
+        <v>-0.0248677850662582</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>2057</v>
+      </c>
+      <c r="B266">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C266">
+        <v>0.1998055420515314</v>
+      </c>
+      <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
+        <v>-2.987394960943797</v>
+      </c>
+      <c r="G266">
+        <v>-0.04279207131658058</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>2057</v>
+      </c>
+      <c r="B267">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C267">
+        <v>0.2999513855128829</v>
+      </c>
+      <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
+        <v>-3.080785184181345</v>
+      </c>
+      <c r="G267">
+        <v>-0.05465006669445227</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>2057</v>
+      </c>
+      <c r="B268">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C268">
+        <v>0.3996110841030627</v>
+      </c>
+      <c r="D268">
+        <v>1235</v>
+      </c>
+      <c r="E268">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-3.166583075768526</v>
+      </c>
+      <c r="G268">
+        <v>-0.06002870638456281</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>2057</v>
+      </c>
+      <c r="B269">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C269">
+        <v>0.4997569275644142</v>
+      </c>
+      <c r="D269">
+        <v>1029</v>
+      </c>
+      <c r="E269">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.248474692552624</v>
+      </c>
+      <c r="G269">
+        <v>-0.06068763153889112</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>2057</v>
+      </c>
+      <c r="B270">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C270">
+        <v>0.5999027710257657</v>
+      </c>
+      <c r="D270">
+        <v>823</v>
+      </c>
+      <c r="E270">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.327314060704089</v>
+      </c>
+      <c r="G270">
+        <v>-0.05829430806058711</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>2057</v>
+      </c>
+      <c r="B271">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C271">
+        <v>0.6995624696159456</v>
+      </c>
+      <c r="D271">
+        <v>618</v>
+      </c>
+      <c r="E271">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.400894873274204</v>
+      </c>
+      <c r="G271">
+        <v>-0.05103676245544619</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>2057</v>
+      </c>
+      <c r="B272">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C272">
+        <v>0.7997083130772971</v>
+      </c>
+      <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
+        <v>-3.470310666463863</v>
+      </c>
+      <c r="G272">
+        <v>-0.03898455204485374</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>2057</v>
+      </c>
+      <c r="B273">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C273">
+        <v>0.8998541565386485</v>
+      </c>
+      <c r="D273">
+        <v>206</v>
+      </c>
+      <c r="E273">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.53482783498393</v>
+      </c>
+      <c r="G273">
+        <v>-0.02214108907181267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>2057</v>
+      </c>
+      <c r="B274">
+        <v>3.363946994045685</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.593556185708066</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>2869</v>
+      </c>
+      <c r="B275">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2869</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>-2.800227823166039</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>2869</v>
+      </c>
+      <c r="B276">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C276">
+        <v>0.09968630184733357</v>
+      </c>
+      <c r="D276">
+        <v>2583</v>
+      </c>
+      <c r="E276">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-2.905894346487405</v>
+      </c>
+      <c r="G276">
+        <v>-0.02405954769288376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>2869</v>
+      </c>
+      <c r="B277">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C277">
+        <v>0.1997211571976298</v>
+      </c>
+      <c r="D277">
+        <v>2296</v>
+      </c>
+      <c r="E277">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-3.005625564978881</v>
+      </c>
+      <c r="G277">
+        <v>-0.04235785114047852</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>2869</v>
+      </c>
+      <c r="B278">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C278">
+        <v>0.2997560125479261</v>
+      </c>
+      <c r="D278">
+        <v>2009</v>
+      </c>
+      <c r="E278">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-3.099694688140732</v>
+      </c>
+      <c r="G278">
+        <v>-0.05392724476609256</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>2869</v>
+      </c>
+      <c r="B279">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C279">
+        <v>0.3997908678982224</v>
+      </c>
+      <c r="D279">
+        <v>1722</v>
+      </c>
+      <c r="E279">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-3.186368790434199</v>
+      </c>
+      <c r="G279">
+        <v>-0.05953736971059276</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>2869</v>
+      </c>
+      <c r="B280">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C280">
+        <v>0.4998257232485186</v>
+      </c>
+      <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
+        <v>-3.268787488413922</v>
+      </c>
+      <c r="G280">
+        <v>-0.0599901545789725</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>2869</v>
+      </c>
+      <c r="B281">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C281">
+        <v>0.5998605785988149</v>
+      </c>
+      <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
+        <v>-3.347911430194492</v>
+      </c>
+      <c r="G281">
+        <v>-0.05799486034932944</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>2869</v>
+      </c>
+      <c r="B282">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C282">
+        <v>0.6998954339491111</v>
+      </c>
+      <c r="D282">
+        <v>861</v>
+      </c>
+      <c r="E282">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.422440241353585</v>
+      </c>
+      <c r="G282">
+        <v>-0.05067628417042935</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>2869</v>
+      </c>
+      <c r="B283">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C283">
+        <v>0.7999302892994075</v>
+      </c>
+      <c r="D283">
+        <v>574</v>
+      </c>
+      <c r="E283">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.492082127071734</v>
+      </c>
+      <c r="G283">
+        <v>-0.03856826658751111</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>2869</v>
+      </c>
+      <c r="B284">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C284">
+        <v>0.8999651446497037</v>
+      </c>
+      <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
+        <v>-3.557168714705547</v>
+      </c>
+      <c r="G284">
+        <v>-0.02209728101680269</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>2869</v>
+      </c>
+      <c r="B285">
+        <v>3.784440368301395</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.616565425851922</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>3871</v>
+      </c>
+      <c r="B286">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>3871</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>-2.814626610423942</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>3871</v>
+      </c>
+      <c r="B287">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C287">
+        <v>0.09997416688194265</v>
+      </c>
+      <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
+        <v>-2.920775062694252</v>
+      </c>
+      <c r="G287">
+        <v>-0.02411612772917326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>3871</v>
+      </c>
+      <c r="B288">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C288">
+        <v>0.1999483337638853</v>
+      </c>
+      <c r="D288">
+        <v>3097</v>
+      </c>
+      <c r="E288">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-3.020454185503217</v>
+      </c>
+      <c r="G288">
+        <v>-0.04176292599700115</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>3871</v>
+      </c>
+      <c r="B289">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C289">
+        <v>0.2999225006458279</v>
+      </c>
+      <c r="D289">
+        <v>2710</v>
+      </c>
+      <c r="E289">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-3.114773055184477</v>
+      </c>
+      <c r="G289">
+        <v>-0.05392538916096723</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>3871</v>
+      </c>
+      <c r="B290">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C290">
+        <v>0.3998966675277706</v>
+      </c>
+      <c r="D290">
+        <v>2323</v>
+      </c>
+      <c r="E290">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-3.202763424976644</v>
+      </c>
+      <c r="G290">
+        <v>-0.06000751638815416</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>3871</v>
+      </c>
+      <c r="B291">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C291">
+        <v>0.4998708344097132</v>
+      </c>
+      <c r="D291">
+        <v>1936</v>
+      </c>
+      <c r="E291">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.2849314279874</v>
+      </c>
+      <c r="G291">
+        <v>-0.06014319485777286</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>3871</v>
+      </c>
+      <c r="B292">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C292">
+        <v>0.5998450012916559</v>
+      </c>
+      <c r="D292">
+        <v>1549</v>
+      </c>
+      <c r="E292">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.364488399352033</v>
+      </c>
+      <c r="G292">
+        <v>-0.05741160315786598</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>3871</v>
+      </c>
+      <c r="B293">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C293">
+        <v>0.6998191681735986</v>
+      </c>
+      <c r="D293">
+        <v>1162</v>
+      </c>
+      <c r="E293">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.439460808189694</v>
+      </c>
+      <c r="G293">
+        <v>-0.05026536224583411</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>3871</v>
+      </c>
+      <c r="B294">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C294">
+        <v>0.7997933350555412</v>
+      </c>
+      <c r="D294">
+        <v>775</v>
+      </c>
+      <c r="E294">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.50963004352219</v>
+      </c>
+      <c r="G294">
+        <v>-0.03874483676915286</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>3871</v>
+      </c>
+      <c r="B295">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C295">
+        <v>0.8997675019374839</v>
+      </c>
+      <c r="D295">
+        <v>388</v>
+      </c>
+      <c r="E295">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.574932932205309</v>
+      </c>
+      <c r="G295">
+        <v>-0.02195919404188035</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>3871</v>
+      </c>
+      <c r="B296">
+        <v>4.204933742557106</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.635161825666167</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.511096860793739</v>
+        <v>-2.511137773464996</v>
       </c>
       <c r="G24">
         <v>-0.03449633277097108</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.527378959413181</v>
+        <v>-2.527877846873314</v>
       </c>
       <c r="G25">
         <v>-0.03811202385042134</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.629999000998837</v>
+        <v>-2.631810456318401</v>
       </c>
       <c r="G32">
         <v>-0.05231538291777205</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.646590502516207</v>
+        <v>-2.647108277410378</v>
       </c>
       <c r="G33">
         <v>-0.05509207171540531</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.659353414289208</v>
+        <v>-2.659850806241157</v>
       </c>
       <c r="G34">
         <v>-0.05691240899442218</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.674915991011027</v>
+        <v>-2.675001535374064</v>
       </c>
       <c r="G35">
         <v>-0.0566553053829455</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.780438577850539</v>
+        <v>-2.781476462616934</v>
       </c>
       <c r="G43">
         <v>-0.06492512280120177</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.841876994368953</v>
+        <v>-2.842913730655199</v>
       </c>
       <c r="G48">
         <v>-0.06302854589850393</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.853377361732215</v>
+        <v>-2.853478485389885</v>
       </c>
       <c r="G49">
         <v>-0.06203564695893715</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.876649876959829</v>
+        <v>-2.877360869760938</v>
       </c>
       <c r="G51">
         <v>-0.05993257426714627</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.88682416919193</v>
+        <v>-2.88781439157145</v>
       </c>
       <c r="G52">
         <v>-0.05786114305487211</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.952132344440312</v>
+        <v>-2.952653573486972</v>
       </c>
       <c r="G58">
         <v>-0.04713116608712353</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.97293321957183</v>
+        <v>-2.973489030509954</v>
       </c>
       <c r="G60">
         <v>-0.04213837133954396</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.00258873935545</v>
+        <v>-3.002844623212828</v>
       </c>
       <c r="G63">
         <v>-0.03460949088871895</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.582477405892838</v>
+        <v>-2.58254105348469</v>
       </c>
       <c r="G78">
         <v>-0.01290266593950218</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.616074601474897</v>
+        <v>-2.616145631885454</v>
       </c>
       <c r="G83">
         <v>-0.02092322171688599</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.698779249213122</v>
+        <v>-2.699045093709665</v>
       </c>
       <c r="G96">
         <v>-0.03859746070860925</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.717604860825898</v>
+        <v>-2.717908093441129</v>
       </c>
       <c r="G99">
         <v>-0.0407730729632938</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.74682907877122</v>
+        <v>-2.747628652271021</v>
       </c>
       <c r="G104">
         <v>-0.04616850484636603</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.765555480868113</v>
+        <v>-2.766528348043666</v>
       </c>
       <c r="G107">
         <v>-0.04997885708381733</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.793907240188338</v>
+        <v>-2.796062727539491</v>
       </c>
       <c r="G112">
         <v>-0.050478030493321</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823377397667701</v>
+        <v>-2.823400175757177</v>
       </c>
       <c r="G117">
         <v>-0.0562908823777184</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.845559162875121</v>
+        <v>-2.845937888455989</v>
       </c>
       <c r="G121">
         <v>-0.05877331039507538</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.863304014956172</v>
+        <v>-2.863841851281895</v>
       </c>
       <c r="G124">
         <v>-0.06088631165212877</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.872159132949446</v>
+        <v>-2.872887618371046</v>
       </c>
       <c r="G126">
         <v>-0.06063008521175894</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.883890970104383</v>
+        <v>-2.88466417950562</v>
       </c>
       <c r="G128">
         <v>-0.06256056987686343</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.889463861049427</v>
+        <v>-2.890819701035323</v>
       </c>
       <c r="G129">
         <v>-0.06309756670556421</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.926486542031304</v>
+        <v>-2.927651034089087</v>
       </c>
       <c r="G136">
         <v>-0.06320054470983627</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.947154831104334</v>
+        <v>-2.947413996512327</v>
       </c>
       <c r="G140">
         <v>-0.06521029770017517</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.97842178918242</v>
+        <v>-2.978605796736173</v>
       </c>
       <c r="G146">
         <v>-0.06642998883671369</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.987827495640212</v>
+        <v>-2.987921828038639</v>
       </c>
       <c r="G148">
         <v>-0.06315823744911908</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.027049076795723</v>
+        <v>-3.028597556994702</v>
       </c>
       <c r="G156">
         <v>-0.06373741006675449</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.055497690266626</v>
+        <v>-3.055764400675039</v>
       </c>
       <c r="G162">
         <v>-0.06294689008341303</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.074533173133353</v>
+        <v>-3.074576372322696</v>
       </c>
       <c r="G166">
         <v>-0.06097622948162984</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.087626073767444</v>
+        <v>-3.087779183138879</v>
       </c>
       <c r="G169">
         <v>-0.05879315262597495</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.105770486938536</v>
+        <v>-3.107108140217961</v>
       </c>
       <c r="G173">
         <v>-0.05619661795255637</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.109621873376897</v>
+        <v>-3.110295732402104</v>
       </c>
       <c r="G174">
         <v>-0.05657591410343865</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.113957906070075</v>
+        <v>-3.114103262622178</v>
       </c>
       <c r="G175">
         <v>-0.05464416678249029</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.118404510010039</v>
+        <v>-3.11906612529775</v>
       </c>
       <c r="G176">
         <v>-0.05535119219801021</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.122991052256344</v>
+        <v>-3.123249507272938</v>
       </c>
       <c r="G177">
         <v>-0.05451272035511234</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.135509268863138</v>
+        <v>-3.135655186646941</v>
       </c>
       <c r="G180">
         <v>-0.05231237458573335</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.139865092071808</v>
+        <v>-3.140881684319909</v>
       </c>
       <c r="G181">
         <v>-0.05110815729102203</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.148288811725139</v>
+        <v>-3.148742415234459</v>
       </c>
       <c r="G183">
         <v>-0.04894437230727799</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.172200110505028</v>
+        <v>-3.173767241974922</v>
       </c>
       <c r="G189">
         <v>-0.04312406070774544</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.196537363429834</v>
+        <v>-3.196960101427006</v>
       </c>
       <c r="G195">
         <v>-0.03557416378238415</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.219231865451615</v>
+        <v>-3.219352448747812</v>
       </c>
       <c r="G201">
         <v>-0.02928001078480946</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.223389859328152</v>
+        <v>-3.223798553001189</v>
       </c>
       <c r="G202">
         <v>-0.02940329449118079</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.227337722599358</v>
+        <v>-3.227381386464581</v>
       </c>
       <c r="G203">
         <v>-0.02780662982893739</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.23776747350049</v>
+        <v>-3.237840625351412</v>
       </c>
       <c r="G206">
         <v>-0.02268296112119655</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.241924004610194</v>
+        <v>-3.242051648432219</v>
       </c>
       <c r="G207">
         <v>-0.02258006850071517</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.251942375758687</v>
+        <v>-3.252376787289037</v>
       </c>
       <c r="G210">
         <v>-0.01766865799096431</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.255945964937248</v>
+        <v>-3.256090394221077</v>
       </c>
       <c r="G211">
         <v>-0.015959953087192</v>
@@ -5291,7 +5291,7 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.261885290265493</v>
+        <v>-3.262510282202167</v>
       </c>
       <c r="G213">
         <v>-0.01226302225547936</v>
@@ -5314,7 +5314,7 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.265038201220376</v>
+        <v>-3.265358029304275</v>
       </c>
       <c r="G214">
         <v>-0.01050632354082642</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.078805366803566</v>
+        <v>-3.079166431108553</v>
       </c>
       <c r="G225">
         <v>-0.06489045909411528</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.152462856986095</v>
+        <v>-3.152717086243879</v>
       </c>
       <c r="G226">
         <v>-0.0614763946049619</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.287034081079529</v>
+        <v>-3.28728540842361</v>
       </c>
       <c r="G228">
         <v>-0.04108423754776991</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.345714766432807</v>
+        <v>-3.346929097287571</v>
       </c>
       <c r="G229">
         <v>-0.02394448519907111</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794455079300617</v>
+        <v>-2.794489723356777</v>
       </c>
       <c r="G232">
         <v>-0.02557133017608226</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.980698635625816</v>
+        <v>-2.980828057267124</v>
       </c>
       <c r="G234">
         <v>-0.05615996382956001</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.291058861599091</v>
+        <v>-3.29155619567054</v>
       </c>
       <c r="G238">
         <v>-0.05341448146908667</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.266787407213697</v>
+        <v>-3.267345568786862</v>
       </c>
       <c r="G248">
         <v>-0.05914424075405922</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.142202058853327</v>
+        <v>-3.142404511814147</v>
       </c>
       <c r="G257">
         <v>-0.05860433794154263</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.301396318520953</v>
+        <v>-3.302006159021204</v>
       </c>
       <c r="G259">
         <v>-0.05847773367816367</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.442861442607177</v>
+        <v>-3.443017254085076</v>
       </c>
       <c r="G261">
         <v>-0.03928450472781986</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.506193720388489</v>
+        <v>-3.506263178935096</v>
       </c>
       <c r="G262">
         <v>-0.02247821198851802</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.248474692552624</v>
+        <v>-3.24855135639198</v>
       </c>
       <c r="G269">
         <v>-0.06068763153889112</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020454185503217</v>
+        <v>-3.020637203982579</v>
       </c>
       <c r="G288">
         <v>-0.04176292599700115</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.439460808189694</v>
+        <v>-3.439930909652832</v>
       </c>
       <c r="G293">
         <v>-0.05026536224583411</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.574932932205309</v>
+        <v>-3.57494679207619</v>
       </c>
       <c r="G295">
         <v>-0.02195919404188035</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.446480141186292</v>
+        <v>-2.447059250983433</v>
       </c>
       <c r="G20">
         <v>-0.02057069832693603</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.479571649760833</v>
+        <v>-2.479722236933388</v>
       </c>
       <c r="G22">
         <v>-0.02789836403380175</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.557881448131801</v>
+        <v>-2.559013019339355</v>
       </c>
       <c r="G27">
         <v>-0.04365673421419691</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.572817464250666</v>
+        <v>-2.573119266957379</v>
       </c>
       <c r="G28">
         <v>-0.04497521983122921</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.60308885600197</v>
+        <v>-2.603946925675938</v>
       </c>
       <c r="G30">
         <v>-0.05027831220229673</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.688529124758507</v>
+        <v>-2.688568844810401</v>
       </c>
       <c r="G36">
         <v>-0.05860128185633995</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.715917686520979</v>
+        <v>-2.716447927362561</v>
       </c>
       <c r="G38">
         <v>-0.06318251124877672</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.730201323417614</v>
+        <v>-2.730325251134786</v>
       </c>
       <c r="G39">
         <v>-0.06174420177349105</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.754979017006276</v>
+        <v>-2.755501106962846</v>
       </c>
       <c r="G41">
         <v>-0.06464851953867568</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.767199953091127</v>
+        <v>-2.767887098435596</v>
       </c>
       <c r="G42">
         <v>-0.06427797683265757</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.805162970230981</v>
+        <v>-2.805747577269404</v>
       </c>
       <c r="G45">
         <v>-0.06230243866866192</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.853478485389885</v>
+        <v>-2.855250645271192</v>
       </c>
       <c r="G49">
         <v>-0.06203564695893715</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.88781439157145</v>
+        <v>-2.888287877672886</v>
       </c>
       <c r="G52">
         <v>-0.05786114305487211</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.910503627832593</v>
+        <v>-2.91164272097538</v>
       </c>
       <c r="G54">
         <v>-0.05507836771771357</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.952653573486972</v>
+        <v>-2.953106443723514</v>
       </c>
       <c r="G58">
         <v>-0.04713116608712353</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.575565251522296</v>
+        <v>-2.575643891560185</v>
       </c>
       <c r="G77">
         <v>-0.01099615642772767</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.58254105348469</v>
+        <v>-2.582776973296613</v>
       </c>
       <c r="G78">
         <v>-0.01290266593950218</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.589558399122135</v>
+        <v>-2.58983881075053</v>
       </c>
       <c r="G79">
         <v>-0.01497330202882763</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.596007074269171</v>
+        <v>-2.596131940545888</v>
       </c>
       <c r="G80">
         <v>-0.01639959162616078</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.616145631885454</v>
+        <v>-2.616470571115465</v>
       </c>
       <c r="G83">
         <v>-0.02092322171688599</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.622872972655704</v>
+        <v>-2.623091891064186</v>
       </c>
       <c r="G84">
         <v>-0.02270131407691434</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629413942758345</v>
+        <v>-2.629822212417078</v>
       </c>
       <c r="G85">
         <v>-0.02430684382788728</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.635920203213631</v>
+        <v>-2.636127797954159</v>
       </c>
       <c r="G86">
         <v>-0.02609735587255724</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.655353743327588</v>
+        <v>-2.655610316160543</v>
       </c>
       <c r="G89">
         <v>-0.03042321363748313</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.661133234501968</v>
+        <v>-2.662078791720033</v>
       </c>
       <c r="G90">
         <v>-0.03116681069551896</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.686189819850171</v>
+        <v>-2.686864024291855</v>
       </c>
       <c r="G94">
         <v>-0.03602692625276749</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.69289765958836</v>
+        <v>-2.693131888160539</v>
       </c>
       <c r="G95">
         <v>-0.03775176520019041</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.699045093709665</v>
+        <v>-2.700173461355172</v>
       </c>
       <c r="G96">
         <v>-0.03859746070860925</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730268004402294</v>
+        <v>-2.730363887654041</v>
       </c>
       <c r="G101">
         <v>-0.04338617953062007</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.776539318580752</v>
+        <v>-2.77710984909145</v>
       </c>
       <c r="G109">
         <v>-0.0505607304791964</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817349426240577</v>
+        <v>-2.817361214202057</v>
       </c>
       <c r="G116">
         <v>-0.05643180023737093</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.856804524357035</v>
+        <v>-2.857486796032755</v>
       </c>
       <c r="G123">
         <v>-0.06065359471123588</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.896039624558266</v>
+        <v>-2.896860069017898</v>
       </c>
       <c r="G130">
         <v>-0.06328759646185755</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.900616703320556</v>
+        <v>-2.901098792704927</v>
       </c>
       <c r="G131">
         <v>-0.06244029215308222</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.931923978972324</v>
+        <v>-2.933481363158045</v>
       </c>
       <c r="G137">
         <v>-0.06514780682008059</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.978605796736173</v>
+        <v>-2.980825622947202</v>
       </c>
       <c r="G146">
         <v>-0.06642998883671369</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.987921828038639</v>
+        <v>-2.989339850491405</v>
       </c>
       <c r="G148">
         <v>-0.06315823744911908</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.012531522195989</v>
+        <v>-3.013088057608767</v>
       </c>
       <c r="G153">
         <v>-0.06530376905987123</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.017370839678942</v>
+        <v>-3.017418359753605</v>
       </c>
       <c r="G154">
         <v>-0.06450570345248585</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.02256891238684</v>
+        <v>-3.024078836082566</v>
       </c>
       <c r="G155">
         <v>-0.06526937101803409</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.046045034390356</v>
+        <v>-3.04659122438133</v>
       </c>
       <c r="G160">
         <v>-0.06261647331626063</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.055764400675039</v>
+        <v>-3.056694768708791</v>
       </c>
       <c r="G162">
         <v>-0.06294689008341303</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.078264381169941</v>
+        <v>-3.07887717934843</v>
       </c>
       <c r="G167">
         <v>-0.06053411040500811</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.087779183138879</v>
+        <v>-3.087816757556206</v>
       </c>
       <c r="G169">
         <v>-0.05879315262597495</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.114103262622178</v>
+        <v>-3.11454863999144</v>
       </c>
       <c r="G175">
         <v>-0.05464416678249029</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.20819280033235</v>
+        <v>-3.208430511536264</v>
       </c>
       <c r="G198">
         <v>-0.03398854764317283</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.216287894662362</v>
+        <v>-3.216748989188116</v>
       </c>
       <c r="G200">
         <v>-0.03237311805807846</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.234850950007271</v>
+        <v>-3.235135634710583</v>
       </c>
       <c r="G205">
         <v>-0.0241622952537813</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.237840625351412</v>
+        <v>-3.239157328534127</v>
       </c>
       <c r="G206">
         <v>-0.02268296112119655</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.244860117350785</v>
+        <v>-3.24697127533134</v>
       </c>
       <c r="G208">
         <v>-0.02065818781574924</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.248643250752723</v>
+        <v>-3.249189119464681</v>
       </c>
       <c r="G209">
         <v>-0.01881198180935567</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827239704395923</v>
+        <v>-2.827554256362205</v>
       </c>
       <c r="G222">
         <v>-0.04461711384999667</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.980828057267124</v>
+        <v>-2.981335690039577</v>
       </c>
       <c r="G234">
         <v>-0.05615996382956001</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.2202980231463</v>
+        <v>-3.221350701452473</v>
       </c>
       <c r="G237">
         <v>-0.06072646791790248</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.357324380601446</v>
+        <v>-3.357594920954263</v>
       </c>
       <c r="G239">
         <v>-0.04122845134248943</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.8351695298974</v>
+        <v>-2.835280754392422</v>
       </c>
       <c r="G243">
         <v>-0.02508078868133046</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.374459451048292</v>
+        <v>-3.374693808117917</v>
       </c>
       <c r="G260">
         <v>-0.05124594810471084</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.443017254085076</v>
+        <v>-3.443324154918128</v>
       </c>
       <c r="G261">
         <v>-0.03928450472781986</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.506263178935096</v>
+        <v>-3.506351462443451</v>
       </c>
       <c r="G262">
         <v>-0.02247821198851802</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.987394960943797</v>
+        <v>-2.987641699353892</v>
       </c>
       <c r="G266">
         <v>-0.04279207131658058</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.327314060704089</v>
+        <v>-3.327352133697641</v>
       </c>
       <c r="G270">
         <v>-0.05829430806058711</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.400894873274204</v>
+        <v>-3.40148524988839</v>
       </c>
       <c r="G271">
         <v>-0.05103676245544619</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.905894346487405</v>
+        <v>-2.906104553751723</v>
       </c>
       <c r="G276">
         <v>-0.02405954769288376</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.005625564978881</v>
+        <v>-3.005691207820157</v>
       </c>
       <c r="G277">
         <v>-0.04235785114047852</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.186368790434199</v>
+        <v>-3.18674758709746</v>
       </c>
       <c r="G279">
         <v>-0.05953736971059276</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.347911430194492</v>
+        <v>-3.348151247081982</v>
       </c>
       <c r="G281">
         <v>-0.05799486034932944</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.492082127071734</v>
+        <v>-3.492146458022948</v>
       </c>
       <c r="G283">
         <v>-0.03856826658751111</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020637203982579</v>
+        <v>-3.020728715222532</v>
       </c>
       <c r="G288">
         <v>-0.04176292599700115</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.364488399352033</v>
+        <v>-3.364627486600182</v>
       </c>
       <c r="G292">
         <v>-0.05741160315786598</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.462941250853814</v>
+        <v>-2.463840237063008</v>
       </c>
       <c r="G21">
         <v>-0.02444032920358952</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.479722236933388</v>
+        <v>-2.48004211334544</v>
       </c>
       <c r="G22">
         <v>-0.02789836403380175</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.495360154508027</v>
+        <v>-2.496352635840409</v>
       </c>
       <c r="G23">
         <v>-0.03167627527606465</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.573119266957379</v>
+        <v>-2.574364980646086</v>
       </c>
       <c r="G28">
         <v>-0.04497521983122921</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.603946925675938</v>
+        <v>-2.604242893726814</v>
       </c>
       <c r="G30">
         <v>-0.05027831220229673</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.616115241615619</v>
+        <v>-2.619042758107217</v>
       </c>
       <c r="G31">
         <v>-0.04990878608421268</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.631810456318401</v>
+        <v>-2.632493191690183</v>
       </c>
       <c r="G32">
         <v>-0.05231538291777205</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.659850806241157</v>
+        <v>-2.66053337140543</v>
       </c>
       <c r="G34">
         <v>-0.05691240899442218</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.688568844810401</v>
+        <v>-2.688599011016265</v>
       </c>
       <c r="G36">
         <v>-0.05860128185633995</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.742759629284203</v>
+        <v>-2.743812571336468</v>
       </c>
       <c r="G40">
         <v>-0.06221724823468988</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.755501106962846</v>
+        <v>-2.756671920390852</v>
       </c>
       <c r="G41">
         <v>-0.06464851953867568</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.767887098435596</v>
+        <v>-2.767924242040897</v>
       </c>
       <c r="G42">
         <v>-0.06427797683265757</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.794303517013279</v>
+        <v>-2.795116243901667</v>
       </c>
       <c r="G44">
         <v>-0.06425677406334729</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.842913730655199</v>
+        <v>-2.844009990038005</v>
       </c>
       <c r="G48">
         <v>-0.06302854589850393</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.888287877672886</v>
+        <v>-2.888528996798641</v>
       </c>
       <c r="G52">
         <v>-0.05786114305487211</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.921075283460968</v>
+        <v>-2.921384388663601</v>
       </c>
       <c r="G55">
         <v>-0.0542586493272651</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.953106443723514</v>
+        <v>-2.953230573335447</v>
       </c>
       <c r="G58">
         <v>-0.04713116608712353</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.964117865188245</v>
+        <v>-2.96426899037888</v>
       </c>
       <c r="G59">
         <v>-0.04676708405193253</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.973489030509954</v>
+        <v>-2.973662916541527</v>
       </c>
       <c r="G60">
         <v>-0.04213837133954396</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.99313616916387</v>
+        <v>-2.994029861785176</v>
       </c>
       <c r="G62">
         <v>-0.03838461708802615</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.575643891560185</v>
+        <v>-2.57613413707227</v>
       </c>
       <c r="G77">
         <v>-0.01099615642772767</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.596131940545888</v>
+        <v>-2.596290419914702</v>
       </c>
       <c r="G80">
         <v>-0.01639959162616078</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.602718990536284</v>
+        <v>-2.603166864557693</v>
       </c>
       <c r="G81">
         <v>-0.01777113285492593</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.609562064864056</v>
+        <v>-2.610365543367895</v>
       </c>
       <c r="G82">
         <v>-0.01950538634326326</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.623091891064186</v>
+        <v>-2.623144716281565</v>
       </c>
       <c r="G84">
         <v>-0.02270131407691434</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.636127797954159</v>
+        <v>-2.63620338522411</v>
       </c>
       <c r="G86">
         <v>-0.02609735587255724</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.64233650818106</v>
+        <v>-2.642730803368877</v>
       </c>
       <c r="G87">
         <v>-0.02623464611558646</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.686864024291855</v>
+        <v>-2.68751830431766</v>
       </c>
       <c r="G94">
         <v>-0.03602692625276749</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.693131888160539</v>
+        <v>-2.693393065328638</v>
       </c>
       <c r="G95">
         <v>-0.03775176520019041</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.711580274096619</v>
+        <v>-2.711806348211613</v>
       </c>
       <c r="G98">
         <v>-0.04059961113766031</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.717908093441129</v>
+        <v>-2.718065623497148</v>
       </c>
       <c r="G99">
         <v>-0.0407730729632938</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.74212329609162</v>
+        <v>-2.742484355396015</v>
       </c>
       <c r="G103">
         <v>-0.04603597435826856</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.747628652271021</v>
+        <v>-2.748499485164565</v>
       </c>
       <c r="G104">
         <v>-0.04616850484636603</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.771356585730893</v>
+        <v>-2.772213642460799</v>
       </c>
       <c r="G108">
         <v>-0.04931127912235267</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.77710984909145</v>
+        <v>-2.778437393068084</v>
       </c>
       <c r="G109">
         <v>-0.0505607304791964</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.783353780879945</v>
+        <v>-2.784656571610341</v>
       </c>
       <c r="G110">
         <v>-0.05175443090219844</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817361214202057</v>
+        <v>-2.817587639873796</v>
       </c>
       <c r="G116">
         <v>-0.05643180023737093</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823400175757177</v>
+        <v>-2.823523018017274</v>
       </c>
       <c r="G117">
         <v>-0.0562908823777184</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.840519610803688</v>
+        <v>-2.841716087683061</v>
       </c>
       <c r="G120">
         <v>-0.05947636350691998</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.851619937706023</v>
+        <v>-2.852554392638634</v>
       </c>
       <c r="G122">
         <v>-0.05994165907784477</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.872887618371046</v>
+        <v>-2.874184479404534</v>
       </c>
       <c r="G126">
         <v>-0.06063008521175894</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.88466417950562</v>
+        <v>-2.884931150004912</v>
       </c>
       <c r="G128">
         <v>-0.06256056987686343</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.890819701035323</v>
+        <v>-2.89088481154141</v>
       </c>
       <c r="G129">
         <v>-0.06309756670556421</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.901098792704927</v>
+        <v>-2.901825778795983</v>
       </c>
       <c r="G131">
         <v>-0.06244029215308222</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.921639917452575</v>
+        <v>-2.922859137946802</v>
       </c>
       <c r="G135">
         <v>-0.06444861705805249</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.927651034089087</v>
+        <v>-2.927885349612024</v>
       </c>
       <c r="G136">
         <v>-0.06320054470983627</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.939161867125809</v>
+        <v>-2.939592526806287</v>
       </c>
       <c r="G138">
         <v>-0.06453681260502275</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.943016363075936</v>
+        <v>-2.943190440944332</v>
       </c>
       <c r="G139">
         <v>-0.06432967559488256</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.947413996512327</v>
+        <v>-2.947681995040223</v>
       </c>
       <c r="G140">
         <v>-0.06521029770017517</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.963161409944452</v>
+        <v>-2.964489826354081</v>
       </c>
       <c r="G143">
         <v>-0.06603582700293265</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.96915670054732</v>
+        <v>-2.969246367803429</v>
       </c>
       <c r="G144">
         <v>-0.06395610603712765</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.973330436994923</v>
+        <v>-2.973497591578645</v>
       </c>
       <c r="G145">
         <v>-0.06409575148595748</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.003564323096088</v>
+        <v>-3.004865619213693</v>
       </c>
       <c r="G151">
         <v>-0.06556489936887488</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.008031638205385</v>
+        <v>-3.008269887724427</v>
       </c>
       <c r="G152">
         <v>-0.06356326226043429</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.013088057608767</v>
+        <v>-3.013720770419255</v>
       </c>
       <c r="G153">
         <v>-0.06530376905987123</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.017418359753605</v>
+        <v>-3.020705888848291</v>
       </c>
       <c r="G154">
         <v>-0.06450570345248585</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.028597556994702</v>
+        <v>-3.029169618561799</v>
       </c>
       <c r="G156">
         <v>-0.06373741006675449</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.041314520381992</v>
+        <v>-3.041974466982361</v>
       </c>
       <c r="G159">
         <v>-0.06269727302206562</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.04659122438133</v>
+        <v>-3.047397505353388</v>
       </c>
       <c r="G160">
         <v>-0.06261647331626063</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.060398629893007</v>
+        <v>-3.060920682968819</v>
       </c>
       <c r="G163">
         <v>-0.06129378699509569</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.074576372322696</v>
+        <v>-3.074702388747236</v>
       </c>
       <c r="G166">
         <v>-0.06097622948162984</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.07887717934843</v>
+        <v>-3.079293637547206</v>
       </c>
       <c r="G167">
         <v>-0.06053411040500811</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.087816757556206</v>
+        <v>-3.088346176699153</v>
       </c>
       <c r="G169">
         <v>-0.05879315262597495</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.096016638868221</v>
+        <v>-3.097916804524332</v>
       </c>
       <c r="G171">
         <v>-0.05749690737886426</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.100484214344698</v>
+        <v>-3.10227004101067</v>
       </c>
       <c r="G172">
         <v>-0.05757447299804497</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.11454863999144</v>
+        <v>-3.114712978491199</v>
       </c>
       <c r="G175">
         <v>-0.05464416678249029</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.11906612529775</v>
+        <v>-3.11929118941848</v>
       </c>
       <c r="G176">
         <v>-0.05535119219801021</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.135655186646941</v>
+        <v>-3.136899834984055</v>
       </c>
       <c r="G180">
         <v>-0.05231237458573335</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.145196647099427</v>
+        <v>-3.14591816301739</v>
       </c>
       <c r="G182">
         <v>-0.05081807796817384</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.156608835974352</v>
+        <v>-3.157089669757998</v>
       </c>
       <c r="G185">
         <v>-0.04823247111522722</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.165852585369716</v>
+        <v>-3.166599300544487</v>
       </c>
       <c r="G187">
         <v>-0.04568019412243263</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.169431122465233</v>
+        <v>-3.169509323468803</v>
       </c>
       <c r="G188">
         <v>-0.04594707525707697</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.18110152892093</v>
+        <v>-3.181520400674794</v>
       </c>
       <c r="G191">
         <v>-0.04240670327907442</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.185312938511351</v>
+        <v>-3.185527824270822</v>
       </c>
       <c r="G192">
         <v>-0.04168531483781862</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.196960101427006</v>
+        <v>-3.19731743291543</v>
       </c>
       <c r="G195">
         <v>-0.03557416378238415</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.201777041389918</v>
+        <v>-3.201999701537238</v>
       </c>
       <c r="G196">
         <v>-0.03486481853727397</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.204874322321524</v>
+        <v>-3.205644335920348</v>
       </c>
       <c r="G197">
         <v>-0.03400953066537504</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.216748989188116</v>
+        <v>-3.216898561140992</v>
       </c>
       <c r="G200">
         <v>-0.03237311805807846</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.219352448747812</v>
+        <v>-3.219914347530084</v>
       </c>
       <c r="G201">
         <v>-0.02928001078480946</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.230560875315556</v>
+        <v>-3.230952860200128</v>
       </c>
       <c r="G204">
         <v>-0.02551131368624537</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.235135634710583</v>
+        <v>-3.235972281727031</v>
       </c>
       <c r="G205">
         <v>-0.0241622952537813</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.252376787289037</v>
+        <v>-3.252907637428816</v>
       </c>
       <c r="G210">
         <v>-0.01766865799096431</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.256090394221077</v>
+        <v>-3.256221944041032</v>
       </c>
       <c r="G211">
         <v>-0.015959953087192</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.731854252092865</v>
+        <v>-2.732029044574851</v>
       </c>
       <c r="G221">
         <v>-0.0258118952904014</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827554256362205</v>
+        <v>-2.82758805571314</v>
       </c>
       <c r="G222">
         <v>-0.04461711384999667</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.91693774680435</v>
+        <v>-2.917806064486327</v>
       </c>
       <c r="G223">
         <v>-0.05616230655272569</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.999974988709505</v>
+        <v>-3.000110649723497</v>
       </c>
       <c r="G224">
         <v>-0.06213941817935242</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.152717086243879</v>
+        <v>-3.153147339419549</v>
       </c>
       <c r="G226">
         <v>-0.0614763946049619</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.981335690039577</v>
+        <v>-2.981968439791195</v>
       </c>
       <c r="G234">
         <v>-0.05615996382956001</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.064219455351278</v>
+        <v>-3.064735383223724</v>
       </c>
       <c r="G235">
         <v>-0.06140834037373821</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.357594920954263</v>
+        <v>-3.357800229092537</v>
       </c>
       <c r="G239">
         <v>-0.04122845134248943</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.023879013235936</v>
+        <v>-3.02459801156854</v>
       </c>
       <c r="G245">
         <v>-0.05569305583028328</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.109882438845054</v>
+        <v>-3.109973358157864</v>
       </c>
       <c r="G246">
         <v>-0.06119070875689547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.865194681046909</v>
+        <v>-2.865254493307765</v>
       </c>
       <c r="G254">
         <v>-0.02453062410560891</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.056111762776336</v>
+        <v>-3.056469664211521</v>
       </c>
       <c r="G256">
         <v>-0.05511530734791936</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.142404511814147</v>
+        <v>-3.142562899286218</v>
       </c>
       <c r="G257">
         <v>-0.05860433794154263</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.302006159021204</v>
+        <v>-3.302249586666415</v>
       </c>
       <c r="G259">
         <v>-0.05847773367816367</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.374693808117917</v>
+        <v>-3.37478451725205</v>
       </c>
       <c r="G260">
         <v>-0.05124594810471084</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.506351462443451</v>
+        <v>-3.506434422674258</v>
       </c>
       <c r="G262">
         <v>-0.02247821198851802</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.166583075768526</v>
+        <v>-3.166878592826976</v>
       </c>
       <c r="G268">
         <v>-0.06002870638456281</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.24855135639198</v>
+        <v>-3.24883543287727</v>
       </c>
       <c r="G269">
         <v>-0.06068763153889112</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.327352133697641</v>
+        <v>-3.327605415194353</v>
       </c>
       <c r="G270">
         <v>-0.05829430806058711</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.470310666463863</v>
+        <v>-3.470500925017883</v>
       </c>
       <c r="G272">
         <v>-0.03898455204485374</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.53482783498393</v>
+        <v>-3.534882391877033</v>
       </c>
       <c r="G273">
         <v>-0.02214108907181267</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.268787488413922</v>
+        <v>-3.268897552663304</v>
       </c>
       <c r="G280">
         <v>-0.0599901545789725</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.348151247081982</v>
+        <v>-3.348847460587642</v>
       </c>
       <c r="G281">
         <v>-0.05799486034932944</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.422440241353585</v>
+        <v>-3.422509444247486</v>
       </c>
       <c r="G282">
         <v>-0.05067628417042935</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.492146458022948</v>
+        <v>-3.492160919373416</v>
       </c>
       <c r="G283">
         <v>-0.03856826658751111</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.920775062694252</v>
+        <v>-2.920996344512207</v>
       </c>
       <c r="G287">
         <v>-0.02411612772917326</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020728715222532</v>
+        <v>-3.020746076068663</v>
       </c>
       <c r="G288">
         <v>-0.04176292599700115</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.2849314279874</v>
+        <v>-3.284984269752024</v>
       </c>
       <c r="G291">
         <v>-0.06014319485777286</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.364627486600182</v>
+        <v>-3.364776214398787</v>
       </c>
       <c r="G292">
         <v>-0.05741160315786598</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.50963004352219</v>
+        <v>-3.509841744646926</v>
       </c>
       <c r="G294">
         <v>-0.03874483676915286</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.544011877038051</v>
+        <v>-2.544203094776759</v>
       </c>
       <c r="G26">
         <v>-0.04255356143348221</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.688599011016265</v>
+        <v>-2.688812997063728</v>
       </c>
       <c r="G36">
         <v>-0.05860128185633995</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.781476462616934</v>
+        <v>-2.782477616990674</v>
       </c>
       <c r="G43">
         <v>-0.06492512280120177</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.795116243901667</v>
+        <v>-2.795781181844594</v>
       </c>
       <c r="G44">
         <v>-0.06425677406334729</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.805747577269404</v>
+        <v>-2.806916186265842</v>
       </c>
       <c r="G45">
         <v>-0.06230243866866192</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.877360869760938</v>
+        <v>-2.87745678577809</v>
       </c>
       <c r="G51">
         <v>-0.05993257426714627</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.983094543857332</v>
+        <v>-2.983253829083338</v>
       </c>
       <c r="G61">
         <v>-0.03895109715855477</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.649083326574416</v>
+        <v>-2.649679757680601</v>
       </c>
       <c r="G88">
         <v>-0.02918869100065447</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.655610316160543</v>
+        <v>-2.655903332418992</v>
       </c>
       <c r="G89">
         <v>-0.03042321363748313</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.711806348211613</v>
+        <v>-2.711861364404468</v>
       </c>
       <c r="G98">
         <v>-0.04059961113766031</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730363887654041</v>
+        <v>-2.730796256903931</v>
       </c>
       <c r="G101">
         <v>-0.04338617953062007</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.874184479404534</v>
+        <v>-2.87571827056786</v>
       </c>
       <c r="G126">
         <v>-0.06063008521175894</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.878808066511982</v>
+        <v>-2.87927853860239</v>
       </c>
       <c r="G127">
         <v>-0.06251356040080625</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.973497591578645</v>
+        <v>-2.974269196104714</v>
       </c>
       <c r="G145">
         <v>-0.06409575148595748</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.05178921781233</v>
+        <v>-3.05289768422946</v>
       </c>
       <c r="G161">
         <v>-0.06054322589794925</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.10227004101067</v>
+        <v>-3.103627296766401</v>
       </c>
       <c r="G172">
         <v>-0.05757447299804497</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.11929118941848</v>
+        <v>-3.119648276332937</v>
       </c>
       <c r="G176">
         <v>-0.05535119219801021</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.188864608815957</v>
+        <v>-3.189171850899638</v>
       </c>
       <c r="G193">
         <v>-0.04020109102608116</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.212140938449512</v>
+        <v>-3.212581482410727</v>
       </c>
       <c r="G199">
         <v>-0.03231039694045595</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.242051648432219</v>
+        <v>-3.242769231483594</v>
       </c>
       <c r="G207">
         <v>-0.02258006850071517</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.249189119464681</v>
+        <v>-3.249960488486511</v>
       </c>
       <c r="G209">
         <v>-0.01881198180935567</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.252907637428816</v>
+        <v>-3.253967040895839</v>
       </c>
       <c r="G210">
         <v>-0.01766865799096431</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.82758805571314</v>
+        <v>-2.827659689087234</v>
       </c>
       <c r="G222">
         <v>-0.04461711384999667</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.153147339419549</v>
+        <v>-3.153284731406021</v>
       </c>
       <c r="G226">
         <v>-0.0614763946049619</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.222779265391401</v>
+        <v>-3.223145689887866</v>
       </c>
       <c r="G227">
         <v>-0.05492736132035214</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.064735383223724</v>
+        <v>-3.064875033837467</v>
       </c>
       <c r="G235">
         <v>-0.06140834037373821</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.223491741377815</v>
+        <v>-3.22354462631011</v>
       </c>
       <c r="G258">
         <v>-0.06169374593439114</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.506434422674258</v>
+        <v>-3.506782108324171</v>
       </c>
       <c r="G262">
         <v>-0.02247821198851802</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.57494679207619</v>
+        <v>-3.574986208578644</v>
       </c>
       <c r="G295">
         <v>-0.02195919404188035</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -426,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.012622932911828</v>
+        <v>-2.01262293291183</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-2.220446049250313e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C3">
         <v>0.07692307692307693</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.071118264090984</v>
+        <v>-2.071118264090986</v>
       </c>
       <c r="G3">
-        <v>-0.01336219630812141</v>
+        <v>-0.01336219630812363</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C4">
         <v>0.1538461538461539</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.129613595270139</v>
+        <v>-2.129613595270141</v>
       </c>
       <c r="G4">
-        <v>-0.0267243926162426</v>
+        <v>-0.02672439261624393</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,7 +495,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C5">
         <v>0.2307692307692308</v>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.187680919573855</v>
+        <v>-2.187680919573856</v>
       </c>
       <c r="G5">
-        <v>-0.03965858204892414</v>
+        <v>-0.03965858204892503</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C6">
         <v>0.3076923076923077</v>
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.24574824387757</v>
+        <v>-2.245748243877571</v>
       </c>
       <c r="G6">
-        <v>-0.05259277148160457</v>
+        <v>-0.05259277148160502</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C7">
         <v>0.3846153846153846</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C8">
         <v>0.4615384615384616</v>
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.348593695905433</v>
+        <v>-2.348593695905432</v>
       </c>
       <c r="G8">
-        <v>-0.06517195376739759</v>
+        <v>-0.06517195376739715</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C9">
         <v>0.5384615384615384</v>
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.393366173589855</v>
+        <v>-2.393366173589853</v>
       </c>
       <c r="G9">
-        <v>-0.06481129658078566</v>
+        <v>-0.06481129658078433</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C10">
         <v>0.6153846153846154</v>
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.437507941040566</v>
+        <v>-2.437507941040565</v>
       </c>
       <c r="G10">
-        <v>-0.06381992916046275</v>
+        <v>-0.06381992916046142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C11">
         <v>0.6923076923076923</v>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.480602291461577</v>
+        <v>-2.480602291461575</v>
       </c>
       <c r="G11">
-        <v>-0.06178114471043861</v>
+        <v>-0.06178114471043683</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C12">
         <v>0.7692307692307693</v>
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.523696641882587</v>
+        <v>-2.523696641882585</v>
       </c>
       <c r="G12">
-        <v>-0.05974236026041446</v>
+        <v>-0.05974236026041224</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C13">
         <v>0.8461538461538461</v>
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.55932055057052</v>
+        <v>-2.559320550570518</v>
       </c>
       <c r="G13">
-        <v>-0.05023313407731278</v>
+        <v>-0.05023313407731012</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C14">
         <v>0.9230769230769231</v>
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.594944459258453</v>
+        <v>-2.59494445925845</v>
       </c>
       <c r="G14">
-        <v>-0.04072390789421088</v>
+        <v>-0.04072390789420777</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4204933742557106</v>
+        <v>0.5105310960166872</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.599353686235276</v>
+        <v>-2.599353686235273</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,7 +748,7 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.375543527695881</v>
+        <v>-2.375543527695873</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7.993605777301127e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,7 +771,7 @@
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C17">
         <v>0.01818181818181818</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.395558073150426</v>
+        <v>-2.39555807315042</v>
       </c>
       <c r="G17">
-        <v>-0.007423066663676092</v>
+        <v>-0.007423066663669875</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C18">
         <v>0.03636363636363636</v>
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.412918169027142</v>
+        <v>-2.412918169027137</v>
       </c>
       <c r="G18">
-        <v>-0.01219168374952373</v>
+        <v>-0.0121916837495184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,7 +817,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C19">
         <v>0.05454545454545454</v>
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.430278264903858</v>
+        <v>-2.430278264903854</v>
       </c>
       <c r="G19">
-        <v>-0.01638119103822966</v>
+        <v>-0.01696030083536648</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,7 +840,7 @@
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C20">
         <v>0.07272727272727272</v>
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.447059250983433</v>
+        <v>-2.446480141186289</v>
       </c>
       <c r="G20">
-        <v>-0.02057069832693603</v>
+        <v>-0.02057069832693292</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C21">
         <v>0.09090909090909091</v>
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.463840237063008</v>
+        <v>-2.462836869940398</v>
       </c>
       <c r="G21">
-        <v>-0.02444032920358952</v>
+        <v>-0.02433594829017283</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.48004211334544</v>
+        <v>-2.47907805588858</v>
       </c>
       <c r="G22">
-        <v>-0.02789836403380175</v>
+        <v>-0.02798565544748621</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,7 +909,7 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C23">
         <v>0.1272727272727273</v>
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.496352635840409</v>
+        <v>-2.494855674845552</v>
       </c>
       <c r="G23">
-        <v>-0.03167627527606465</v>
+        <v>-0.03117179561358974</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C24">
         <v>0.1454545454545454</v>
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.511137773464996</v>
+        <v>-2.510190805507856</v>
       </c>
       <c r="G24">
-        <v>-0.03449633277097108</v>
+        <v>-0.03391544748502495</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C25">
         <v>0.1636363636363636</v>
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.527877846873314</v>
+        <v>-2.525878941443189</v>
       </c>
       <c r="G25">
-        <v>-0.03811202385042134</v>
+        <v>-0.03701210462948912</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,7 +978,7 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.544203094776759</v>
+        <v>-2.5430283742852</v>
       </c>
       <c r="G26">
-        <v>-0.04255356143348221</v>
+        <v>-0.04157005868063157</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C27">
         <v>0.2</v>
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.559013019339355</v>
+        <v>-2.558266193110777</v>
       </c>
       <c r="G27">
-        <v>-0.04365673421419691</v>
+        <v>-0.04421639871533944</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.574364980646086</v>
+        <v>-2.574293987448932</v>
       </c>
       <c r="G28">
-        <v>-0.04497521983122921</v>
+        <v>-0.04765271426262618</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C29">
         <v>0.2363636363636364</v>
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.589093851829339</v>
+        <v>-2.587670538097263</v>
       </c>
       <c r="G29">
-        <v>-0.04756497599240683</v>
+        <v>-0.04843778612008798</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C30">
         <v>0.2545454545454545</v>
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.604242893726814</v>
+        <v>-2.602919735381796</v>
       </c>
       <c r="G30">
-        <v>-0.05027831220229673</v>
+        <v>-0.05109550461375201</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C31">
         <v>0.2727272727272727</v>
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.619042758107217</v>
+        <v>-2.618975743031852</v>
       </c>
       <c r="G31">
-        <v>-0.04990878608421268</v>
+        <v>-0.05456003347293992</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,7 +1116,7 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C32">
         <v>0.2909090909090909</v>
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.632493191690183</v>
+        <v>-2.629567156172627</v>
       </c>
       <c r="G32">
-        <v>-0.05231538291777205</v>
+        <v>-0.05255996782284611</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,7 +1139,7 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C33">
         <v>0.3090909090909091</v>
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.647108277410378</v>
+        <v>-2.646309819992308</v>
       </c>
       <c r="G33">
-        <v>-0.05509207171540531</v>
+        <v>-0.0567111528516584</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C34">
         <v>0.3272727272727273</v>
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.66053337140543</v>
+        <v>-2.657522840614867</v>
       </c>
       <c r="G34">
-        <v>-0.05691240899442218</v>
+        <v>-0.05533269468334789</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C35">
         <v>0.3454545454545455</v>
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.675001535374064</v>
+        <v>-2.673167669853649</v>
       </c>
       <c r="G35">
-        <v>-0.0566553053829455</v>
+        <v>-0.05838604513126122</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C36">
         <v>0.3636363636363636</v>
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.688812997063728</v>
+        <v>-2.687593604405428</v>
       </c>
       <c r="G36">
-        <v>-0.05860128185633995</v>
+        <v>-0.06022050089217235</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C37">
         <v>0.3818181818181818</v>
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.703929186091629</v>
+        <v>-2.701881656962879</v>
       </c>
       <c r="G37">
-        <v>-0.06396460378750368</v>
+        <v>-0.0619170746587534</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C38">
         <v>0.4</v>
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.716447927362561</v>
+        <v>-2.714536949846463</v>
       </c>
       <c r="G38">
-        <v>-0.06318251124877672</v>
+        <v>-0.06198088875146923</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,7 +1277,7 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C39">
         <v>0.4181818181818182</v>
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.730325251134786</v>
+        <v>-2.728430672070453</v>
       </c>
       <c r="G39">
-        <v>-0.06174420177349105</v>
+        <v>-0.06328313218459036</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C40">
         <v>0.4363636363636363</v>
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.743812571336468</v>
+        <v>-2.744576267091915</v>
       </c>
       <c r="G40">
-        <v>-0.06221724823468988</v>
+        <v>-0.06683724841518335</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,7 +1323,7 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C41">
         <v>0.4545454545454545</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.756671920390852</v>
+        <v>-2.752924920641439</v>
       </c>
       <c r="G41">
-        <v>-0.06464851953867568</v>
+        <v>-0.06259442317383934</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C42">
         <v>0.4727272727272727</v>
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.767924242040897</v>
+        <v>-2.770639937758514</v>
       </c>
       <c r="G42">
-        <v>-0.06427797683265757</v>
+        <v>-0.0677179615000445</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,7 +1369,7 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C43">
         <v>0.4909090909090909</v>
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.782477616990674</v>
+        <v>-2.780967456670064</v>
       </c>
       <c r="G43">
-        <v>-0.06492512280120177</v>
+        <v>-0.06545400162072612</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,7 +1392,7 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C44">
         <v>0.509090909090909</v>
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.795781181844594</v>
+        <v>-2.79327948216606</v>
       </c>
       <c r="G44">
-        <v>-0.06425677406334729</v>
+        <v>-0.06517454832585412</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,7 +1415,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C45">
         <v>0.5272727272727272</v>
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.806916186265842</v>
+        <v>-2.805296462359418</v>
       </c>
       <c r="G45">
-        <v>-0.06230243866866192</v>
+        <v>-0.06460004972834299</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C46">
         <v>0.5454545454545454</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.819705264147832</v>
+        <v>-2.818974373125642</v>
       </c>
       <c r="G46">
-        <v>-0.06300473607359458</v>
+        <v>-0.06568648170369795</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.830484275651844</v>
+        <v>-2.832082176330986</v>
       </c>
       <c r="G47">
-        <v>-0.06330717714670375</v>
+        <v>-0.06620280611817297</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C48">
         <v>0.5818181818181818</v>
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.844009990038005</v>
+        <v>-2.84121027283414</v>
       </c>
       <c r="G48">
-        <v>-0.06302854589850393</v>
+        <v>-0.0627394238304585</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C49">
         <v>0.6</v>
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.855250645271192</v>
+        <v>-2.854109233361246</v>
       </c>
       <c r="G49">
-        <v>-0.06203564695893715</v>
+        <v>-0.06304690556669601</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C50">
         <v>0.6181818181818182</v>
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.866348170781511</v>
+        <v>-2.863486696959383</v>
       </c>
       <c r="G50">
-        <v>-0.06207402924536409</v>
+        <v>-0.05983289037396422</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,7 +1553,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C51">
         <v>0.6363636363636364</v>
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.87745678577809</v>
+        <v>-2.873712178371167</v>
       </c>
       <c r="G51">
-        <v>-0.05993257426714627</v>
+        <v>-0.05746689299487928</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C52">
         <v>0.6545454545454545</v>
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.888528996798641</v>
+        <v>-2.888013998389981</v>
       </c>
       <c r="G52">
-        <v>-0.05786114305487211</v>
+        <v>-0.05917723422282495</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,7 +1599,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C53">
         <v>0.6727272727272727</v>
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.900539411304881</v>
+        <v>-2.898550228369633</v>
       </c>
       <c r="G53">
-        <v>-0.05911116834685537</v>
+        <v>-0.05712198541160796</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C54">
         <v>0.6909090909090909</v>
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.91164272097538</v>
+        <v>-2.909169171166957</v>
       </c>
       <c r="G54">
-        <v>-0.05507836771771357</v>
+        <v>-0.05514944941806332</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C55">
         <v>0.7090909090909091</v>
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.921384388663601</v>
+        <v>-2.922153385337135</v>
       </c>
       <c r="G55">
-        <v>-0.0542586493272651</v>
+        <v>-0.05554218479737238</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C56">
         <v>0.7272727272727273</v>
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.931373101696569</v>
+        <v>-2.931631817636231</v>
       </c>
       <c r="G56">
-        <v>-0.05102802694797182</v>
+        <v>-0.05242913830559981</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C57">
         <v>0.7454545454545455</v>
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.942167396393269</v>
+        <v>-2.941845753126283</v>
       </c>
       <c r="G57">
-        <v>-0.04933054287806482</v>
+        <v>-0.05005159500478329</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,7 +1714,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C58">
         <v>0.7636363636363637</v>
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.953230573335447</v>
+        <v>-2.951681038719653</v>
       </c>
       <c r="G58">
-        <v>-0.04713116608712353</v>
+        <v>-0.04729540180728409</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,7 +1737,7 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C59">
         <v>0.7818181818181819</v>
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.96426899037888</v>
+        <v>-2.962605468059554</v>
       </c>
       <c r="G59">
-        <v>-0.04676708405193253</v>
+        <v>-0.0456283523563159</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.973662916541527</v>
+        <v>-2.971918394604375</v>
       </c>
       <c r="G60">
-        <v>-0.04213837133954396</v>
+        <v>-0.04234980011026795</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1783,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C61">
         <v>0.8181818181818182</v>
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.983253829083338</v>
+        <v>-2.983498802477593</v>
       </c>
       <c r="G61">
-        <v>-0.03895109715855477</v>
+        <v>-0.04133872919261777</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1806,7 +1806,7 @@
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C62">
         <v>0.8363636363636363</v>
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.994029861785176</v>
+        <v>-2.992799878644592</v>
       </c>
       <c r="G62">
-        <v>-0.03838461708802615</v>
+        <v>-0.0380483265687474</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.002844623212828</v>
+        <v>-3.001165499238103</v>
       </c>
       <c r="G63">
-        <v>-0.03460949088871895</v>
+        <v>-0.03382246837139063</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C64">
         <v>0.8727272727272727</v>
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.011659384640481</v>
+        <v>-3.011659384640477</v>
       </c>
       <c r="G64">
-        <v>-0.03172487498289928</v>
+        <v>-0.03172487498289572</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,7 +1875,7 @@
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C65">
         <v>0.8909090909090909</v>
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.020474146068132</v>
+        <v>-3.020474146068131</v>
       </c>
       <c r="G65">
-        <v>-0.02648876368028896</v>
+        <v>-0.02794815761968039</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C66">
         <v>0.9090909090909091</v>
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.029288907495784</v>
+        <v>-3.028815094383463</v>
       </c>
       <c r="G66">
-        <v>-0.024171440256465</v>
+        <v>-0.02369762714414358</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C67">
         <v>0.9272727272727272</v>
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-3.037629855811117</v>
+        <v>-3.037629855811114</v>
       </c>
       <c r="G67">
-        <v>-0.01992090978092911</v>
+        <v>-0.01992090978092645</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,7 +1944,7 @@
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C68">
         <v>0.9454545454545454</v>
@@ -1959,7 +1959,7 @@
         <v>-3.045241107156754</v>
       </c>
       <c r="G68">
-        <v>-0.01494068233569729</v>
+        <v>-0.01494068233569773</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,7 +1967,7 @@
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C69">
         <v>0.9636363636363636</v>
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-3.052852358502391</v>
+        <v>-3.05285235850239</v>
       </c>
       <c r="G69">
-        <v>-0.009960454890465445</v>
+        <v>-0.009960454890464557</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C70">
         <v>0.9818181818181818</v>
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-3.060463609848026</v>
+        <v>-3.060463609848022</v>
       </c>
       <c r="G70">
-        <v>-0.004980227445232278</v>
+        <v>-0.004980227445228282</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.8409867485114212</v>
+        <v>1.021062192033374</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-3.068074861193663</v>
+        <v>-3.068074861193655</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>7.993605777301127e-15</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,7 +2036,7 @@
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.539320329712258</v>
+        <v>-2.539320329712253</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>5.329070518200751e-15</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,7 +2059,7 @@
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C73">
         <v>0.006802721088435374</v>
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-2.546808765086408</v>
+        <v>-2.546808765086403</v>
       </c>
       <c r="G73">
-        <v>-0.002452541257806029</v>
+        <v>-0.0024525412578007</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,7 +2082,7 @@
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C74">
         <v>0.01360544217687075</v>
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-2.554297200460558</v>
+        <v>-2.554297200460552</v>
       </c>
       <c r="G74">
-        <v>-0.004905082515612502</v>
+        <v>-0.004905082515605841</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,7 +2105,7 @@
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C75">
         <v>0.02040816326530612</v>
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.561785635834708</v>
+        <v>-2.5617856358347</v>
       </c>
       <c r="G75">
-        <v>-0.007357623773418087</v>
+        <v>-0.007357623773410094</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,7 +2128,7 @@
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C76">
         <v>0.0272108843537415</v>
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.568918717571136</v>
+        <v>-2.569001055335833</v>
       </c>
       <c r="G76">
-        <v>-0.009454811393502904</v>
+        <v>-0.00953714915819992</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,7 +2151,7 @@
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C77">
         <v>0.03401360544217687</v>
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.57613413707227</v>
+        <v>-2.57613413707226</v>
       </c>
       <c r="G77">
-        <v>-0.01099615642772767</v>
+        <v>-0.01163433677828207</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,7 +2174,7 @@
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C78">
         <v>0.04081632653061224</v>
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.582776973296613</v>
+        <v>-2.583010943626603</v>
       </c>
       <c r="G78">
-        <v>-0.01290266593950218</v>
+        <v>-0.01347524921628196</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,7 +2197,7 @@
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C79">
         <v>0.04761904761904762</v>
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.58983881075053</v>
+        <v>-2.589374205905977</v>
       </c>
       <c r="G79">
-        <v>-0.01497330202882763</v>
+        <v>-0.01480261737931166</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,7 +2220,7 @@
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C80">
         <v>0.05442176870748299</v>
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.596290419914702</v>
+        <v>-2.596399309210157</v>
       </c>
       <c r="G80">
-        <v>-0.01639959162616078</v>
+        <v>-0.01679182656714717</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,7 +2243,7 @@
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C81">
         <v>0.06122448979591837</v>
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.603166864557693</v>
+        <v>-2.602834941393074</v>
       </c>
       <c r="G81">
-        <v>-0.01777113285492593</v>
+        <v>-0.01819156463372007</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,7 +2266,7 @@
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C82">
         <v>0.06802721088435375</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.610365543367895</v>
+        <v>-2.609082374552551</v>
       </c>
       <c r="G82">
-        <v>-0.01950538634326326</v>
+        <v>-0.01940310367685338</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,7 +2289,7 @@
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C83">
         <v>0.07482993197278912</v>
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.616470571115465</v>
+        <v>-2.61546722628734</v>
       </c>
       <c r="G83">
-        <v>-0.02092322171688599</v>
+        <v>-0.02075206129529805</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C84">
         <v>0.08163265306122448</v>
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.623144716281565</v>
+        <v>-2.622466846698631</v>
       </c>
       <c r="G84">
-        <v>-0.02270131407691434</v>
+        <v>-0.02271578759024573</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,7 +2335,7 @@
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C85">
         <v>0.08843537414965986</v>
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629822212417078</v>
+        <v>-2.628829677110282</v>
       </c>
       <c r="G85">
-        <v>-0.02430684382788728</v>
+        <v>-0.02404272388555251</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,7 +2358,7 @@
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C86">
         <v>0.09523809523809523</v>
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.63620338522411</v>
+        <v>-2.635490587353951</v>
       </c>
       <c r="G86">
-        <v>-0.02609735587255724</v>
+        <v>-0.02566774001287708</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.642730803368877</v>
+        <v>-2.640446992518087</v>
       </c>
       <c r="G87">
-        <v>-0.02623464611558646</v>
+        <v>-0.02558825106066998</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.649679757680601</v>
+        <v>-2.648939193455651</v>
       </c>
       <c r="G88">
-        <v>-0.02918869100065447</v>
+        <v>-0.02904455788189031</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,7 +2427,7 @@
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C89">
         <v>0.1156462585034014</v>
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.655903332418992</v>
+        <v>-2.654293432293772</v>
       </c>
       <c r="G89">
-        <v>-0.03042321363748313</v>
+        <v>-0.02936290260366725</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,7 +2450,7 @@
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.662078791720033</v>
+        <v>-2.660533593261742</v>
       </c>
       <c r="G90">
-        <v>-0.03116681069551896</v>
+        <v>-0.03056716945529248</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,7 +2473,7 @@
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C91">
         <v>0.1292517006802721</v>
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.668909504826393</v>
+        <v>-2.667857177026027</v>
       </c>
       <c r="G91">
-        <v>-0.03152109478037701</v>
+        <v>-0.03285485910323382</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,7 +2496,7 @@
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.674904601195727</v>
+        <v>-2.673123105642513</v>
       </c>
       <c r="G92">
-        <v>-0.03486638915659013</v>
+        <v>-0.0330848936033763</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,7 +2519,7 @@
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C93">
         <v>0.1428571428571428</v>
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.681104381096317</v>
+        <v>-2.68000214823922</v>
       </c>
       <c r="G93">
-        <v>-0.0345223436750719</v>
+        <v>-0.03492804208373856</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,7 +2542,7 @@
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.68751830431766</v>
+        <v>-2.68610731923977</v>
       </c>
       <c r="G94">
-        <v>-0.03602692625276749</v>
+        <v>-0.03599731896794456</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,7 +2565,7 @@
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C95">
         <v>0.1564625850340136</v>
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.693393065328638</v>
+        <v>-2.692757957479333</v>
       </c>
       <c r="G95">
-        <v>-0.03775176520019041</v>
+        <v>-0.03761206309116449</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,7 +2588,7 @@
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C96">
         <v>0.163265306122449</v>
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.700173461355172</v>
+        <v>-2.698811741890756</v>
       </c>
       <c r="G96">
-        <v>-0.03859746070860925</v>
+        <v>-0.03862995338624353</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,7 +2611,7 @@
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C97">
         <v>0.1700680272108843</v>
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.706151335039248</v>
+        <v>-2.704558633021704</v>
       </c>
       <c r="G97">
-        <v>-0.03943709509888649</v>
+        <v>-0.03934095040084706</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,7 +2634,7 @@
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.711861364404468</v>
+        <v>-2.713007329944705</v>
       </c>
       <c r="G98">
-        <v>-0.04059961113766031</v>
+        <v>-0.04275375320750419</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,7 +2657,7 @@
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C99">
         <v>0.1836734693877551</v>
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.718065623497148</v>
+        <v>-2.717761126750783</v>
       </c>
       <c r="G99">
-        <v>-0.0407730729632938</v>
+        <v>-0.04247165589723778</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2680,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C100">
         <v>0.1904761904761905</v>
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.724753828427402</v>
+        <v>-2.72319431359608</v>
       </c>
       <c r="G100">
-        <v>-0.04207416083230475</v>
+        <v>-0.04286894862619128</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2703,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C101">
         <v>0.1972789115646258</v>
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730796256903931</v>
+        <v>-2.728396207880066</v>
       </c>
       <c r="G101">
-        <v>-0.04338617953062007</v>
+        <v>-0.04303494879383374</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2726,7 +2726,7 @@
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.736561219088442</v>
+        <v>-2.735259682425897</v>
       </c>
       <c r="G102">
-        <v>-0.0461640658858653</v>
+        <v>-0.04486252922332046</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2749,7 +2749,7 @@
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C103">
         <v>0.2108843537414966</v>
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.742484355396015</v>
+        <v>-2.742275230070308</v>
       </c>
       <c r="G103">
-        <v>-0.04603597435826856</v>
+        <v>-0.04684218275138807</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2772,7 +2772,7 @@
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C104">
         <v>0.217687074829932</v>
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.748499485164565</v>
+        <v>-2.747690302806542</v>
       </c>
       <c r="G104">
-        <v>-0.04616850484636603</v>
+        <v>-0.04722136137127797</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2795,7 +2795,7 @@
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C105">
         <v>0.2244897959183673</v>
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.754250915664425</v>
+        <v>-2.753264632005687</v>
       </c>
       <c r="G105">
-        <v>-0.04739612575879604</v>
+        <v>-0.04775979645407857</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2818,7 +2818,7 @@
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.760232265750846</v>
+        <v>-2.760042295189193</v>
       </c>
       <c r="G106">
-        <v>-0.04863226590547187</v>
+        <v>-0.04950156552124074</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2841,7 +2841,7 @@
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C107">
         <v>0.2380952380952381</v>
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.766528348043666</v>
+        <v>-2.76546014058847</v>
       </c>
       <c r="G107">
-        <v>-0.04997885708381733</v>
+        <v>-0.0498835168041738</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2864,7 +2864,7 @@
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C108">
         <v>0.2448979591836735</v>
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.772213642460799</v>
+        <v>-2.771229083112455</v>
       </c>
       <c r="G108">
-        <v>-0.04931127912235267</v>
+        <v>-0.0506165652118149</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2887,7 +2887,7 @@
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C109">
         <v>0.2517006802721088</v>
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.778437393068084</v>
+        <v>-2.777674435829799</v>
       </c>
       <c r="G109">
-        <v>-0.0505607304791964</v>
+        <v>-0.05202602381281474</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2910,7 +2910,7 @@
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C110">
         <v>0.2585034013605442</v>
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.784656571610341</v>
+        <v>-2.781983940737895</v>
       </c>
       <c r="G110">
-        <v>-0.05175443090219844</v>
+        <v>-0.05129963460456755</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2933,7 +2933,7 @@
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C111">
         <v>0.2653061224489796</v>
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.789321479352505</v>
+        <v>-2.788175658510144</v>
       </c>
       <c r="G111">
-        <v>-0.05269060899187994</v>
+        <v>-0.0524554582604726</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2956,7 +2956,7 @@
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C112">
         <v>0.272108843537415</v>
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.796062727539491</v>
+        <v>-2.793578419999915</v>
       </c>
       <c r="G112">
-        <v>-0.050478030493321</v>
+        <v>-0.05282232563389866</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2979,7 +2979,7 @@
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C113">
         <v>0.2789115646258503</v>
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.801169191488479</v>
+        <v>-2.8003279881462</v>
       </c>
       <c r="G113">
-        <v>-0.05319224958284319</v>
+        <v>-0.05453599966383993</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3002,7 +3002,7 @@
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.805858629815597</v>
+        <v>-2.804370119788216</v>
       </c>
       <c r="G114">
-        <v>-0.05503074721689294</v>
+        <v>-0.05354223718951245</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3025,7 +3025,7 @@
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C115">
         <v>0.2925170068027211</v>
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.811808888161365</v>
+        <v>-2.810256121582797</v>
       </c>
       <c r="G115">
-        <v>-0.05486006461287496</v>
+        <v>-0.05439234486774969</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3048,7 +3048,7 @@
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C116">
         <v>0.2993197278911565</v>
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817587639873796</v>
+        <v>-2.817009523794602</v>
       </c>
       <c r="G116">
-        <v>-0.05643180023737093</v>
+        <v>-0.05610985296321092</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3071,7 +3071,7 @@
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C117">
         <v>0.3061224489795918</v>
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823523018017274</v>
+        <v>-2.823055474696477</v>
       </c>
       <c r="G117">
-        <v>-0.0562908823777184</v>
+        <v>-0.05711990974874115</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3094,7 +3094,7 @@
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C118">
         <v>0.3129251700680272</v>
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.829629667868577</v>
+        <v>-2.829346924215681</v>
       </c>
       <c r="G118">
-        <v>-0.05726313633123215</v>
+        <v>-0.05837546515160086</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3117,7 +3117,7 @@
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C119">
         <v>0.3197278911564626</v>
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.835076125596493</v>
+        <v>-2.835176091895668</v>
       </c>
       <c r="G119">
-        <v>-0.05631853554134625</v>
+        <v>-0.05916873871524442</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3140,7 +3140,7 @@
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C120">
         <v>0.3265306122448979</v>
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.841716087683061</v>
+        <v>-2.841291688074442</v>
       </c>
       <c r="G120">
-        <v>-0.05947636350691998</v>
+        <v>-0.06024844077767466</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3163,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C121">
         <v>0.3333333333333333</v>
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.845937888455989</v>
+        <v>-2.845223963135208</v>
       </c>
       <c r="G121">
-        <v>-0.05877331039507538</v>
+        <v>-0.05914482172209645</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3186,7 +3186,7 @@
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.852554392638634</v>
+        <v>-2.851900472723174</v>
       </c>
       <c r="G122">
-        <v>-0.05994165907784477</v>
+        <v>-0.06078543719371843</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3209,7 +3209,7 @@
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C123">
         <v>0.3469387755102041</v>
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.857486796032755</v>
+        <v>-2.856247253149821</v>
       </c>
       <c r="G123">
-        <v>-0.06065359471123588</v>
+        <v>-0.06009632350402172</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3232,7 +3232,7 @@
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C124">
         <v>0.3537414965986395</v>
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.863841851281895</v>
+        <v>-2.864093064888824</v>
       </c>
       <c r="G124">
-        <v>-0.06088631165212877</v>
+        <v>-0.06290624112668008</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3255,7 +3255,7 @@
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C125">
         <v>0.3605442176870748</v>
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.868038558631957</v>
+        <v>-2.868324669371104</v>
       </c>
       <c r="G125">
-        <v>-0.06125249218174944</v>
+        <v>-0.06210195149261666</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3278,7 +3278,7 @@
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C126">
         <v>0.3673469387755102</v>
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.87571827056786</v>
+        <v>-2.871829192714704</v>
       </c>
       <c r="G126">
-        <v>-0.06063008521175894</v>
+        <v>-0.0605705807198722</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3301,7 +3301,7 @@
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C127">
         <v>0.3741496598639456</v>
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.87927853860239</v>
+        <v>-2.880597680624749</v>
       </c>
       <c r="G127">
-        <v>-0.06251356040080625</v>
+        <v>-0.06430317451357404</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3324,7 +3324,7 @@
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C128">
         <v>0.3809523809523809</v>
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.884931150004912</v>
+        <v>-2.886174593159489</v>
       </c>
       <c r="G128">
-        <v>-0.06256056987686343</v>
+        <v>-0.06484419293196986</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3347,7 +3347,7 @@
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C129">
         <v>0.3877551020408163</v>
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.89088481154141</v>
+        <v>-2.889047113936406</v>
       </c>
       <c r="G129">
-        <v>-0.06309756670556421</v>
+        <v>-0.06268081959254301</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3370,7 +3370,7 @@
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C130">
         <v>0.3945578231292517</v>
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.896860069017898</v>
+        <v>-2.895980118406754</v>
       </c>
       <c r="G130">
-        <v>-0.06328759646185755</v>
+        <v>-0.06457792994654632</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3393,7 +3393,7 @@
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C131">
         <v>0.4013605442176871</v>
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.901825778795983</v>
+        <v>-2.902061962993594</v>
       </c>
       <c r="G131">
-        <v>-0.06244029215308222</v>
+        <v>-0.06562388041704326</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3416,7 +3416,7 @@
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C132">
         <v>0.4081632653061225</v>
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.905710124969141</v>
+        <v>-2.905089894172765</v>
       </c>
       <c r="G132">
-        <v>-0.06228072510123206</v>
+        <v>-0.06361591747986961</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3439,7 +3439,7 @@
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C133">
         <v>0.4149659863945578</v>
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.912970138673634</v>
+        <v>-2.90962449718333</v>
       </c>
       <c r="G133">
-        <v>-0.06646026786439463</v>
+        <v>-0.06311462637409115</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3462,7 +3462,7 @@
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C134">
         <v>0.4217687074829932</v>
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.917988315850658</v>
+        <v>-2.916904558771453</v>
       </c>
       <c r="G134">
-        <v>-0.06487395191742684</v>
+        <v>-0.06535879384586996</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3485,7 +3485,7 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C135">
         <v>0.4285714285714285</v>
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.922859137946802</v>
+        <v>-2.922058464225245</v>
       </c>
       <c r="G135">
-        <v>-0.06444861705805249</v>
+        <v>-0.06547680518331833</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3508,7 +3508,7 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C136">
         <v>0.4353741496598639</v>
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.927885349612024</v>
+        <v>-2.92851420916261</v>
       </c>
       <c r="G136">
-        <v>-0.06320054470983627</v>
+        <v>-0.06689665600433936</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3531,7 +3531,7 @@
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C137">
         <v>0.4421768707482993</v>
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.933481363158045</v>
+        <v>-2.933077411749852</v>
       </c>
       <c r="G137">
-        <v>-0.06514780682008059</v>
+        <v>-0.0664239644752378</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3554,7 +3554,7 @@
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C138">
         <v>0.4489795918367347</v>
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.939592526806287</v>
+        <v>-2.939925005010275</v>
       </c>
       <c r="G138">
-        <v>-0.06453681260502275</v>
+        <v>-0.06823566361931643</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3577,7 +3577,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C139">
         <v>0.4557823129251701</v>
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.943190440944332</v>
+        <v>-2.94201155854596</v>
       </c>
       <c r="G139">
-        <v>-0.06432967559488256</v>
+        <v>-0.06528632303865711</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3600,7 +3600,7 @@
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C140">
         <v>0.4625850340136055</v>
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.947681995040223</v>
+        <v>-2.947618963845512</v>
       </c>
       <c r="G140">
-        <v>-0.06521029770017517</v>
+        <v>-0.06585783422186564</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3623,7 +3623,7 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C141">
         <v>0.4693877551020408</v>
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.953513376051183</v>
+        <v>-2.953081593680303</v>
       </c>
       <c r="G141">
-        <v>-0.06487259826826097</v>
+        <v>-0.06628456994031273</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3646,7 +3646,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C142">
         <v>0.4761904761904762</v>
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.958527152083551</v>
+        <v>-2.957569091339502</v>
       </c>
       <c r="G142">
-        <v>-0.06507547864257512</v>
+        <v>-0.06573617348316763</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3669,7 +3669,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C143">
         <v>0.4829931972789115</v>
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.964489826354081</v>
+        <v>-2.963508352033594</v>
       </c>
       <c r="G143">
-        <v>-0.06603582700293265</v>
+        <v>-0.06663954006091544</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3692,7 +3692,7 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C144">
         <v>0.4897959183673469</v>
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.969246367803429</v>
+        <v>-2.969076346526938</v>
       </c>
       <c r="G144">
-        <v>-0.06395610603712765</v>
+        <v>-0.06717164043791568</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3715,7 +3715,7 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C145">
         <v>0.4965986394557823</v>
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.974269196104714</v>
+        <v>-2.974065302194714</v>
       </c>
       <c r="G145">
-        <v>-0.06409575148595748</v>
+        <v>-0.06712470198934772</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3738,7 +3738,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C146">
         <v>0.5034013605442177</v>
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.980825622947202</v>
+        <v>-2.980476780391207</v>
       </c>
       <c r="G146">
-        <v>-0.06642998883671369</v>
+        <v>-0.06850028606949676</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3761,7 +3761,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C147">
         <v>0.5102040816326531</v>
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.983888982592713</v>
+        <v>-2.984755388892544</v>
       </c>
       <c r="G147">
-        <v>-0.06687659415465852</v>
+        <v>-0.06774300045448944</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3784,7 +3784,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C148">
         <v>0.5170068027210885</v>
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.989339850491405</v>
+        <v>-2.991151431373146</v>
       </c>
       <c r="G148">
-        <v>-0.06315823744911908</v>
+        <v>-0.06910314881874768</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3807,7 +3807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C149">
         <v>0.5238095238095238</v>
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.993899411152625</v>
+        <v>-2.994510838561646</v>
       </c>
       <c r="G149">
-        <v>-0.06681523448188242</v>
+        <v>-0.06742666189090407</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3830,7 +3830,7 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C150">
         <v>0.5306122448979592</v>
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.999497075429243</v>
+        <v>-3.00009314060386</v>
       </c>
       <c r="G150">
-        <v>-0.06573028350423216</v>
+        <v>-0.0679730698167742</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3853,7 +3853,7 @@
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.004865619213693</v>
+        <v>-3.004122302726091</v>
       </c>
       <c r="G151">
-        <v>-0.06556489936887488</v>
+        <v>-0.06696633782266148</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3876,7 +3876,7 @@
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C152">
         <v>0.54421768707483</v>
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.008269887724427</v>
+        <v>-3.008234764859921</v>
       </c>
       <c r="G152">
-        <v>-0.06356326226043429</v>
+        <v>-0.06604290584014705</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3899,7 +3899,7 @@
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C153">
         <v>0.5510204081632653</v>
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.013720770419255</v>
+        <v>-3.014628613275738</v>
       </c>
       <c r="G153">
-        <v>-0.06530376905987123</v>
+        <v>-0.06740086013962032</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3922,7 +3922,7 @@
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C154">
         <v>0.5578231292517006</v>
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.020705888848291</v>
+        <v>-3.018656676598467</v>
       </c>
       <c r="G154">
-        <v>-0.06450570345248585</v>
+        <v>-0.06639302934600511</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3945,7 +3945,7 @@
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C155">
         <v>0.564625850340136</v>
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.024078836082566</v>
+        <v>-3.02251322462958</v>
       </c>
       <c r="G155">
-        <v>-0.06526937101803409</v>
+        <v>-0.06521368326077392</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3968,7 +3968,7 @@
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.029169618561799</v>
+        <v>-3.028791970287874</v>
       </c>
       <c r="G156">
-        <v>-0.06373741006675449</v>
+        <v>-0.0664565348027244</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3991,7 +3991,7 @@
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C157">
         <v>0.5782312925170068</v>
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.033177618038506</v>
+        <v>-3.034606322826542</v>
       </c>
       <c r="G157">
-        <v>-0.06580628843701208</v>
+        <v>-0.06723499322504822</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4014,7 +4014,7 @@
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C158">
         <v>0.5850340136054422</v>
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.037182443602491</v>
+        <v>-3.036557126073128</v>
       </c>
       <c r="G158">
-        <v>-0.06322745541665342</v>
+        <v>-0.06414990235529028</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C159">
         <v>0.5918367346938775</v>
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.041974466982361</v>
+        <v>-3.045024792233661</v>
       </c>
       <c r="G159">
-        <v>-0.06269727302206562</v>
+        <v>-0.06758167439947926</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4060,7 +4060,7 @@
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C160">
         <v>0.5986394557823129</v>
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.047397505353388</v>
+        <v>-3.045678464307471</v>
       </c>
       <c r="G160">
-        <v>-0.06261647331626063</v>
+        <v>-0.06319945235694524</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4083,7 +4083,7 @@
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C161">
         <v>0.6054421768707483</v>
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.05289768422946</v>
+        <v>-3.050099529685357</v>
       </c>
       <c r="G161">
-        <v>-0.06054322589794925</v>
+        <v>-0.06258462361848727</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4106,7 +4106,7 @@
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C162">
         <v>0.6122448979591837</v>
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.056694768708791</v>
+        <v>-3.056051177510515</v>
       </c>
       <c r="G162">
-        <v>-0.06294689008341303</v>
+        <v>-0.0635003773273014</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4129,7 +4129,7 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C163">
         <v>0.6190476190476191</v>
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.060920682968819</v>
+        <v>-3.062314583019918</v>
       </c>
       <c r="G163">
-        <v>-0.06129378699509569</v>
+        <v>-0.06472788872036028</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4152,7 +4152,7 @@
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C164">
         <v>0.6258503401360545</v>
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.065547424134266</v>
+        <v>-3.065803099184912</v>
       </c>
       <c r="G164">
-        <v>-0.0607369777344654</v>
+        <v>-0.06318051076901077</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4175,7 +4175,7 @@
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C165">
         <v>0.6326530612244898</v>
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.069512308596327</v>
+        <v>-3.072339954365348</v>
       </c>
       <c r="G165">
-        <v>-0.06166983817002236</v>
+        <v>-0.06468147183310202</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4198,7 +4198,7 @@
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C166">
         <v>0.6394557823129252</v>
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.074702388747236</v>
+        <v>-3.073483830927089</v>
       </c>
       <c r="G166">
-        <v>-0.06097622948162984</v>
+        <v>-0.06078945427849947</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4221,7 +4221,7 @@
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.079293637547206</v>
+        <v>-3.07950258360087</v>
       </c>
       <c r="G167">
-        <v>-0.06053411040500811</v>
+        <v>-0.06177231283593732</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C168">
         <v>0.6530612244897959</v>
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.084723730629742</v>
+        <v>-3.085358511090197</v>
       </c>
       <c r="G168">
-        <v>-0.0608790390515771</v>
+        <v>-0.06259234620891985</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4267,7 +4267,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C169">
         <v>0.6598639455782312</v>
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.088346176699153</v>
+        <v>-3.089442172059897</v>
       </c>
       <c r="G169">
-        <v>-0.05879315262597495</v>
+        <v>-0.06164011306227557</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4290,7 +4290,7 @@
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C170">
         <v>0.6666666666666666</v>
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.092227083351973</v>
+        <v>-3.093144104718803</v>
       </c>
       <c r="G170">
-        <v>-0.0593891302380074</v>
+        <v>-0.06030615160483777</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4313,7 +4313,7 @@
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C171">
         <v>0.673469387755102</v>
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.097916804524332</v>
+        <v>-3.097451344163456</v>
       </c>
       <c r="G171">
-        <v>-0.05749690737886426</v>
+        <v>-0.05957749693314685</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C172">
         <v>0.6802721088435374</v>
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.103627296766401</v>
+        <v>-3.101815026296089</v>
       </c>
       <c r="G172">
-        <v>-0.05757447299804497</v>
+        <v>-0.05890528494943581</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4359,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C173">
         <v>0.6870748299319728</v>
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.107108140217961</v>
+        <v>-3.10563740039608</v>
       </c>
       <c r="G173">
-        <v>-0.05619661795255637</v>
+        <v>-0.05769176493308348</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4382,7 +4382,7 @@
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C174">
         <v>0.6938775510204082</v>
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.110295732402104</v>
+        <v>-3.110529686108748</v>
       </c>
       <c r="G174">
-        <v>-0.05657591410343865</v>
+        <v>-0.05754815652940726</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4405,7 +4405,7 @@
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C175">
         <v>0.7006802721088435</v>
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.114712978491199</v>
+        <v>-3.117117679699107</v>
       </c>
       <c r="G175">
-        <v>-0.05464416678249029</v>
+        <v>-0.05910025600342206</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4428,7 +4428,7 @@
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C176">
         <v>0.7074829931972789</v>
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.119648276332937</v>
+        <v>-3.121953811437153</v>
       </c>
       <c r="G176">
-        <v>-0.05535119219801021</v>
+        <v>-0.05890049362512462</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4451,7 +4451,7 @@
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.123249507272938</v>
+        <v>-3.124655965862926</v>
       </c>
       <c r="G177">
-        <v>-0.05451272035511234</v>
+        <v>-0.05656675393455357</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4474,7 +4474,7 @@
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C178">
         <v>0.7210884353741497</v>
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.12833793551298</v>
+        <v>-3.127962321386209</v>
       </c>
       <c r="G178">
-        <v>-0.05521282946826322</v>
+        <v>-0.05483721534149244</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4497,7 +4497,7 @@
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C179">
         <v>0.7278911564625851</v>
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.131712437322017</v>
+        <v>-3.131513674601881</v>
       </c>
       <c r="G179">
-        <v>-0.05269995996468202</v>
+        <v>-0.05335267444082081</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4520,7 +4520,7 @@
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C180">
         <v>0.7346938775510204</v>
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.136899834984055</v>
+        <v>-3.137367508223623</v>
       </c>
       <c r="G180">
-        <v>-0.05231237458573335</v>
+        <v>-0.05417061394621847</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4543,7 +4543,7 @@
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C181">
         <v>0.7414965986394558</v>
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.140881684319909</v>
+        <v>-3.141397139022881</v>
       </c>
       <c r="G181">
-        <v>-0.05110815729102203</v>
+        <v>-0.0531643506291325</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4566,7 +4566,7 @@
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C182">
         <v>0.7482993197278912</v>
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.14591816301739</v>
+        <v>-3.14464559903301</v>
       </c>
       <c r="G182">
-        <v>-0.05081807796817384</v>
+        <v>-0.05137691652291798</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4589,7 +4589,7 @@
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C183">
         <v>0.7551020408163265</v>
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.148742415234459</v>
+        <v>-3.146611717473673</v>
       </c>
       <c r="G183">
-        <v>-0.04894437230727799</v>
+        <v>-0.04830714084723597</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4612,7 +4612,7 @@
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C184">
         <v>0.7619047619047619</v>
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.152479170436997</v>
+        <v>-3.153732656775636</v>
       </c>
       <c r="G184">
-        <v>-0.04913869969421669</v>
+        <v>-0.05039218603285556</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4635,7 +4635,7 @@
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C185">
         <v>0.7687074829931972</v>
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.157089669757998</v>
+        <v>-3.157677396266635</v>
       </c>
       <c r="G185">
-        <v>-0.04823247111522722</v>
+        <v>-0.04930103140751052</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4658,7 +4658,7 @@
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C186">
         <v>0.7755102040816326</v>
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.161724487504789</v>
+        <v>-3.161332872812014</v>
       </c>
       <c r="G186">
-        <v>-0.04831222852932016</v>
+        <v>-0.04792061383654611</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4681,7 +4681,7 @@
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C187">
         <v>0.782312925170068</v>
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.166599300544487</v>
+        <v>-3.165278738463413</v>
       </c>
       <c r="G187">
-        <v>-0.04568019412243263</v>
+        <v>-0.04683058537160079</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4704,7 +4704,7 @@
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C188">
         <v>0.7891156462585034</v>
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.169509323468803</v>
+        <v>-3.169047065039755</v>
       </c>
       <c r="G188">
-        <v>-0.04594707525707697</v>
+        <v>-0.04556301783159888</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4727,7 +4727,7 @@
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C189">
         <v>0.7959183673469388</v>
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173767241974922</v>
+        <v>-3.173546427336824</v>
       </c>
       <c r="G189">
-        <v>-0.04312406070774544</v>
+        <v>-0.04502648601232395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4750,7 +4750,7 @@
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C190">
         <v>0.8027210884353742</v>
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.177643895311918</v>
+        <v>-3.177508639689707</v>
       </c>
       <c r="G190">
-        <v>-0.04392875055045486</v>
+        <v>-0.04395280424886217</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4773,7 +4773,7 @@
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C191">
         <v>0.8095238095238095</v>
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.181520400674794</v>
+        <v>-3.182904078662327</v>
       </c>
       <c r="G191">
-        <v>-0.04240670327907442</v>
+        <v>-0.04431234910513887</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4796,7 +4796,7 @@
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C192">
         <v>0.8163265306122449</v>
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.185527824270822</v>
+        <v>-3.186016785394112</v>
       </c>
       <c r="G192">
-        <v>-0.04168531483781862</v>
+        <v>-0.04238916172058044</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4819,7 +4819,7 @@
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.189171850899638</v>
+        <v>-3.188998489405336</v>
       </c>
       <c r="G193">
-        <v>-0.04020109102608116</v>
+        <v>-0.04033497161545985</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4842,7 +4842,7 @@
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C194">
         <v>0.8299319727891157</v>
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.193837629771055</v>
+        <v>-3.194181765848061</v>
       </c>
       <c r="G194">
-        <v>-0.03782036327736354</v>
+        <v>-0.04048235394184091</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4865,7 +4865,7 @@
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C195">
         <v>0.8367346938775511</v>
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.19731743291543</v>
+        <v>-3.197288467207406</v>
       </c>
       <c r="G195">
-        <v>-0.03557416378238415</v>
+        <v>-0.0385531611848427</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4888,7 +4888,7 @@
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C196">
         <v>0.8435374149659864</v>
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.201999701537238</v>
+        <v>-3.200462012659874</v>
       </c>
       <c r="G196">
-        <v>-0.03486481853727397</v>
+        <v>-0.0366908125209664</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4911,7 +4911,7 @@
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C197">
         <v>0.8503401360544217</v>
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.205644335920348</v>
+        <v>-3.202688462086148</v>
       </c>
       <c r="G197">
-        <v>-0.03400953066537504</v>
+        <v>-0.03388136783089613</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4934,7 +4934,7 @@
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.208430511536264</v>
+        <v>-3.208907164379833</v>
       </c>
       <c r="G198">
-        <v>-0.03398854764317283</v>
+        <v>-0.03506417600823741</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4957,7 +4957,7 @@
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C199">
         <v>0.8639455782312925</v>
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.212581482410727</v>
+        <v>-3.212327249379189</v>
       </c>
       <c r="G199">
-        <v>-0.03231039694045595</v>
+        <v>-0.03344836689124936</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4980,7 +4980,7 @@
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C200">
         <v>0.8707482993197279</v>
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.216898561140992</v>
+        <v>-3.216557597758871</v>
       </c>
       <c r="G200">
-        <v>-0.03237311805807846</v>
+        <v>-0.03264282115458733</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5003,7 +5003,7 @@
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C201">
         <v>0.8775510204081632</v>
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.219914347530084</v>
+        <v>-3.220241916940951</v>
       </c>
       <c r="G201">
-        <v>-0.02928001078480946</v>
+        <v>-0.0312912462203232</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5026,7 +5026,7 @@
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C202">
         <v>0.8843537414965986</v>
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.223798553001189</v>
+        <v>-3.222658180014723</v>
       </c>
       <c r="G202">
-        <v>-0.02940329449118079</v>
+        <v>-0.02867161517775124</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5049,7 +5049,7 @@
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.227381386464581</v>
+        <v>-3.227811328400326</v>
       </c>
       <c r="G203">
-        <v>-0.02780662982893739</v>
+        <v>-0.02878886944701037</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5072,7 +5072,7 @@
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C204">
         <v>0.8979591836734694</v>
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.230952860200128</v>
+        <v>-3.230081016610174</v>
       </c>
       <c r="G204">
-        <v>-0.02551131368624537</v>
+        <v>-0.02602266354051486</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5095,7 +5095,7 @@
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C205">
         <v>0.9047619047619048</v>
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.235972281727031</v>
+        <v>-3.234018556656485</v>
       </c>
       <c r="G205">
-        <v>-0.0241622952537813</v>
+        <v>-0.02492430947048149</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5118,7 +5118,7 @@
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C206">
         <v>0.9115646258503401</v>
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.239157328534127</v>
+        <v>-3.238409041802255</v>
       </c>
       <c r="G206">
-        <v>-0.02268296112119655</v>
+        <v>-0.02427890049990783</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5141,7 +5141,7 @@
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C207">
         <v>0.9183673469387755</v>
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.242769231483594</v>
+        <v>-3.241615877526661</v>
       </c>
       <c r="G207">
-        <v>-0.02258006850071517</v>
+        <v>-0.02244984210796933</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C208">
         <v>0.9251700680272109</v>
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.24697127533134</v>
+        <v>-3.245844129107783</v>
       </c>
       <c r="G208">
-        <v>-0.02065818781574924</v>
+        <v>-0.0216421995727476</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5187,7 +5187,7 @@
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C209">
         <v>0.9319727891156463</v>
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.249960488486511</v>
+        <v>-3.249657626776125</v>
       </c>
       <c r="G209">
-        <v>-0.01881198180935567</v>
+        <v>-0.02041980312474595</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5210,7 +5210,7 @@
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C210">
         <v>0.9387755102040817</v>
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.253967040895839</v>
+        <v>-3.252373824058279</v>
       </c>
       <c r="G210">
-        <v>-0.01766865799096431</v>
+        <v>-0.01810010629055583</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5233,7 +5233,7 @@
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C211">
         <v>0.9455782312925171</v>
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.256221944041032</v>
+        <v>-3.255497550264173</v>
       </c>
       <c r="G211">
-        <v>-0.015959953087192</v>
+        <v>-0.01618793838010568</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5256,7 +5256,7 @@
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C212">
         <v>0.9523809523809523</v>
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.259228123569707</v>
+        <v>-3.258456754547887</v>
       </c>
       <c r="G212">
-        <v>-0.01427280723887626</v>
+        <v>-0.01411124854747615</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5279,7 +5279,7 @@
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C213">
         <v>0.9591836734693877</v>
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.262510282202167</v>
+        <v>-3.261785888425306</v>
       </c>
       <c r="G213">
-        <v>-0.01226302225547936</v>
+        <v>-0.01240448830855077</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5302,7 +5302,7 @@
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C214">
         <v>0.9659863945578231</v>
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.265358029304275</v>
+        <v>-3.265358029304284</v>
       </c>
       <c r="G214">
-        <v>-0.01050632354082642</v>
+        <v>-0.01094073507118537</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5325,7 +5325,7 @@
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C215">
         <v>0.9727891156462585</v>
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.268205776406384</v>
+        <v>-3.268205776406394</v>
       </c>
       <c r="G215">
-        <v>-0.008752588056941374</v>
+        <v>-0.008752588056951144</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5348,7 +5348,7 @@
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C216">
         <v>0.9795918367346939</v>
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.271053523508494</v>
+        <v>-3.271053523508503</v>
       </c>
       <c r="G216">
-        <v>-0.006564441042706697</v>
+        <v>-0.006564441042716022</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5371,7 +5371,7 @@
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C217">
         <v>0.9863945578231292</v>
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.273901270610602</v>
+        <v>-3.273901270610612</v>
       </c>
       <c r="G217">
-        <v>-0.004376294028471131</v>
+        <v>-0.004376294028480901</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5394,7 +5394,7 @@
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C218">
         <v>0.9931972789115646</v>
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.276749017712711</v>
+        <v>-3.276749017712717</v>
       </c>
       <c r="G218">
-        <v>-0.00218814701423601</v>
+        <v>-0.002188147014242227</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5417,7 +5417,7 @@
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.261480122767132</v>
+        <v>1.531593288050062</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.279596764814819</v>
+        <v>-3.279596764814823</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-4.440892098500626e-15</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5440,7 +5440,7 @@
         <v>309</v>
       </c>
       <c r="B220">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-2.631196380133129</v>
+        <v>-2.631196380133147</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>-1.77635683940025e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5463,7 +5463,7 @@
         <v>309</v>
       </c>
       <c r="B221">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C221">
         <v>0.0970873786407767</v>
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.732029044574851</v>
+        <v>-2.731972433853234</v>
       </c>
       <c r="G221">
-        <v>-0.0258118952904014</v>
+        <v>-0.0263041469597125</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5486,7 +5486,7 @@
         <v>309</v>
       </c>
       <c r="B222">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C222">
         <v>0.1974110032362459</v>
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827659689087234</v>
+        <v>-2.827340759295184</v>
       </c>
       <c r="G222">
-        <v>-0.04461711384999667</v>
+        <v>-0.04471816874925771</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5509,7 +5509,7 @@
         <v>309</v>
       </c>
       <c r="B223">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C223">
         <v>0.2977346278317152</v>
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.917806064486327</v>
+        <v>-2.918454755362013</v>
       </c>
       <c r="G223">
-        <v>-0.05616230655272569</v>
+        <v>-0.05887786116368043</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>309</v>
       </c>
       <c r="B224">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C224">
         <v>0.3980582524271845</v>
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.000110649723497</v>
+        <v>-3.000898077699189</v>
       </c>
       <c r="G224">
-        <v>-0.06213941817935242</v>
+        <v>-0.06436687984845135</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5555,7 +5555,7 @@
         <v>309</v>
       </c>
       <c r="B225">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C225">
         <v>0.4983818770226537</v>
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.079166431108553</v>
+        <v>-3.079326769551146</v>
       </c>
       <c r="G225">
-        <v>-0.06489045909411528</v>
+        <v>-0.06584126804800361</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5578,7 +5578,7 @@
         <v>309</v>
       </c>
       <c r="B226">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C226">
         <v>0.598705501618123</v>
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.153284731406021</v>
+        <v>-3.155166380444523</v>
       </c>
       <c r="G226">
-        <v>-0.0614763946049619</v>
+        <v>-0.06472657528897496</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5601,7 +5601,7 @@
         <v>309</v>
       </c>
       <c r="B227">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C227">
         <v>0.6990291262135923</v>
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.223145689887866</v>
+        <v>-3.226290460952506</v>
       </c>
       <c r="G227">
-        <v>-0.05492736132035214</v>
+        <v>-0.05889635214455213</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B228">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C228">
         <v>0.7993527508090615</v>
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.28728540842361</v>
+        <v>-3.288705797312738</v>
       </c>
       <c r="G228">
-        <v>-0.04108423754776991</v>
+        <v>-0.04435738485237894</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5647,7 +5647,7 @@
         <v>309</v>
       </c>
       <c r="B229">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C229">
         <v>0.8996763754045307</v>
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.346929097287571</v>
+        <v>-3.345831807976445</v>
       </c>
       <c r="G229">
-        <v>-0.02394448519907111</v>
+        <v>-0.02452909186368024</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5670,7 +5670,7 @@
         <v>309</v>
       </c>
       <c r="B230">
-        <v>1.681973497022842</v>
+        <v>2.042124384066749</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.39825701976517</v>
+        <v>-3.398257019765125</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>4.529709940470639e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5693,7 +5693,7 @@
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-2.689721342252404</v>
+        <v>-2.689721342252327</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>7.682743330406083e-14</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C232">
         <v>0.09982174688057041</v>
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794489723356777</v>
+        <v>-2.793189405462554</v>
       </c>
       <c r="G232">
-        <v>-0.02557133017608226</v>
+        <v>-0.02519562002886611</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5739,7 +5739,7 @@
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C233">
         <v>0.1996434937611408</v>
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.891553877731871</v>
+        <v>-2.891501834037596</v>
       </c>
       <c r="G233">
-        <v>-0.04528764911689942</v>
+        <v>-0.04523560542262439</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5762,7 +5762,7 @@
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C234">
         <v>0.2994652406417112</v>
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.981968439791195</v>
+        <v>-2.983746302193096</v>
       </c>
       <c r="G234">
-        <v>-0.05615996382956001</v>
+        <v>-0.05920763039684052</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5785,7 +5785,7 @@
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C235">
         <v>0.3992869875222816</v>
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.064875033837467</v>
+        <v>-3.068512778787285</v>
       </c>
       <c r="G235">
-        <v>-0.06140834037373821</v>
+        <v>-0.06570166380974518</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5808,7 +5808,7 @@
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C236">
         <v>0.499108734402852</v>
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.145906443201307</v>
+        <v>-3.149093987048717</v>
       </c>
       <c r="G236">
-        <v>-0.06315537502948776</v>
+        <v>-0.06801042888989284</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5831,7 +5831,7 @@
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C237">
         <v>0.5989304812834224</v>
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.221350701452473</v>
+        <v>-3.22459893347519</v>
       </c>
       <c r="G237">
-        <v>-0.06072646791790248</v>
+        <v>-0.06524293213508248</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5854,7 +5854,7 @@
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C238">
         <v>0.6987522281639929</v>
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.29155619567054</v>
+        <v>-3.295980745588373</v>
       </c>
       <c r="G238">
-        <v>-0.05341448146908667</v>
+        <v>-0.05835230106698153</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5877,7 +5877,7 @@
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C239">
         <v>0.7985739750445633</v>
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.357800229092537</v>
+        <v>-3.360670720202276</v>
       </c>
       <c r="G239">
-        <v>-0.04122845134248943</v>
+        <v>-0.04476983249959998</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5900,7 +5900,7 @@
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C240">
         <v>0.8983957219251337</v>
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.418474156389017</v>
+        <v>-3.419782251874329</v>
       </c>
       <c r="G240">
-        <v>-0.02393108065535704</v>
+        <v>-0.02560892099036965</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5923,7 +5923,7 @@
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.102466871278553</v>
+        <v>2.552655480083436</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.47384349626491</v>
+        <v>-3.47384349626528</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>-3.708144902248023e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5946,7 +5946,7 @@
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-2.73018641722108</v>
+        <v>-2.730186417221104</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-2.442490654175344e-14</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5969,7 +5969,7 @@
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C243">
         <v>0.09967497291440953</v>
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.835280754392422</v>
+        <v>-2.835651834024163</v>
       </c>
       <c r="G243">
-        <v>-0.02508078868133046</v>
+        <v>-0.02613223674155885</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5992,7 +5992,7 @@
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C244">
         <v>0.1993499458288191</v>
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.933197904419471</v>
+        <v>-2.934413249037043</v>
       </c>
       <c r="G244">
-        <v>-0.04370423592941464</v>
+        <v>-0.04556047169291499</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6015,7 +6015,7 @@
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C245">
         <v>0.2990249187432286</v>
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.02459801156854</v>
+        <v>-3.026813930241926</v>
       </c>
       <c r="G245">
-        <v>-0.05569305583028328</v>
+        <v>-0.0586279728362733</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6038,7 +6038,7 @@
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C246">
         <v>0.399783315276273</v>
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.109973358157864</v>
+        <v>-3.113785191820156</v>
       </c>
       <c r="G246">
-        <v>-0.06119070875689547</v>
+        <v>-0.06540373717839798</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6061,7 +6061,7 @@
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C247">
         <v>0.4994582881906826</v>
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.190823174972335</v>
+        <v>-3.195699180279424</v>
       </c>
       <c r="G247">
-        <v>-0.0630449838364302</v>
+        <v>-0.06798454557614164</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6084,7 +6084,7 @@
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C248">
         <v>0.5991332611050921</v>
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.267345568786862</v>
+        <v>-3.272331835757357</v>
       </c>
       <c r="G248">
-        <v>-0.05914424075405922</v>
+        <v>-0.06528402099255004</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6107,7 +6107,7 @@
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C249">
         <v>0.6998916576381365</v>
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.3403428772343</v>
+        <v>-3.344156321443987</v>
       </c>
       <c r="G249">
-        <v>-0.05309956523338721</v>
+        <v>-0.05691300944307454</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6130,7 +6130,7 @@
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C250">
         <v>0.7995666305525461</v>
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.407650667027655</v>
+        <v>-3.409415973596644</v>
       </c>
       <c r="G250">
-        <v>-0.04107417496521792</v>
+        <v>-0.04283948153420702</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6153,7 +6153,7 @@
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C251">
         <v>0.8992416034669556</v>
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.469901674104343</v>
+        <v>-3.470836088073976</v>
       </c>
       <c r="G251">
-        <v>-0.02312128374753591</v>
+        <v>-0.02492641595001427</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6176,7 +6176,7 @@
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.522960245534263</v>
+        <v>3.063186576100124</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.526105169360068</v>
+        <v>-3.526105169360524</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>-4.560796185160143e-13</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6199,7 +6199,7 @@
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-2.75980554892964</v>
+        <v>-2.75980554892974</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-9.992007221626409e-14</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6222,7 +6222,7 @@
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C254">
         <v>0.09964664310954063</v>
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.865254493307765</v>
+        <v>-2.86531752401301</v>
       </c>
       <c r="G254">
-        <v>-0.02453062410560891</v>
+        <v>-0.02534092139391753</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6245,7 +6245,7 @@
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C255">
         <v>0.2</v>
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.964788582840611</v>
+        <v>-2.966509689959533</v>
       </c>
       <c r="G255">
-        <v>-0.04380272145593578</v>
+        <v>-0.04579344461772816</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6268,7 +6268,7 @@
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C256">
         <v>0.2996466431095406</v>
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.056469664211521</v>
+        <v>-3.059754910708364</v>
       </c>
       <c r="G256">
-        <v>-0.05511530734791936</v>
+        <v>-0.05886761167710519</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6291,7 +6291,7 @@
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C257">
         <v>0.4</v>
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.142562899286218</v>
+        <v>-3.14784228407112</v>
       </c>
       <c r="G257">
-        <v>-0.05860433794154263</v>
+        <v>-0.06621534231714987</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6314,7 +6314,7 @@
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C258">
         <v>0.4996466431095407</v>
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.22354462631011</v>
+        <v>-3.22918117752557</v>
       </c>
       <c r="G258">
-        <v>-0.06169374593439114</v>
+        <v>-0.06738318208214666</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6337,7 +6337,7 @@
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C259">
         <v>0.6</v>
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.302249586666415</v>
+        <v>-3.30734937709874</v>
       </c>
       <c r="G259">
-        <v>-0.05847773367816367</v>
+        <v>-0.06481173893260439</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6360,7 +6360,7 @@
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C260">
         <v>0.6996466431095406</v>
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.37478451725205</v>
+        <v>-3.379163099369976</v>
       </c>
       <c r="G260">
-        <v>-0.05124594810471084</v>
+        <v>-0.05645440751438702</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6383,7 +6383,7 @@
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C261">
         <v>0.8</v>
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.443324154918128</v>
+        <v>-3.447004507564725</v>
       </c>
       <c r="G261">
-        <v>-0.03928450472781986</v>
+        <v>-0.043556172986424</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6406,7 +6406,7 @@
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C262">
         <v>0.8996466431095407</v>
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.506782108324171</v>
+        <v>-3.508333689838425</v>
       </c>
       <c r="G262">
-        <v>-0.02247821198851802</v>
+        <v>-0.02471430157067073</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6429,7 +6429,7 @@
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>2.943453619789974</v>
+        <v>3.57371767211681</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.564359030990466</v>
+        <v>-3.564359030990779</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-3.130828929442941e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6452,7 +6452,7 @@
         <v>2057</v>
       </c>
       <c r="B264">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-2.782412269773912</v>
+        <v>-2.782412269774368</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-4.560796185160143e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6475,7 +6475,7 @@
         <v>2057</v>
       </c>
       <c r="B265">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C265">
         <v>0.09965969859017987</v>
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.888185494707817</v>
+        <v>-2.888812297673966</v>
       </c>
       <c r="G265">
-        <v>-0.0248677850662582</v>
+        <v>-0.02556166972479756</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6498,7 +6498,7 @@
         <v>2057</v>
       </c>
       <c r="B266">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C266">
         <v>0.1998055420515314</v>
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.987641699353892</v>
+        <v>-2.989425906757708</v>
       </c>
       <c r="G266">
-        <v>-0.04279207131658058</v>
+        <v>-0.04494258717877075</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6521,7 +6521,7 @@
         <v>2057</v>
       </c>
       <c r="B267">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C267">
         <v>0.2999513855128829</v>
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.080785184181345</v>
+        <v>-3.083793268397245</v>
       </c>
       <c r="G267">
-        <v>-0.05465006669445227</v>
+        <v>-0.0580772571885384</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6544,7 +6544,7 @@
         <v>2057</v>
       </c>
       <c r="B268">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C268">
         <v>0.3996110841030627</v>
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.166878592826976</v>
+        <v>-3.171700911465357</v>
       </c>
       <c r="G268">
-        <v>-0.06002870638456281</v>
+        <v>-0.06514654208139392</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6567,7 +6567,7 @@
         <v>2057</v>
       </c>
       <c r="B269">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C269">
         <v>0.4997569275644142</v>
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.24883543287727</v>
+        <v>-3.254734588593652</v>
       </c>
       <c r="G269">
-        <v>-0.06068763153889112</v>
+        <v>-0.06694752757991962</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6590,7 +6590,7 @@
         <v>2057</v>
       </c>
       <c r="B270">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C270">
         <v>0.5999027710257657</v>
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.327605415194353</v>
+        <v>-3.333110784173737</v>
       </c>
       <c r="G270">
-        <v>-0.05829430806058711</v>
+        <v>-0.06409103153023543</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6613,7 +6613,7 @@
         <v>2057</v>
       </c>
       <c r="B271">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C271">
         <v>0.6995624696159456</v>
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.40148524988839</v>
+        <v>-3.405882820939345</v>
       </c>
       <c r="G271">
-        <v>-0.05103676245544619</v>
+        <v>-0.05602471012058752</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6636,7 +6636,7 @@
         <v>2057</v>
       </c>
       <c r="B272">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C272">
         <v>0.7997083130772971</v>
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.470500925017883</v>
+        <v>-3.473990832313294</v>
       </c>
       <c r="G272">
-        <v>-0.03898455204485374</v>
+        <v>-0.04290002986476638</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6659,7 +6659,7 @@
         <v>2057</v>
       </c>
       <c r="B273">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C273">
         <v>0.8998541565386485</v>
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.534882391877033</v>
+        <v>-3.536402543641645</v>
       </c>
       <c r="G273">
-        <v>-0.02214108907181267</v>
+        <v>-0.02407904956334816</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6682,7 +6682,7 @@
         <v>2057</v>
       </c>
       <c r="B274">
-        <v>3.363946994045685</v>
+        <v>4.084248768133498</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.593556185708066</v>
+        <v>-3.593556185708505</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-4.383160501220118e-13</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6705,7 +6705,7 @@
         <v>2869</v>
       </c>
       <c r="B275">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-2.800227823166039</v>
+        <v>-2.800227823166563</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-5.240252676230739e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6728,7 +6728,7 @@
         <v>2869</v>
       </c>
       <c r="B276">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C276">
         <v>0.09968630184733357</v>
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.906104553751723</v>
+        <v>-2.906377208112949</v>
       </c>
       <c r="G276">
-        <v>-0.02405954769288376</v>
+        <v>-0.02477170827623576</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6751,7 +6751,7 @@
         <v>2869</v>
       </c>
       <c r="B277">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C277">
         <v>0.1997211571976298</v>
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.005691207820157</v>
+        <v>-3.00797541349624</v>
       </c>
       <c r="G277">
-        <v>-0.04235785114047852</v>
+        <v>-0.04470769965783727</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6774,7 +6774,7 @@
         <v>2869</v>
       </c>
       <c r="B278">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C278">
         <v>0.2997560125479261</v>
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.099694688140732</v>
+        <v>-3.103121129412384</v>
       </c>
       <c r="G278">
-        <v>-0.05392724476609256</v>
+        <v>-0.05819120157229118</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6797,7 +6797,7 @@
         <v>2869</v>
       </c>
       <c r="B279">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C279">
         <v>0.3997908678982224</v>
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.18674758709746</v>
+        <v>-3.191539384047386</v>
       </c>
       <c r="G279">
-        <v>-0.05953736971059276</v>
+        <v>-0.06494724220560344</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6820,7 +6820,7 @@
         <v>2869</v>
       </c>
       <c r="B280">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C280">
         <v>0.4998257232485186</v>
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.268897552663304</v>
+        <v>-3.274274004891187</v>
       </c>
       <c r="G280">
-        <v>-0.0599901545789725</v>
+        <v>-0.06601964904771429</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6843,7 +6843,7 @@
         <v>2869</v>
       </c>
       <c r="B281">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C281">
         <v>0.5998605785988149</v>
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.348847460587642</v>
+        <v>-3.352936244320659</v>
       </c>
       <c r="G281">
-        <v>-0.05799486034932944</v>
+        <v>-0.06301967447549606</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6866,7 +6866,7 @@
         <v>2869</v>
       </c>
       <c r="B282">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C282">
         <v>0.6998954339491111</v>
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.422509444247486</v>
+        <v>-3.427622602678039</v>
       </c>
       <c r="G282">
-        <v>-0.05067628417042935</v>
+        <v>-0.05604381883118736</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6889,7 +6889,7 @@
         <v>2869</v>
       </c>
       <c r="B283">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C283">
         <v>0.7999302892994075</v>
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.492160919373416</v>
+        <v>-3.495762789281819</v>
       </c>
       <c r="G283">
-        <v>-0.03856826658751111</v>
+        <v>-0.04252179143327672</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6912,7 +6912,7 @@
         <v>2869</v>
       </c>
       <c r="B284">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C284">
         <v>0.8999651446497037</v>
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.557168714705547</v>
+        <v>-3.558507275278612</v>
       </c>
       <c r="G284">
-        <v>-0.02209728101680269</v>
+        <v>-0.02360406342838045</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6935,7 +6935,7 @@
         <v>2869</v>
       </c>
       <c r="B285">
-        <v>3.784440368301395</v>
+        <v>4.594779864150185</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.616565425851922</v>
+        <v>-3.616565425852349</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-4.267697306659102e-13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6958,7 +6958,7 @@
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-2.814626610423942</v>
+        <v>-2.814626610422591</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1.35091937636389e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6981,7 +6981,7 @@
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C287">
         <v>0.09997416688194265</v>
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.920996344512207</v>
+        <v>-2.921823060905594</v>
       </c>
       <c r="G287">
-        <v>-0.02411612772917326</v>
+        <v>-0.02516412594051465</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7004,7 +7004,7 @@
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C288">
         <v>0.1999483337638853</v>
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020746076068663</v>
+        <v>-3.022945271367506</v>
       </c>
       <c r="G288">
-        <v>-0.04176292599700115</v>
+        <v>-0.04425401186129019</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7027,7 +7027,7 @@
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C289">
         <v>0.2999225006458279</v>
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.114773055184477</v>
+        <v>-3.1180508441091</v>
       </c>
       <c r="G289">
-        <v>-0.05392538916096723</v>
+        <v>-0.05732726006174738</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7050,7 +7050,7 @@
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C290">
         <v>0.3998966675277706</v>
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.202763424976644</v>
+        <v>-3.2072441290943</v>
       </c>
       <c r="G290">
-        <v>-0.06000751638815416</v>
+        <v>-0.06448822050581038</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7073,7 +7073,7 @@
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C291">
         <v>0.4998708344097132</v>
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.284984269752024</v>
+        <v>-3.29062123799677</v>
       </c>
       <c r="G291">
-        <v>-0.06014319485777286</v>
+        <v>-0.06583300486714339</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7096,7 +7096,7 @@
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C292">
         <v>0.5998450012916559</v>
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.364776214398787</v>
+        <v>-3.369473272126847</v>
       </c>
       <c r="G292">
-        <v>-0.05741160315786598</v>
+        <v>-0.06265271445608311</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7119,7 +7119,7 @@
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C293">
         <v>0.6998191681735986</v>
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.439930909652832</v>
+        <v>-3.443591618763116</v>
       </c>
       <c r="G293">
-        <v>-0.05026536224583411</v>
+        <v>-0.05473873655121542</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7142,7 +7142,7 @@
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C294">
         <v>0.7997933350555412</v>
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.509841744646926</v>
+        <v>-3.512874893516033</v>
       </c>
       <c r="G294">
-        <v>-0.03874483676915286</v>
+        <v>-0.04198968676299619</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7165,7 +7165,7 @@
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C295">
         <v>0.8997675019374839</v>
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.574986208578644</v>
+        <v>-3.576505485743091</v>
       </c>
       <c r="G295">
-        <v>-0.02195919404188035</v>
+        <v>-0.02358795444891654</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7188,7 +7188,7 @@
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.204933742557106</v>
+        <v>5.105310960166872</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.635161825666167</v>
+        <v>-3.635161825664823</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1.343369859796439e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.446480141186289</v>
+        <v>-2.447059250983429</v>
       </c>
       <c r="G20">
         <v>-0.02057069832693292</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.462836869940398</v>
+        <v>-2.463261127265864</v>
       </c>
       <c r="G21">
         <v>-0.02433594829017283</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.47907805588858</v>
+        <v>-2.479310640886941</v>
       </c>
       <c r="G22">
         <v>-0.02798565544748621</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.494855674845552</v>
+        <v>-2.495088259843913</v>
       </c>
       <c r="G23">
         <v>-0.03117179561358974</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.510190805507856</v>
+        <v>-2.511636660925129</v>
       </c>
       <c r="G24">
         <v>-0.03391544748502495</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.525878941443189</v>
+        <v>-2.527378959413176</v>
       </c>
       <c r="G25">
         <v>-0.03701210462948912</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.5430283742852</v>
+        <v>-2.544658832952886</v>
       </c>
       <c r="G26">
         <v>-0.04157005868063157</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.587670538097263</v>
+        <v>-2.588833309513702</v>
       </c>
       <c r="G29">
         <v>-0.04843778612008798</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.629567156172627</v>
+        <v>-2.630099590871984</v>
       </c>
       <c r="G32">
         <v>-0.05255996782284611</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.646309819992308</v>
+        <v>-2.647268122217692</v>
       </c>
       <c r="G33">
         <v>-0.0567111528516584</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.657522840614867</v>
+        <v>-2.6600864281494</v>
       </c>
       <c r="G34">
         <v>-0.05533269468334789</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.673167669853649</v>
+        <v>-2.676020127196998</v>
       </c>
       <c r="G35">
         <v>-0.05838604513126122</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.714536949846463</v>
+        <v>-2.715875699683751</v>
       </c>
       <c r="G38">
         <v>-0.06198088875146923</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.752924920641439</v>
+        <v>-2.753435030640182</v>
       </c>
       <c r="G41">
         <v>-0.06259442317383934</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.805296462359418</v>
+        <v>-2.807049698147514</v>
       </c>
       <c r="G45">
         <v>-0.06460004972834299</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.84121027283414</v>
+        <v>-2.843514979590607</v>
       </c>
       <c r="G48">
         <v>-0.0627394238304585</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.854109233361246</v>
+        <v>-2.855218520068735</v>
       </c>
       <c r="G49">
         <v>-0.06304690556669601</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.863486696959383</v>
+        <v>-2.864924276563071</v>
       </c>
       <c r="G50">
         <v>-0.05983289037396422</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.873712178371167</v>
+        <v>-2.875590779868029</v>
       </c>
       <c r="G51">
         <v>-0.05746689299487928</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.931631817636231</v>
+        <v>-2.932357407744604</v>
       </c>
       <c r="G56">
         <v>-0.05242913830559981</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.941845753126283</v>
+        <v>-2.942068026680078</v>
       </c>
       <c r="G57">
         <v>-0.05005159500478329</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.951681038719653</v>
+        <v>-2.952002488364808</v>
       </c>
       <c r="G58">
         <v>-0.04729540180728409</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.971918394604375</v>
+        <v>-2.973872773381665</v>
       </c>
       <c r="G60">
         <v>-0.04234980011026795</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.028815094383463</v>
+        <v>-3.029288907495782</v>
       </c>
       <c r="G66">
         <v>-0.02369762714414358</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.589374205905977</v>
+        <v>-2.589992392797734</v>
       </c>
       <c r="G79">
         <v>-0.01480261737931166</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.61546722628734</v>
+        <v>-2.617090560335593</v>
       </c>
       <c r="G83">
         <v>-0.02075206129529805</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.628829677110282</v>
+        <v>-2.629202732909609</v>
       </c>
       <c r="G85">
         <v>-0.02404272388555251</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.635490587353951</v>
+        <v>-2.636427806229237</v>
       </c>
       <c r="G86">
         <v>-0.02566774001287708</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.640446992518087</v>
+        <v>-2.642217651024412</v>
       </c>
       <c r="G87">
         <v>-0.02558825106066998</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.660533593261742</v>
+        <v>-2.661711693021838</v>
       </c>
       <c r="G90">
         <v>-0.03056716945529248</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.667857177026027</v>
+        <v>-2.667900120435572</v>
       </c>
       <c r="G91">
         <v>-0.03285485910323382</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.673123105642513</v>
+        <v>-2.674925768577041</v>
       </c>
       <c r="G92">
         <v>-0.0330848936033763</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.698811741890756</v>
+        <v>-2.699178279627713</v>
       </c>
       <c r="G96">
         <v>-0.03862995338624353</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.72319431359608</v>
+        <v>-2.723242441800427</v>
       </c>
       <c r="G100">
         <v>-0.04286894862619128</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.728396207880066</v>
+        <v>-2.729085252839151</v>
       </c>
       <c r="G101">
         <v>-0.04303494879383374</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.735259682425897</v>
+        <v>-2.735306870942393</v>
       </c>
       <c r="G102">
         <v>-0.04486252922332046</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.753264632005687</v>
+        <v>-2.754166745078245</v>
       </c>
       <c r="G105">
         <v>-0.04775979645407857</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.760042295189193</v>
+        <v>-2.760560131079683</v>
       </c>
       <c r="G106">
         <v>-0.04950156552124074</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.781983940737895</v>
+        <v>-2.782164935565028</v>
       </c>
       <c r="G110">
         <v>-0.05129963460456755</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.788175658510144</v>
+        <v>-2.788223699292844</v>
       </c>
       <c r="G111">
         <v>-0.0524554582604726</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.793578419999915</v>
+        <v>-2.794725537535722</v>
       </c>
       <c r="G112">
         <v>-0.05282232563389866</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.8003279881462</v>
+        <v>-2.801664888168225</v>
       </c>
       <c r="G113">
         <v>-0.05453599966383993</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.804370119788216</v>
+        <v>-2.80701033282495</v>
       </c>
       <c r="G114">
         <v>-0.05354223718951245</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.810256121582797</v>
+        <v>-2.812364922501664</v>
       </c>
       <c r="G115">
         <v>-0.05439234486774969</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817009523794602</v>
+        <v>-2.818028356630639</v>
       </c>
       <c r="G116">
         <v>-0.05610985296321092</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.835176091895668</v>
+        <v>-2.835823304247112</v>
       </c>
       <c r="G119">
         <v>-0.05916873871524442</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.856247253149821</v>
+        <v>-2.8580965540506</v>
       </c>
       <c r="G123">
         <v>-0.06009632350402172</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.868324669371104</v>
+        <v>-2.86920704373057</v>
       </c>
       <c r="G125">
         <v>-0.06210195149261666</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.871829192714704</v>
+        <v>-2.875388097405996</v>
       </c>
       <c r="G126">
         <v>-0.0605705807198722</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.889047113936406</v>
+        <v>-2.89058267007011</v>
       </c>
       <c r="G129">
         <v>-0.06268081959254301</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.905089894172765</v>
+        <v>-2.907143025487291</v>
       </c>
       <c r="G132">
         <v>-0.06361591747986961</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.90962449718333</v>
+        <v>-2.912909058439328</v>
       </c>
       <c r="G133">
         <v>-0.06311462637409115</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.916904558771453</v>
+        <v>-2.917561613265876</v>
       </c>
       <c r="G134">
         <v>-0.06535879384586996</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.94201155854596</v>
+        <v>-2.943607090693094</v>
       </c>
       <c r="G139">
         <v>-0.06528632303865711</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.947618963845512</v>
+        <v>-2.948073924014206</v>
       </c>
       <c r="G140">
         <v>-0.06585783422186564</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.957569091339502</v>
+        <v>-2.957847340118644</v>
       </c>
       <c r="G142">
         <v>-0.06573617348316763</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.963508352033594</v>
+        <v>-2.96555153832881</v>
       </c>
       <c r="G143">
         <v>-0.06663954006091544</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.969076346526938</v>
+        <v>-2.9700042532108</v>
       </c>
       <c r="G144">
         <v>-0.06717164043791568</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.974065302194714</v>
+        <v>-2.976329090873127</v>
       </c>
       <c r="G145">
         <v>-0.06712470198934772</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.008234764859921</v>
+        <v>-3.009112453595263</v>
       </c>
       <c r="G152">
         <v>-0.06604290584014705</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.018656676598467</v>
+        <v>-3.018829115305675</v>
       </c>
       <c r="G154">
         <v>-0.06639302934600511</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.02251322462958</v>
+        <v>-3.023255482235764</v>
       </c>
       <c r="G155">
         <v>-0.06521368326077392</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.036557126073128</v>
+        <v>-3.038881928120239</v>
       </c>
       <c r="G158">
         <v>-0.06414990235529028</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.045678464307471</v>
+        <v>-3.046608003684769</v>
       </c>
       <c r="G160">
         <v>-0.06319945235694524</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.050099529685357</v>
+        <v>-3.050391461506266</v>
       </c>
       <c r="G161">
         <v>-0.06258462361848727</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.056051177510515</v>
+        <v>-3.057567856068099</v>
       </c>
       <c r="G162">
         <v>-0.0635003773273014</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.073483830927089</v>
+        <v>-3.076599339955835</v>
       </c>
       <c r="G166">
         <v>-0.06078945427849947</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.085358511090197</v>
+        <v>-3.085388232200956</v>
       </c>
       <c r="G168">
         <v>-0.06259234620891985</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.097451344163456</v>
+        <v>-3.099319758308169</v>
       </c>
       <c r="G171">
         <v>-0.05957749693314685</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.101815026296089</v>
+        <v>-3.102687510779754</v>
       </c>
       <c r="G172">
         <v>-0.05890528494943581</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.10563740039608</v>
+        <v>-3.108159159461014</v>
       </c>
       <c r="G173">
         <v>-0.05769176493308348</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.127962321386209</v>
+        <v>-3.128835597836647</v>
       </c>
       <c r="G178">
         <v>-0.05483721534149244</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.131513674601881</v>
+        <v>-3.13254012135922</v>
       </c>
       <c r="G179">
         <v>-0.05335267444082081</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.137367508223623</v>
+        <v>-3.137942902934263</v>
       </c>
       <c r="G180">
         <v>-0.05417061394621847</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141397139022881</v>
+        <v>-3.141555574475873</v>
       </c>
       <c r="G181">
         <v>-0.0531643506291325</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.14464559903301</v>
+        <v>-3.145778799349355</v>
       </c>
       <c r="G182">
         <v>-0.05137691652291798</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.146611717473673</v>
+        <v>-3.14925113424647</v>
       </c>
       <c r="G183">
         <v>-0.04830714084723597</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.157677396266635</v>
+        <v>-3.157960434155793</v>
       </c>
       <c r="G185">
         <v>-0.04930103140751052</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.161332872812014</v>
+        <v>-3.162203073188766</v>
       </c>
       <c r="G186">
         <v>-0.04792061383654611</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.165278738463413</v>
+        <v>-3.165665551866744</v>
       </c>
       <c r="G187">
         <v>-0.04683058537160079</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.188998489405336</v>
+        <v>-3.189141997319699</v>
       </c>
       <c r="G193">
         <v>-0.04033497161545985</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.202688462086148</v>
+        <v>-3.204611430241195</v>
       </c>
       <c r="G197">
         <v>-0.03388136783089613</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.208907164379833</v>
+        <v>-3.20899904035544</v>
       </c>
       <c r="G198">
         <v>-0.03506417600823741</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.222658180014723</v>
+        <v>-3.224137397792779</v>
       </c>
       <c r="G202">
         <v>-0.02867161517775124</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.230081016610174</v>
+        <v>-3.231248673485164</v>
       </c>
       <c r="G204">
         <v>-0.02602266354051486</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.234018556656485</v>
+        <v>-3.234203303482557</v>
       </c>
       <c r="G205">
         <v>-0.02492430947048149</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.238409041802255</v>
+        <v>-3.240170930485071</v>
       </c>
       <c r="G206">
         <v>-0.02427890049990783</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.249657626776125</v>
+        <v>-3.250526449836825</v>
       </c>
       <c r="G209">
         <v>-0.02041980312474595</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.252373824058279</v>
+        <v>-3.253242647118979</v>
       </c>
       <c r="G210">
         <v>-0.01810010629055583</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.255497550264173</v>
+        <v>-3.255755384530934</v>
       </c>
       <c r="G211">
         <v>-0.01618793838010568</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.258456754547887</v>
+        <v>-3.259012938477288</v>
       </c>
       <c r="G212">
         <v>-0.01411124854747615</v>
@@ -5291,7 +5291,7 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.261785888425306</v>
+        <v>-3.262510282202175</v>
       </c>
       <c r="G213">
         <v>-0.01240448830855077</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827340759295184</v>
+        <v>-2.827612903228113</v>
       </c>
       <c r="G222">
         <v>-0.04471816874925771</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.079326769551146</v>
+        <v>-3.079713956378859</v>
       </c>
       <c r="G225">
         <v>-0.06584126804800361</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.155166380444523</v>
+        <v>-3.157625598195269</v>
       </c>
       <c r="G226">
         <v>-0.06472657528897496</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.345831807976445</v>
+        <v>-3.346753932179976</v>
       </c>
       <c r="G229">
         <v>-0.02452909186368024</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.793189405462554</v>
+        <v>-2.794019383523477</v>
       </c>
       <c r="G232">
         <v>-0.02519562002886611</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.891501834037596</v>
+        <v>-2.891955724271923</v>
       </c>
       <c r="G233">
         <v>-0.04523560542262439</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.149093987048717</v>
+        <v>-3.149250017591216</v>
       </c>
       <c r="G236">
         <v>-0.06801042888989284</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.22459893347519</v>
+        <v>-3.224619621730109</v>
       </c>
       <c r="G237">
         <v>-0.06524293213508248</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.419782251874329</v>
+        <v>-3.419795677384867</v>
       </c>
       <c r="G240">
         <v>-0.02560892099036965</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.934413249037043</v>
+        <v>-2.934885535066412</v>
       </c>
       <c r="G244">
         <v>-0.04556047169291499</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.026813930241926</v>
+        <v>-3.026915033446114</v>
       </c>
       <c r="G245">
         <v>-0.0586279728362733</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.113785191820156</v>
+        <v>-3.113816433559142</v>
       </c>
       <c r="G246">
         <v>-0.06540373717839798</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.344156321443987</v>
+        <v>-3.34432443690817</v>
       </c>
       <c r="G249">
         <v>-0.05691300944307454</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.409415973596644</v>
+        <v>-3.410286276643786</v>
       </c>
       <c r="G250">
         <v>-0.04283948153420702</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.86531752401301</v>
+        <v>-2.865655458859778</v>
       </c>
       <c r="G254">
         <v>-0.02534092139391753</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.22918117752557</v>
+        <v>-3.229580006990834</v>
       </c>
       <c r="G258">
         <v>-0.06738318208214666</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.989425906757708</v>
+        <v>-2.989551469347872</v>
       </c>
       <c r="G266">
         <v>-0.04494258717877075</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.083793268397245</v>
+        <v>-3.084046376832509</v>
       </c>
       <c r="G267">
         <v>-0.0580772571885384</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.171700911465357</v>
+        <v>-3.172359103294478</v>
       </c>
       <c r="G268">
         <v>-0.06514654208139392</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.333110784173737</v>
+        <v>-3.333200076475987</v>
       </c>
       <c r="G270">
         <v>-0.06409103153023543</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.405882820939345</v>
+        <v>-3.406326431681243</v>
       </c>
       <c r="G271">
         <v>-0.05602471012058752</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.536402543641645</v>
+        <v>-3.536459111812097</v>
       </c>
       <c r="G273">
         <v>-0.02407904956334816</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.00797541349624</v>
+        <v>-3.00803048452345</v>
       </c>
       <c r="G277">
         <v>-0.04470769965783727</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.352936244320659</v>
+        <v>-3.353561974100665</v>
       </c>
       <c r="G281">
         <v>-0.06301967447549606</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921823060905594</v>
+        <v>-2.921874221611867</v>
       </c>
       <c r="G287">
         <v>-0.02516412594051465</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.576505485743091</v>
+        <v>-3.576821989675456</v>
       </c>
       <c r="G295">
         <v>-0.02358795444891654</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.463261127265864</v>
+        <v>-2.463840237063005</v>
       </c>
       <c r="G21">
         <v>-0.02433594829017283</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.479310640886941</v>
+        <v>-2.480042113345436</v>
       </c>
       <c r="G22">
         <v>-0.02798565544748621</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.495088259843913</v>
+        <v>-2.495859041968155</v>
       </c>
       <c r="G23">
         <v>-0.03117179561358974</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.511636660925129</v>
+        <v>-2.512640028047731</v>
       </c>
       <c r="G24">
         <v>-0.03391544748502495</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.527378959413176</v>
+        <v>-2.527493101894331</v>
       </c>
       <c r="G25">
         <v>-0.03701210462948912</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.558266193110777</v>
+        <v>-2.559440913602334</v>
       </c>
       <c r="G27">
         <v>-0.04421639871533944</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.574293987448932</v>
+        <v>-2.574553585318104</v>
       </c>
       <c r="G28">
         <v>-0.04765271426262618</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.588833309513702</v>
+        <v>-2.588961925617226</v>
       </c>
       <c r="G29">
         <v>-0.04843778612008798</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.602919735381796</v>
+        <v>-2.603511076359158</v>
       </c>
       <c r="G30">
         <v>-0.05109550461375201</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.630099590871984</v>
+        <v>-2.633126571697206</v>
       </c>
       <c r="G32">
         <v>-0.05255996782284611</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.647268122217692</v>
+        <v>-2.647450438022489</v>
       </c>
       <c r="G33">
         <v>-0.0567111528516584</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.6600864281494</v>
+        <v>-2.661231323737927</v>
       </c>
       <c r="G34">
         <v>-0.05533269468334789</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.687593604405428</v>
+        <v>-2.689937122195046</v>
       </c>
       <c r="G36">
         <v>-0.06022050089217235</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.701881656962879</v>
+        <v>-2.703162191579268</v>
       </c>
       <c r="G37">
         <v>-0.0619170746587534</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.715875699683751</v>
+        <v>-2.716752751786175</v>
       </c>
       <c r="G38">
         <v>-0.06198088875146923</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.728430672070453</v>
+        <v>-2.732773623298474</v>
       </c>
       <c r="G39">
         <v>-0.06328313218459036</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.753435030640182</v>
+        <v>-2.756068077791887</v>
       </c>
       <c r="G41">
         <v>-0.06259442317383934</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.780967456670064</v>
+        <v>-2.781779687513174</v>
       </c>
       <c r="G43">
         <v>-0.06545400162072612</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.79327948216606</v>
+        <v>-2.796161302497107</v>
       </c>
       <c r="G44">
         <v>-0.06517454832585412</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.832082176330986</v>
+        <v>-2.8325205571231</v>
       </c>
       <c r="G47">
         <v>-0.06620280611817297</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.864924276563071</v>
+        <v>-2.866908435579019</v>
       </c>
       <c r="G50">
         <v>-0.05983289037396422</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.875590779868029</v>
+        <v>-2.877579973347619</v>
       </c>
       <c r="G51">
         <v>-0.05746689299487928</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.888013998389981</v>
+        <v>-2.88943869632739</v>
       </c>
       <c r="G52">
         <v>-0.05917723422282495</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.898550228369633</v>
+        <v>-2.899520561085997</v>
       </c>
       <c r="G53">
         <v>-0.05712198541160796</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.909169171166957</v>
+        <v>-2.910982208453511</v>
       </c>
       <c r="G54">
         <v>-0.05514944941806332</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.942068026680078</v>
+        <v>-2.943285998359046</v>
       </c>
       <c r="G57">
         <v>-0.05005159500478329</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.952002488364808</v>
+        <v>-2.953505828138014</v>
       </c>
       <c r="G58">
         <v>-0.04729540180728409</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.962605468059554</v>
+        <v>-2.963266037664424</v>
       </c>
       <c r="G59">
         <v>-0.0456283523563159</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.983498802477593</v>
+        <v>-2.984356951417556</v>
       </c>
       <c r="G61">
         <v>-0.04133872919261777</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.992799878644592</v>
+        <v>-2.993773977927794</v>
       </c>
       <c r="G62">
         <v>-0.0380483265687474</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.001165499238103</v>
+        <v>-3.002844623212825</v>
       </c>
       <c r="G63">
         <v>-0.03382246837139063</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.569001055335833</v>
+        <v>-2.569274071208849</v>
       </c>
       <c r="G76">
         <v>-0.00953714915819992</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.57613413707226</v>
+        <v>-2.576489490709982</v>
       </c>
       <c r="G77">
         <v>-0.01163433677828207</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.583010943626603</v>
+        <v>-2.583323005042633</v>
       </c>
       <c r="G78">
         <v>-0.01347524921628196</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.596399309210157</v>
+        <v>-2.597162570595259</v>
       </c>
       <c r="G80">
         <v>-0.01679182656714717</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.602834941393074</v>
+        <v>-2.603288090844063</v>
       </c>
       <c r="G81">
         <v>-0.01819156463372007</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.609082374552551</v>
+        <v>-2.60996396349133</v>
       </c>
       <c r="G82">
         <v>-0.01940310367685338</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.617090560335593</v>
+        <v>-2.617392967933128</v>
       </c>
       <c r="G83">
         <v>-0.02075206129529805</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.622466846698631</v>
+        <v>-2.622872961985427</v>
       </c>
       <c r="G84">
         <v>-0.02271578759024573</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629202732909609</v>
+        <v>-2.629670560554465</v>
       </c>
       <c r="G85">
         <v>-0.02404272388555251</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.642217651024412</v>
+        <v>-2.642316495049585</v>
       </c>
       <c r="G87">
         <v>-0.02558825106066998</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.648939193455651</v>
+        <v>-2.649257730121721</v>
       </c>
       <c r="G88">
         <v>-0.02904455788189031</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.654293432293772</v>
+        <v>-2.655074508575274</v>
       </c>
       <c r="G89">
         <v>-0.02936290260366725</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.667900120435572</v>
+        <v>-2.66933994439644</v>
       </c>
       <c r="G91">
         <v>-0.03285485910323382</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.68000214823922</v>
+        <v>-2.681466896060055</v>
       </c>
       <c r="G93">
         <v>-0.03492804208373856</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.68610731923977</v>
+        <v>-2.687099212704914</v>
       </c>
       <c r="G94">
         <v>-0.03599731896794456</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.699178279627713</v>
+        <v>-2.699905055292295</v>
       </c>
       <c r="G96">
         <v>-0.03862995338624353</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.704558633021704</v>
+        <v>-2.705408550224487</v>
       </c>
       <c r="G97">
         <v>-0.03934095040084706</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.717761126750783</v>
+        <v>-2.719037469200687</v>
       </c>
       <c r="G99">
         <v>-0.04247165589723778</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.723242441800427</v>
+        <v>-2.72325877678565</v>
       </c>
       <c r="G100">
         <v>-0.04286894862619128</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.729085252839151</v>
+        <v>-2.730066569312608</v>
       </c>
       <c r="G101">
         <v>-0.04303494879383374</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.735306870942393</v>
+        <v>-2.736264635203753</v>
       </c>
       <c r="G102">
         <v>-0.04486252922332046</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.754166745078245</v>
+        <v>-2.754674052624512</v>
       </c>
       <c r="G105">
         <v>-0.04775979645407857</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.76546014058847</v>
+        <v>-2.765979256833222</v>
       </c>
       <c r="G107">
         <v>-0.0498835168041738</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.771229083112455</v>
+        <v>-2.771493157889213</v>
       </c>
       <c r="G108">
         <v>-0.0506165652118149</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.777674435829799</v>
+        <v>-2.778166793098643</v>
       </c>
       <c r="G109">
         <v>-0.05202602381281474</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.782164935565028</v>
+        <v>-2.783261628829975</v>
       </c>
       <c r="G110">
         <v>-0.05129963460456755</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.788223699292844</v>
+        <v>-2.791155231067776</v>
       </c>
       <c r="G111">
         <v>-0.0524554582604726</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.80701033282495</v>
+        <v>-2.807200322582795</v>
       </c>
       <c r="G114">
         <v>-0.05354223718951245</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.812364922501664</v>
+        <v>-2.813661753011855</v>
       </c>
       <c r="G115">
         <v>-0.05439234486774969</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.818028356630639</v>
+        <v>-2.819887794858517</v>
       </c>
       <c r="G116">
         <v>-0.05610985296321092</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823055474696477</v>
+        <v>-2.823601958642095</v>
       </c>
       <c r="G117">
         <v>-0.05711990974874115</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.829346924215681</v>
+        <v>-2.830393356230545</v>
       </c>
       <c r="G118">
         <v>-0.05837546515160086</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.841291688074442</v>
+        <v>-2.841386180245533</v>
       </c>
       <c r="G120">
         <v>-0.06024844077767466</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.845223963135208</v>
+        <v>-2.84709862659918</v>
       </c>
       <c r="G121">
         <v>-0.05914482172209645</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.851900472723174</v>
+        <v>-2.852479548794271</v>
       </c>
       <c r="G122">
         <v>-0.06078543719371843</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.8580965540506</v>
+        <v>-2.8592127087438</v>
       </c>
       <c r="G123">
         <v>-0.06009632350402172</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.875388097405996</v>
+        <v>-2.875616890487712</v>
       </c>
       <c r="G126">
         <v>-0.0605705807198722</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.880597680624749</v>
+        <v>-2.881050343153411</v>
       </c>
       <c r="G127">
         <v>-0.06430317451357404</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.89058267007011</v>
+        <v>-2.892166145998838</v>
       </c>
       <c r="G129">
         <v>-0.06268081959254301</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.895980118406754</v>
+        <v>-2.896977335070542</v>
       </c>
       <c r="G130">
         <v>-0.06457792994654632</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.907143025487291</v>
+        <v>-2.908062400848986</v>
       </c>
       <c r="G132">
         <v>-0.06361591747986961</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.917561613265876</v>
+        <v>-2.918316212078899</v>
       </c>
       <c r="G134">
         <v>-0.06535879384586996</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.922058464225245</v>
+        <v>-2.923501697542083</v>
       </c>
       <c r="G135">
         <v>-0.06547680518331833</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.933077411749852</v>
+        <v>-2.934403562348285</v>
       </c>
       <c r="G137">
         <v>-0.0664239644752378</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.939925005010275</v>
+        <v>-2.941144093121174</v>
       </c>
       <c r="G138">
         <v>-0.06823566361931643</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.943607090693094</v>
+        <v>-2.944013809785544</v>
       </c>
       <c r="G139">
         <v>-0.06528632303865711</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.948073924014206</v>
+        <v>-2.949350756470181</v>
       </c>
       <c r="G140">
         <v>-0.06585783422186564</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.953081593680303</v>
+        <v>-2.955208749891553</v>
       </c>
       <c r="G141">
         <v>-0.06628456994031273</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.957847340118644</v>
+        <v>-2.960832108407634</v>
       </c>
       <c r="G142">
         <v>-0.06573617348316763</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.980476780391207</v>
+        <v>-2.981427536742757</v>
       </c>
       <c r="G146">
         <v>-0.06850028606949676</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.984755388892544</v>
+        <v>-2.986012406295046</v>
       </c>
       <c r="G147">
         <v>-0.06774300045448944</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.994510838561646</v>
+        <v>-2.994803681023369</v>
       </c>
       <c r="G149">
         <v>-0.06742666189090407</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.00009314060386</v>
+        <v>-3.000425409749742</v>
       </c>
       <c r="G150">
         <v>-0.0679730698167742</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.004122302726091</v>
+        <v>-3.005136728134251</v>
       </c>
       <c r="G151">
         <v>-0.06696633782266148</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.009112453595263</v>
+        <v>-3.009983967284647</v>
       </c>
       <c r="G152">
         <v>-0.06604290584014705</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.014628613275738</v>
+        <v>-3.015348029193351</v>
       </c>
       <c r="G153">
         <v>-0.06740086013962032</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.018829115305675</v>
+        <v>-3.020416020280791</v>
       </c>
       <c r="G154">
         <v>-0.06639302934600511</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.023255482235764</v>
+        <v>-3.02365333712699</v>
       </c>
       <c r="G155">
         <v>-0.06521368326077392</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.028791970287874</v>
+        <v>-3.030339303894042</v>
       </c>
       <c r="G156">
         <v>-0.0664565348027244</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.038881928120239</v>
+        <v>-3.03955651642158</v>
       </c>
       <c r="G158">
         <v>-0.06414990235529028</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.046608003684769</v>
+        <v>-3.048954157766443</v>
       </c>
       <c r="G160">
         <v>-0.06319945235694524</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.050391461506266</v>
+        <v>-3.052574132656519</v>
       </c>
       <c r="G161">
         <v>-0.06258462361848727</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.057567856068099</v>
+        <v>-3.059482982192928</v>
       </c>
       <c r="G162">
         <v>-0.0635003773273014</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.062314583019918</v>
+        <v>-3.062678147488573</v>
       </c>
       <c r="G163">
         <v>-0.06472788872036028</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.065803099184912</v>
+        <v>-3.06741882861859</v>
       </c>
       <c r="G164">
         <v>-0.06318051076901077</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.07950258360087</v>
+        <v>-3.08079306762337</v>
       </c>
       <c r="G167">
         <v>-0.06177231283593732</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.085388232200956</v>
+        <v>-3.086210313005277</v>
       </c>
       <c r="G168">
         <v>-0.06259234620891985</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.089442172059897</v>
+        <v>-3.090755329619352</v>
       </c>
       <c r="G169">
         <v>-0.06164011306227557</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.093144104718803</v>
+        <v>-3.09541478286509</v>
       </c>
       <c r="G170">
         <v>-0.06030615160483777</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.102687510779754</v>
+        <v>-3.104411061220887</v>
       </c>
       <c r="G172">
         <v>-0.05890528494943581</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.108159159461014</v>
+        <v>-3.108216530784265</v>
       </c>
       <c r="G173">
         <v>-0.05769176493308348</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.110529686108748</v>
+        <v>-3.112076043615993</v>
       </c>
       <c r="G174">
         <v>-0.05754815652940726</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.128835597836647</v>
+        <v>-3.129546504520194</v>
       </c>
       <c r="G178">
         <v>-0.05483721534149244</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.13254012135922</v>
+        <v>-3.134351362614454</v>
       </c>
       <c r="G179">
         <v>-0.05335267444082081</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141555574475873</v>
+        <v>-3.142757013024269</v>
       </c>
       <c r="G181">
         <v>-0.0531643506291325</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.14925113424647</v>
+        <v>-3.150057229220582</v>
       </c>
       <c r="G183">
         <v>-0.04830714084723597</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.153732656775636</v>
+        <v>-3.154511215925016</v>
       </c>
       <c r="G184">
         <v>-0.05039218603285556</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.157960434155793</v>
+        <v>-3.158422704931644</v>
       </c>
       <c r="G185">
         <v>-0.04930103140751052</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.162203073188766</v>
+        <v>-3.163259180437006</v>
       </c>
       <c r="G186">
         <v>-0.04792061383654611</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.165665551866744</v>
+        <v>-3.166952189025364</v>
       </c>
       <c r="G187">
         <v>-0.04683058537160079</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.169047065039755</v>
+        <v>-3.170735299492177</v>
       </c>
       <c r="G188">
         <v>-0.04556301783159888</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173546427336824</v>
+        <v>-3.175195436587968</v>
       </c>
       <c r="G189">
         <v>-0.04502648601232395</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.177508639689707</v>
+        <v>-3.179976161113977</v>
       </c>
       <c r="G190">
         <v>-0.04395280424886217</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.182904078662327</v>
+        <v>-3.183199795994115</v>
       </c>
       <c r="G191">
         <v>-0.04431234910513887</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.186016785394112</v>
+        <v>-3.186037523897344</v>
       </c>
       <c r="G192">
         <v>-0.04238916172058044</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.189141997319699</v>
+        <v>-3.19097381069816</v>
       </c>
       <c r="G193">
         <v>-0.04033497161545985</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.194181765848061</v>
+        <v>-3.194647084072461</v>
       </c>
       <c r="G194">
         <v>-0.04048235394184091</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.197288467207406</v>
+        <v>-3.197788110807211</v>
       </c>
       <c r="G195">
         <v>-0.0385531611848427</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.200462012659874</v>
+        <v>-3.201323828732832</v>
       </c>
       <c r="G196">
         <v>-0.0366908125209664</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.204611430241195</v>
+        <v>-3.205807865781132</v>
       </c>
       <c r="G197">
         <v>-0.03388136783089613</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.212327249379189</v>
+        <v>-3.212938992617377</v>
       </c>
       <c r="G199">
         <v>-0.03344836689124936</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.216557597758871</v>
+        <v>-3.217861917603543</v>
       </c>
       <c r="G200">
         <v>-0.03264282115458733</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.220241916940951</v>
+        <v>-3.221739844688217</v>
       </c>
       <c r="G201">
         <v>-0.0312912462203232</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.224137397792779</v>
+        <v>-3.224828682623392</v>
       </c>
       <c r="G202">
         <v>-0.02867161517775124</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.227811328400326</v>
+        <v>-3.228599617602548</v>
       </c>
       <c r="G203">
         <v>-0.02878886944701037</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.231248673485164</v>
+        <v>-3.231512870871587</v>
       </c>
       <c r="G204">
         <v>-0.02602266354051486</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.234203303482557</v>
+        <v>-3.236639325749034</v>
       </c>
       <c r="G205">
         <v>-0.02492430947048149</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.241615877526661</v>
+        <v>-3.243689116698892</v>
       </c>
       <c r="G207">
         <v>-0.02244984210796933</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.245844129107783</v>
+        <v>-3.246678329854062</v>
       </c>
       <c r="G208">
         <v>-0.0216421995727476</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.253242647118979</v>
+        <v>-3.253967040895849</v>
       </c>
       <c r="G210">
         <v>-0.01810010629055583</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.255755384530934</v>
+        <v>-3.256814787997958</v>
       </c>
       <c r="G211">
         <v>-0.01618793838010568</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.259012938477288</v>
+        <v>-3.259662535100067</v>
       </c>
       <c r="G212">
         <v>-0.01411124854747615</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.000898077699189</v>
+        <v>-3.002309863324426</v>
       </c>
       <c r="G224">
         <v>-0.06436687984845135</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.079713956378859</v>
+        <v>-3.082759192201372</v>
       </c>
       <c r="G225">
         <v>-0.06584126804800361</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.157625598195269</v>
+        <v>-3.157818572476866</v>
       </c>
       <c r="G226">
         <v>-0.06472657528897496</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.288705797312738</v>
+        <v>-3.288918451112358</v>
       </c>
       <c r="G228">
         <v>-0.04435738485237894</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.346753932179976</v>
+        <v>-3.347234244117862</v>
       </c>
       <c r="G229">
         <v>-0.02452909186368024</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.068512778787285</v>
+        <v>-3.069404299669576</v>
       </c>
       <c r="G235">
         <v>-0.06570166380974518</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.149250017591216</v>
+        <v>-3.149580958468635</v>
       </c>
       <c r="G236">
         <v>-0.06801042888989284</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.224619621730109</v>
+        <v>-3.225489431298942</v>
       </c>
       <c r="G237">
         <v>-0.06524293213508248</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.360670720202276</v>
+        <v>-3.360970031860614</v>
       </c>
       <c r="G239">
         <v>-0.04476983249959998</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.419795677384867</v>
+        <v>-3.419995495763846</v>
       </c>
       <c r="G240">
         <v>-0.02560892099036965</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.113816433559142</v>
+        <v>-3.1141370882414</v>
       </c>
       <c r="G246">
         <v>-0.06540373717839798</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.195699180279424</v>
+        <v>-3.195823630887987</v>
       </c>
       <c r="G247">
         <v>-0.06798454557614164</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.272331835757357</v>
+        <v>-3.273623045215301</v>
       </c>
       <c r="G248">
         <v>-0.06528402099255004</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.34432443690817</v>
+        <v>-3.344816291001537</v>
       </c>
       <c r="G249">
         <v>-0.05691300944307454</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.410286276643786</v>
+        <v>-3.410835871652484</v>
       </c>
       <c r="G250">
         <v>-0.04283948153420702</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.470836088073976</v>
+        <v>-3.471403519198373</v>
       </c>
       <c r="G251">
         <v>-0.02492641595001427</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.30734937709874</v>
+        <v>-3.3080783554396</v>
       </c>
       <c r="G259">
         <v>-0.06481173893260439</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.379163099369976</v>
+        <v>-3.379761561964182</v>
       </c>
       <c r="G260">
         <v>-0.05645440751438702</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508333689838425</v>
+        <v>-3.508374771565195</v>
       </c>
       <c r="G262">
         <v>-0.02471430157067073</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.254734588593652</v>
+        <v>-3.255028671606877</v>
       </c>
       <c r="G269">
         <v>-0.06694752757991962</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.333200076475987</v>
+        <v>-3.333539303775941</v>
       </c>
       <c r="G270">
         <v>-0.06409103153023543</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.473990832313294</v>
+        <v>-3.474276748095714</v>
       </c>
       <c r="G272">
         <v>-0.04290002986476638</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.536459111812097</v>
+        <v>-3.536740187889488</v>
       </c>
       <c r="G273">
         <v>-0.02407904956334816</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.274274004891187</v>
+        <v>-3.274735256325325</v>
       </c>
       <c r="G280">
         <v>-0.06601964904771429</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.353561974100665</v>
+        <v>-3.353789064287123</v>
       </c>
       <c r="G281">
         <v>-0.06301967447549606</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.495762789281819</v>
+        <v>-3.495889113176514</v>
       </c>
       <c r="G283">
         <v>-0.04252179143327672</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.558507275278612</v>
+        <v>-3.559039615327795</v>
       </c>
       <c r="G284">
         <v>-0.02360406342838045</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.369473272126847</v>
+        <v>-3.37007473677615</v>
       </c>
       <c r="G292">
         <v>-0.06265271445608311</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.443591618763116</v>
+        <v>-3.444009900221536</v>
       </c>
       <c r="G293">
         <v>-0.05473873655121542</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.512874893516033</v>
+        <v>-3.513069007494543</v>
       </c>
       <c r="G294">
         <v>-0.04198968676299619</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.576821989675456</v>
+        <v>-3.57685735983039</v>
       </c>
       <c r="G295">
         <v>-0.02358795444891654</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.495859041968155</v>
+        <v>-2.496352635840407</v>
       </c>
       <c r="G23">
         <v>-0.03117179561358974</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.588961925617226</v>
+        <v>-2.589147061295532</v>
       </c>
       <c r="G29">
         <v>-0.04843778612008798</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.756068077791887</v>
+        <v>-2.756219294140334</v>
       </c>
       <c r="G41">
         <v>-0.06259442317383934</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.843514979590607</v>
+        <v>-2.843591015409726</v>
       </c>
       <c r="G48">
         <v>-0.0627394238304585</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.877579973347619</v>
+        <v>-2.878491365545431</v>
       </c>
       <c r="G51">
         <v>-0.05746689299487928</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.661711693021838</v>
+        <v>-2.661773501790826</v>
       </c>
       <c r="G90">
         <v>-0.03056716945529248</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.692757957479333</v>
+        <v>-2.694099773798131</v>
       </c>
       <c r="G95">
         <v>-0.03761206309116449</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.72325877678565</v>
+        <v>-2.723453888325441</v>
       </c>
       <c r="G100">
         <v>-0.04286894862619128</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.760560131079683</v>
+        <v>-2.761076619042738</v>
       </c>
       <c r="G106">
         <v>-0.04950156552124074</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.783261628829975</v>
+        <v>-2.783345923216076</v>
       </c>
       <c r="G110">
         <v>-0.05129963460456755</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.830393356230545</v>
+        <v>-2.831079747416396</v>
       </c>
       <c r="G118">
         <v>-0.05837546515160086</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.852479548794271</v>
+        <v>-2.852734497279655</v>
       </c>
       <c r="G122">
         <v>-0.06078543719371843</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.92851420916261</v>
+        <v>-2.92883215017104</v>
       </c>
       <c r="G136">
         <v>-0.06689665600433936</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.949350756470181</v>
+        <v>-2.950935839134099</v>
       </c>
       <c r="G140">
         <v>-0.06585783422186564</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.976329090873127</v>
+        <v>-2.976523644509098</v>
       </c>
       <c r="G145">
         <v>-0.06712470198934772</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.981427536742757</v>
+        <v>-2.982057273291296</v>
       </c>
       <c r="G146">
         <v>-0.06850028606949676</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.994803681023369</v>
+        <v>-2.995442077254687</v>
       </c>
       <c r="G149">
         <v>-0.06742666189090407</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.005136728134251</v>
+        <v>-3.005339616571565</v>
       </c>
       <c r="G151">
         <v>-0.06696633782266148</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.02365333712699</v>
+        <v>-3.025063701713178</v>
       </c>
       <c r="G155">
         <v>-0.06521368326077392</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.030339303894042</v>
+        <v>-3.030799186057815</v>
       </c>
       <c r="G156">
         <v>-0.0664565348027244</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.062678147488573</v>
+        <v>-3.062879015675206</v>
       </c>
       <c r="G163">
         <v>-0.06472788872036028</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.145778799349355</v>
+        <v>-3.146944500819743</v>
       </c>
       <c r="G182">
         <v>-0.05137691652291798</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.154511215925016</v>
+        <v>-3.154809850094015</v>
       </c>
       <c r="G184">
         <v>-0.05039218603285556</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.186037523897344</v>
+        <v>-3.186695220999804</v>
       </c>
       <c r="G192">
         <v>-0.04238916172058044</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.197788110807211</v>
+        <v>-3.197868812998283</v>
       </c>
       <c r="G195">
         <v>-0.0385531611848427</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.246678329854062</v>
+        <v>-3.246809879674016</v>
       </c>
       <c r="G208">
         <v>-0.0216421995727476</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.002309863324426</v>
+        <v>-3.002964187817497</v>
       </c>
       <c r="G224">
         <v>-0.06436687984845135</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.149580958468635</v>
+        <v>-3.149740919717072</v>
       </c>
       <c r="G236">
         <v>-0.06801042888989284</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.225489431298942</v>
+        <v>-3.225786887941497</v>
       </c>
       <c r="G237">
         <v>-0.06524293213508248</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.195823630887987</v>
+        <v>-3.197370157388343</v>
       </c>
       <c r="G247">
         <v>-0.06798454557614164</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.447004507564725</v>
+        <v>-3.447262209066148</v>
       </c>
       <c r="G261">
         <v>-0.043556172986424</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.406326431681243</v>
+        <v>-3.406419311709374</v>
       </c>
       <c r="G271">
         <v>-0.05602471012058752</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.474276748095714</v>
+        <v>-3.474337475803458</v>
       </c>
       <c r="G272">
         <v>-0.04290002986476638</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.274735256325325</v>
+        <v>-3.274793454771128</v>
       </c>
       <c r="G280">
         <v>-0.06601964904771429</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559039615327795</v>
+        <v>-3.559161474647937</v>
       </c>
       <c r="G284">
         <v>-0.02360406342838045</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.444009900221536</v>
+        <v>-3.444054800013642</v>
       </c>
       <c r="G293">
         <v>-0.05473873655121542</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.01262293291183</v>
       </c>
       <c r="G2">
-        <v>-2.220446049250313e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.071118264090986</v>
       </c>
       <c r="G3">
-        <v>-0.01336219630812363</v>
+        <v>-0.01336219630812163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.129613595270141</v>
       </c>
       <c r="G4">
-        <v>-0.02672439261624393</v>
+        <v>-0.02672439261624282</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.187680919573856</v>
       </c>
       <c r="G5">
-        <v>-0.03965858204892503</v>
+        <v>-0.03965858204892414</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.245748243877571</v>
       </c>
       <c r="G6">
-        <v>-0.05259277148160502</v>
+        <v>-0.05259277148160457</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.348593695905432</v>
       </c>
       <c r="G8">
-        <v>-0.06517195376739715</v>
+        <v>-0.06517195376739782</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.393366173589853</v>
       </c>
       <c r="G9">
-        <v>-0.06481129658078433</v>
+        <v>-0.06481129658078499</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.437507941040565</v>
       </c>
       <c r="G10">
-        <v>-0.06381992916046142</v>
+        <v>-0.06381992916046253</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.480602291461575</v>
       </c>
       <c r="G11">
-        <v>-0.06178114471043683</v>
+        <v>-0.06178114471043861</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.523696641882585</v>
       </c>
       <c r="G12">
-        <v>-0.05974236026041224</v>
+        <v>-0.05974236026041435</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.559320550570518</v>
       </c>
       <c r="G13">
-        <v>-0.05023313407731012</v>
+        <v>-0.05023313407731289</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.59494445925845</v>
       </c>
       <c r="G14">
-        <v>-0.04072390789420777</v>
+        <v>-0.04072390789421115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.599353686235273</v>
       </c>
       <c r="G15">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.375543527695873</v>
       </c>
       <c r="G16">
-        <v>7.993605777301127e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.39555807315042</v>
       </c>
       <c r="G17">
-        <v>-0.007423066663669875</v>
+        <v>-0.007423066663677869</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.412918169027137</v>
       </c>
       <c r="G18">
-        <v>-0.0121916837495184</v>
+        <v>-0.01219168374952639</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-2.430278264903854</v>
       </c>
       <c r="G19">
-        <v>-0.01696030083536648</v>
+        <v>-0.01696030083537448</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.447059250983429</v>
+        <v>-2.446480141186285</v>
       </c>
       <c r="G20">
-        <v>-0.02057069832693292</v>
+        <v>-0.02057069832693648</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>-2.463840237063005</v>
       </c>
       <c r="G21">
-        <v>-0.02433594829017283</v>
+        <v>-0.02533931541278767</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.480042113345436</v>
+        <v>-2.478990764474892</v>
       </c>
       <c r="G22">
-        <v>-0.02798565544748621</v>
+        <v>-0.02789836403380663</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.496352635840407</v>
+        <v>-2.496823099425011</v>
       </c>
       <c r="G23">
-        <v>-0.03117179561358974</v>
+        <v>-0.03313922019305648</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.512640028047731</v>
+        <v>-2.511741041838538</v>
       </c>
       <c r="G24">
-        <v>-0.03391544748502495</v>
+        <v>-0.03546568381571502</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.527493101894331</v>
+        <v>-2.525476606081376</v>
       </c>
       <c r="G25">
-        <v>-0.03701210462948912</v>
+        <v>-0.03660976926768433</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.544658832952886</v>
+        <v>-2.542060798729253</v>
       </c>
       <c r="G26">
-        <v>-0.04157005868063157</v>
+        <v>-0.0406024831246925</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.559440913602334</v>
+        <v>-2.556797858672184</v>
       </c>
       <c r="G27">
-        <v>-0.04421639871533944</v>
+        <v>-0.04274806427675482</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.574553585318104</v>
+        <v>-2.5724032820366</v>
       </c>
       <c r="G28">
-        <v>-0.04765271426262618</v>
+        <v>-0.04576200885030146</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.589147061295532</v>
+        <v>-2.58685596954418</v>
       </c>
       <c r="G29">
-        <v>-0.04843778612008798</v>
+        <v>-0.04762321756701327</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.603511076359158</v>
+        <v>-2.60343797803361</v>
       </c>
       <c r="G30">
-        <v>-0.05109550461375201</v>
+        <v>-0.05161374726557444</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.618975743031852</v>
+        <v>-2.616406587545687</v>
       </c>
       <c r="G31">
-        <v>-0.05456003347293992</v>
+        <v>-0.05199087798678215</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.633126571697206</v>
+        <v>-2.633511086974835</v>
       </c>
       <c r="G32">
-        <v>-0.05255996782284611</v>
+        <v>-0.05650389862506167</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.647450438022489</v>
+        <v>-2.648084166154619</v>
       </c>
       <c r="G33">
-        <v>-0.0567111528516584</v>
+        <v>-0.05848549901397671</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.661231323737927</v>
+        <v>-2.659511253904228</v>
       </c>
       <c r="G34">
-        <v>-0.05533269468334789</v>
+        <v>-0.05732110797271739</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.676020127196998</v>
+        <v>-2.673131409076586</v>
       </c>
       <c r="G35">
-        <v>-0.05838604513126122</v>
+        <v>-0.05834978435420624</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.689937122195046</v>
+        <v>-2.687113402800267</v>
       </c>
       <c r="G36">
-        <v>-0.06022050089217235</v>
+        <v>-0.05974029928701885</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.703162191579268</v>
+        <v>-2.701495236833672</v>
       </c>
       <c r="G37">
-        <v>-0.0619170746587534</v>
+        <v>-0.06153065452955531</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.716752751786175</v>
+        <v>-2.714396036577388</v>
       </c>
       <c r="G38">
-        <v>-0.06198088875146923</v>
+        <v>-0.06183997548240172</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.732773623298474</v>
+        <v>-2.729660025782046</v>
       </c>
       <c r="G39">
-        <v>-0.06328313218459036</v>
+        <v>-0.06451248589619119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.744576267091915</v>
+        <v>-2.741690867570331</v>
       </c>
       <c r="G40">
-        <v>-0.06683724841518335</v>
+        <v>-0.06395184889360772</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.756219294140334</v>
+        <v>-2.755013614691941</v>
       </c>
       <c r="G41">
-        <v>-0.06259442317383934</v>
+        <v>-0.06468311722434916</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.770639937758514</v>
+        <v>-2.767184733689153</v>
       </c>
       <c r="G42">
-        <v>-0.0677179615000445</v>
+        <v>-0.06426275743069176</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.781779687513174</v>
+        <v>-2.783784387120714</v>
       </c>
       <c r="G43">
-        <v>-0.06545400162072612</v>
+        <v>-0.06827093207138479</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.796161302497107</v>
+        <v>-2.792263409414463</v>
       </c>
       <c r="G44">
-        <v>-0.06517454832585412</v>
+        <v>-0.06415847557426502</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.807049698147514</v>
+        <v>-2.805597480545673</v>
       </c>
       <c r="G45">
-        <v>-0.06460004972834299</v>
+        <v>-0.06490106791460604</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.818974373125642</v>
+        <v>-2.81747599179668</v>
       </c>
       <c r="G46">
-        <v>-0.06568648170369795</v>
+        <v>-0.06418810037474398</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.8325205571231</v>
+        <v>-2.829028303695925</v>
       </c>
       <c r="G47">
-        <v>-0.06620280611817297</v>
+        <v>-0.06314893348312078</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.843591015409726</v>
+        <v>-2.843648544630093</v>
       </c>
       <c r="G48">
-        <v>-0.0627394238304585</v>
+        <v>-0.06517769562641951</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.855218520068735</v>
+        <v>-2.853307528606194</v>
       </c>
       <c r="G49">
-        <v>-0.06304690556669601</v>
+        <v>-0.06224520081165175</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.866908435579019</v>
+        <v>-2.864877474521637</v>
       </c>
       <c r="G50">
-        <v>-0.05983289037396422</v>
+        <v>-0.06122366793622602</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.878491365545431</v>
+        <v>-2.877461888106129</v>
       </c>
       <c r="G51">
-        <v>-0.05746689299487928</v>
+        <v>-0.06121660272984963</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.88943869632739</v>
+        <v>-2.889177567559971</v>
       </c>
       <c r="G52">
-        <v>-0.05917723422282495</v>
+        <v>-0.06034080339282244</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.899520561085997</v>
+        <v>-2.898325917015328</v>
       </c>
       <c r="G53">
-        <v>-0.05712198541160796</v>
+        <v>-0.05689767405731117</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.910982208453511</v>
+        <v>-2.911127493042513</v>
       </c>
       <c r="G54">
-        <v>-0.05514944941806332</v>
+        <v>-0.05710777129362687</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.922153385337135</v>
+        <v>-2.92057180376062</v>
       </c>
       <c r="G55">
-        <v>-0.05554218479737238</v>
+        <v>-0.05396060322086482</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.932357407744604</v>
+        <v>-2.930802312493951</v>
       </c>
       <c r="G56">
-        <v>-0.05242913830559981</v>
+        <v>-0.05159963316332727</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.943285998359046</v>
+        <v>-2.940141097228807</v>
       </c>
       <c r="G57">
-        <v>-0.05005159500478329</v>
+        <v>-0.04834693910731458</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.953505828138014</v>
+        <v>-2.951249931116066</v>
       </c>
       <c r="G58">
-        <v>-0.04729540180728409</v>
+        <v>-0.04686429420370541</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.963266037664424</v>
+        <v>-2.961602088217873</v>
       </c>
       <c r="G59">
-        <v>-0.0456283523563159</v>
+        <v>-0.04462497251464281</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.973872773381665</v>
+        <v>-2.9732122037768</v>
       </c>
       <c r="G60">
-        <v>-0.04234980011026795</v>
+        <v>-0.04364360928270128</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.984356951417556</v>
+        <v>-2.981505677864511</v>
       </c>
       <c r="G61">
-        <v>-0.04133872919261777</v>
+        <v>-0.03934560457954367</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.993773977927794</v>
+        <v>-2.992220713909597</v>
       </c>
       <c r="G62">
-        <v>-0.0380483265687474</v>
+        <v>-0.03746916183376114</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.002844623212825</v>
+        <v>-3.001709647539708</v>
       </c>
       <c r="G63">
-        <v>-0.03382246837139063</v>
+        <v>-0.03436661667300378</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.011659384640477</v>
+        <v>-3.010511399325702</v>
       </c>
       <c r="G64">
-        <v>-0.03172487498289572</v>
+        <v>-0.03057688966812788</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.020474146068131</v>
+        <v>-3.020000332955812</v>
       </c>
       <c r="G65">
-        <v>-0.02794815761968039</v>
+        <v>-0.02747434450736957</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.029288907495782</v>
+        <v>-3.028815094383465</v>
       </c>
       <c r="G66">
-        <v>-0.02369762714414358</v>
+        <v>-0.02369762714415408</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-3.037629855811114</v>
+        <v>-3.037629855811113</v>
       </c>
       <c r="G67">
-        <v>-0.01992090978092645</v>
+        <v>-0.01992090978093369</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-3.045241107156754</v>
       </c>
       <c r="G68">
-        <v>-0.01494068233569773</v>
+        <v>-0.0149406823357057</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-3.05285235850239</v>
       </c>
       <c r="G69">
-        <v>-0.009960454890464557</v>
+        <v>-0.009960454890472398</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-3.060463609848022</v>
       </c>
       <c r="G70">
-        <v>-0.004980227445228282</v>
+        <v>-0.004980227445235977</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-3.068074861193655</v>
       </c>
       <c r="G71">
-        <v>7.993605777301127e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.539320329712253</v>
       </c>
       <c r="G72">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.546808765086403</v>
       </c>
       <c r="G73">
-        <v>-0.0024525412578007</v>
+        <v>-0.002452541257806029</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-2.554297200460552</v>
       </c>
       <c r="G74">
-        <v>-0.004905082515605841</v>
+        <v>-0.00490508251561117</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.5617856358347</v>
       </c>
       <c r="G75">
-        <v>-0.007357623773410094</v>
+        <v>-0.007357623773415423</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.569274071208849</v>
+        <v>-2.568701487932056</v>
       </c>
       <c r="G76">
-        <v>-0.00953714915819992</v>
+        <v>-0.009237581754427016</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>-2.576489490709982</v>
       </c>
       <c r="G77">
-        <v>-0.01163433677828207</v>
+        <v>-0.01198969041600906</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.583323005042633</v>
+        <v>-2.582514140042564</v>
       </c>
       <c r="G78">
-        <v>-0.01347524921628196</v>
+        <v>-0.01297844563224793</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.589992392797734</v>
+        <v>-2.589146793647927</v>
       </c>
       <c r="G79">
-        <v>-0.01480261737931166</v>
+        <v>-0.01457520512126642</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.597162570595259</v>
+        <v>-2.59592221035336</v>
       </c>
       <c r="G80">
-        <v>-0.01679182656714717</v>
+        <v>-0.01631472771035503</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.603288090844063</v>
+        <v>-2.602531676262483</v>
       </c>
       <c r="G81">
-        <v>-0.01819156463372007</v>
+        <v>-0.01788829950313398</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.60996396349133</v>
+        <v>-2.60867645522452</v>
       </c>
       <c r="G82">
-        <v>-0.01940310367685338</v>
+        <v>-0.01899718434882702</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.617392967933128</v>
+        <v>-2.616097545279995</v>
       </c>
       <c r="G83">
-        <v>-0.02075206129529805</v>
+        <v>-0.02138238028795802</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.622872961985427</v>
+        <v>-2.622176414772963</v>
       </c>
       <c r="G84">
-        <v>-0.02271578759024573</v>
+        <v>-0.02242535566458148</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629670560554465</v>
+        <v>-2.629538652013713</v>
       </c>
       <c r="G85">
-        <v>-0.02404272388555251</v>
+        <v>-0.02475169878898864</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.636427806229237</v>
+        <v>-2.635214116349913</v>
       </c>
       <c r="G86">
-        <v>-0.02566774001287708</v>
+        <v>-0.02539126900884403</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.642316495049585</v>
+        <v>-2.641312232126523</v>
       </c>
       <c r="G87">
-        <v>-0.02558825106066998</v>
+        <v>-0.02645349066911074</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.649257730121721</v>
+        <v>-2.647701345018598</v>
       </c>
       <c r="G88">
-        <v>-0.02904455788189031</v>
+        <v>-0.02780670944484109</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.655074508575274</v>
+        <v>-2.654796366092879</v>
       </c>
       <c r="G89">
-        <v>-0.02936290260366725</v>
+        <v>-0.02986583640277773</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.661773501790826</v>
+        <v>-2.660914538920259</v>
       </c>
       <c r="G90">
-        <v>-0.03056716945529248</v>
+        <v>-0.03094811511381401</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.66933994439644</v>
+        <v>-2.666277272968073</v>
       </c>
       <c r="G91">
-        <v>-0.03285485910323382</v>
+        <v>-0.03127495504528444</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.674925768577041</v>
+        <v>-2.672575618104663</v>
       </c>
       <c r="G92">
-        <v>-0.0330848936033763</v>
+        <v>-0.03253740606552968</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.681466896060055</v>
+        <v>-2.679897463810072</v>
       </c>
       <c r="G93">
-        <v>-0.03492804208373856</v>
+        <v>-0.03482335765459466</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.687099212704914</v>
+        <v>-2.686631456011062</v>
       </c>
       <c r="G94">
-        <v>-0.03599731896794456</v>
+        <v>-0.03652145573924059</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.694099773798131</v>
+        <v>-2.693730631094123</v>
       </c>
       <c r="G95">
-        <v>-0.03761206309116449</v>
+        <v>-0.03858473670595775</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.699905055292295</v>
+        <v>-2.699230735943251</v>
       </c>
       <c r="G96">
-        <v>-0.03862995338624353</v>
+        <v>-0.03904894743874188</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.705408550224487</v>
+        <v>-2.703329135003279</v>
       </c>
       <c r="G97">
-        <v>-0.03934095040084706</v>
+        <v>-0.03811145238242597</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.713007329944705</v>
+        <v>-2.71236919790849</v>
       </c>
       <c r="G98">
-        <v>-0.04275375320750419</v>
+        <v>-0.04211562117129297</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.719037469200687</v>
+        <v>-2.71546017632902</v>
       </c>
       <c r="G99">
-        <v>-0.04247165589723778</v>
+        <v>-0.04017070547547874</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.723453888325441</v>
+        <v>-2.721341899015599</v>
       </c>
       <c r="G100">
-        <v>-0.04286894862619128</v>
+        <v>-0.04101653404571337</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730066569312608</v>
+        <v>-2.727172226512638</v>
       </c>
       <c r="G101">
-        <v>-0.04303494879383374</v>
+        <v>-0.04181096742640866</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.736264635203753</v>
+        <v>-2.73442867490709</v>
       </c>
       <c r="G102">
-        <v>-0.04486252922332046</v>
+        <v>-0.04403152170451685</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.742275230070308</v>
+        <v>-2.741748866833105</v>
       </c>
       <c r="G103">
-        <v>-0.04684218275138807</v>
+        <v>-0.04631581951418795</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.747690302806542</v>
+        <v>-2.74708332937836</v>
       </c>
       <c r="G104">
-        <v>-0.04722136137127797</v>
+        <v>-0.04661438794309825</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.754674052624512</v>
+        <v>-2.75326367772259</v>
       </c>
       <c r="G105">
-        <v>-0.04775979645407857</v>
+        <v>-0.04775884217098492</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.761076619042738</v>
+        <v>-2.758413595658383</v>
       </c>
       <c r="G106">
-        <v>-0.04950156552124074</v>
+        <v>-0.0478728659904335</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.765979256833222</v>
+        <v>-2.765514715490623</v>
       </c>
       <c r="G107">
-        <v>-0.0498835168041738</v>
+        <v>-0.0499380917063299</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.771493157889213</v>
+        <v>-2.770536626843138</v>
       </c>
       <c r="G108">
-        <v>-0.0506165652118149</v>
+        <v>-0.04992410894250066</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.778166793098643</v>
+        <v>-2.776464778325225</v>
       </c>
       <c r="G109">
-        <v>-0.05202602381281474</v>
+        <v>-0.05081636630824438</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.783345923216076</v>
+        <v>-2.780120304973593</v>
       </c>
       <c r="G110">
-        <v>-0.05129963460456755</v>
+        <v>-0.04943599884026795</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.791155231067776</v>
+        <v>-2.788399590217264</v>
       </c>
       <c r="G111">
-        <v>-0.0524554582604726</v>
+        <v>-0.05267938996759525</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.794725537535722</v>
+        <v>-2.795157261434063</v>
       </c>
       <c r="G112">
-        <v>-0.05282232563389866</v>
+        <v>-0.0544011670680502</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.801664888168225</v>
+        <v>-2.800061480597464</v>
       </c>
       <c r="G113">
-        <v>-0.05453599966383993</v>
+        <v>-0.05426949211510657</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.807200322582795</v>
+        <v>-2.805374044502394</v>
       </c>
       <c r="G114">
-        <v>-0.05354223718951245</v>
+        <v>-0.05454616190369288</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.813661753011855</v>
+        <v>-2.81241053841341</v>
       </c>
       <c r="G115">
-        <v>-0.05439234486774969</v>
+        <v>-0.05654676169836437</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.819887794858517</v>
+        <v>-2.817512364526467</v>
       </c>
       <c r="G116">
-        <v>-0.05610985296321092</v>
+        <v>-0.05661269369507727</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823601958642095</v>
+        <v>-2.823906227199774</v>
       </c>
       <c r="G117">
-        <v>-0.05711990974874115</v>
+        <v>-0.05797066225204062</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.831079747416396</v>
+        <v>-2.828976329764801</v>
       </c>
       <c r="G118">
-        <v>-0.05837546515160086</v>
+        <v>-0.05800487070072369</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.835823304247112</v>
+        <v>-2.832538933957353</v>
       </c>
       <c r="G119">
-        <v>-0.05916873871524442</v>
+        <v>-0.05653158077693177</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.841386180245533</v>
+        <v>-2.838638041891356</v>
       </c>
       <c r="G120">
-        <v>-0.06024844077767466</v>
+        <v>-0.05759479459459071</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.84709862659918</v>
+        <v>-2.84705013450811</v>
       </c>
       <c r="G121">
-        <v>-0.05914482172209645</v>
+        <v>-0.0609709930950002</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.852734497279655</v>
+        <v>-2.852479367856354</v>
       </c>
       <c r="G122">
-        <v>-0.06078543719371843</v>
+        <v>-0.06136433232690086</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.8592127087438</v>
+        <v>-2.85535414974745</v>
       </c>
       <c r="G123">
-        <v>-0.06009632350402172</v>
+        <v>-0.05920322010165258</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.864093064888824</v>
+        <v>-2.861001399259122</v>
       </c>
       <c r="G124">
-        <v>-0.06290624112668008</v>
+        <v>-0.05981457549698055</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.86920704373057</v>
+        <v>-2.86760652185438</v>
       </c>
       <c r="G125">
-        <v>-0.06210195149261666</v>
+        <v>-0.06138380397589427</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.875616890487712</v>
+        <v>-2.873587295433671</v>
       </c>
       <c r="G126">
-        <v>-0.0605705807198722</v>
+        <v>-0.06232868343884124</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.881050343153411</v>
+        <v>-2.878833226682787</v>
       </c>
       <c r="G127">
-        <v>-0.06430317451357404</v>
+        <v>-0.06253872057161325</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.886174593159489</v>
+        <v>-2.885654616864878</v>
       </c>
       <c r="G128">
-        <v>-0.06484419293196986</v>
+        <v>-0.06432421663735988</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.892166145998838</v>
+        <v>-2.890667546518509</v>
       </c>
       <c r="G129">
-        <v>-0.06268081959254301</v>
+        <v>-0.06430125217464711</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.896977335070542</v>
+        <v>-2.894468214147051</v>
       </c>
       <c r="G130">
-        <v>-0.06457792994654632</v>
+        <v>-0.06306602568684583</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.902061962993594</v>
+        <v>-2.901889011968561</v>
       </c>
       <c r="G131">
-        <v>-0.06562388041704326</v>
+        <v>-0.06545092939201069</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.908062400848986</v>
+        <v>-2.905392128568187</v>
       </c>
       <c r="G132">
-        <v>-0.06361591747986961</v>
+        <v>-0.06391815187529315</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.912909058439328</v>
+        <v>-2.91198864190489</v>
       </c>
       <c r="G133">
-        <v>-0.06311462637409115</v>
+        <v>-0.06547877109565259</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.918316212078899</v>
+        <v>-2.917826940556086</v>
       </c>
       <c r="G134">
-        <v>-0.06535879384586996</v>
+        <v>-0.06628117563050395</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.923501697542083</v>
+        <v>-2.923640965944715</v>
       </c>
       <c r="G135">
-        <v>-0.06547680518331833</v>
+        <v>-0.06705930690278916</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.92883215017104</v>
+        <v>-2.927888449983945</v>
       </c>
       <c r="G136">
-        <v>-0.06689665600433936</v>
+        <v>-0.06627089682567555</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.934403562348285</v>
+        <v>-2.931296003439798</v>
       </c>
       <c r="G137">
-        <v>-0.0664239644752378</v>
+        <v>-0.06464255616518422</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.941144093121174</v>
+        <v>-2.937636115712076</v>
       </c>
       <c r="G138">
-        <v>-0.06823566361931643</v>
+        <v>-0.06594677432111862</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.944013809785544</v>
+        <v>-2.944444168449988</v>
       </c>
       <c r="G139">
-        <v>-0.06528632303865711</v>
+        <v>-0.06771893294268683</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.950935839134099</v>
+        <v>-2.948600573706654</v>
       </c>
       <c r="G140">
-        <v>-0.06585783422186564</v>
+        <v>-0.06683944408300801</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.955208749891553</v>
+        <v>-2.95485263939826</v>
       </c>
       <c r="G141">
-        <v>-0.06628456994031273</v>
+        <v>-0.06805561565827012</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.960832108407634</v>
+        <v>-2.957614041027795</v>
       </c>
       <c r="G142">
-        <v>-0.06573617348316763</v>
+        <v>-0.06578112317146156</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.96555153832881</v>
+        <v>-2.96277022584239</v>
       </c>
       <c r="G143">
-        <v>-0.06663954006091544</v>
+        <v>-0.06590141386971204</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.9700042532108</v>
+        <v>-2.969097382395602</v>
       </c>
       <c r="G144">
-        <v>-0.06717164043791568</v>
+        <v>-0.06719267630657955</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.976523644509098</v>
+        <v>-2.974714411491609</v>
       </c>
       <c r="G145">
-        <v>-0.06712470198934772</v>
+        <v>-0.06777381128624294</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.982057273291296</v>
+        <v>-2.979778105553086</v>
       </c>
       <c r="G146">
-        <v>-0.06850028606949676</v>
+        <v>-0.0678016112313764</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.986012406295046</v>
+        <v>-2.984594971531763</v>
       </c>
       <c r="G147">
-        <v>-0.06774300045448944</v>
+        <v>-0.06758258309370868</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.991151431373146</v>
+        <v>-2.988234240857292</v>
       </c>
       <c r="G148">
-        <v>-0.06910314881874768</v>
+        <v>-0.06618595830289431</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.995442077254687</v>
+        <v>-2.994009086021631</v>
       </c>
       <c r="G149">
-        <v>-0.06742666189090407</v>
+        <v>-0.06692490935088924</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.000425409749742</v>
+        <v>-2.998953667426068</v>
       </c>
       <c r="G150">
-        <v>-0.0679730698167742</v>
+        <v>-0.06683359663898147</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.005339616571565</v>
+        <v>-3.003229621264929</v>
       </c>
       <c r="G151">
-        <v>-0.06696633782266148</v>
+        <v>-0.06607365636149898</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.009983967284647</v>
+        <v>-3.009886398324952</v>
       </c>
       <c r="G152">
-        <v>-0.06604290584014705</v>
+        <v>-0.06769453930517733</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.015348029193351</v>
+        <v>-3.013926285646146</v>
       </c>
       <c r="G153">
-        <v>-0.06740086013962032</v>
+        <v>-0.06669853251002755</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.020416020280791</v>
+        <v>-3.019690476178463</v>
       </c>
       <c r="G154">
-        <v>-0.06639302934600511</v>
+        <v>-0.06742682892600071</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.025063701713178</v>
+        <v>-3.022721835806566</v>
       </c>
       <c r="G155">
-        <v>-0.06521368326077392</v>
+        <v>-0.06542229443775982</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.030799186057815</v>
+        <v>-3.027012263317086</v>
       </c>
       <c r="G156">
-        <v>-0.0664565348027244</v>
+        <v>-0.0646768278319354</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.034606322826542</v>
+        <v>-3.033494150488635</v>
       </c>
       <c r="G157">
-        <v>-0.06723499322504822</v>
+        <v>-0.06612282088714139</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.03955651642158</v>
+        <v>-3.038921194393627</v>
       </c>
       <c r="G158">
-        <v>-0.06414990235529028</v>
+        <v>-0.0665139706757889</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.045024792233661</v>
+        <v>-3.041368148026009</v>
       </c>
       <c r="G159">
-        <v>-0.06758167439947926</v>
+        <v>-0.06392503019182683</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.048954157766443</v>
+        <v>-3.046118604642523</v>
       </c>
       <c r="G160">
-        <v>-0.06319945235694524</v>
+        <v>-0.06363959269199659</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.052574132656519</v>
+        <v>-3.051721944452217</v>
       </c>
       <c r="G161">
-        <v>-0.06258462361848727</v>
+        <v>-0.06420703838534636</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.059482982192928</v>
+        <v>-3.055850146685028</v>
       </c>
       <c r="G162">
-        <v>-0.0635003773273014</v>
+        <v>-0.06329934650181324</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.062879015675206</v>
+        <v>-3.062467397710344</v>
       </c>
       <c r="G163">
-        <v>-0.06472788872036028</v>
+        <v>-0.06488070341078622</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.06741882861859</v>
+        <v>-3.066460708844561</v>
       </c>
       <c r="G164">
-        <v>-0.06318051076901077</v>
+        <v>-0.06383812042865811</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.072339954365348</v>
+        <v>-3.070747544736221</v>
       </c>
       <c r="G165">
-        <v>-0.06468147183310202</v>
+        <v>-0.06308906220397503</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.076599339955835</v>
+        <v>-3.074381170328739</v>
       </c>
       <c r="G166">
-        <v>-0.06078945427849947</v>
+        <v>-0.06168679368014929</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.08079306762337</v>
+        <v>-3.079708273516284</v>
       </c>
       <c r="G167">
-        <v>-0.06177231283593732</v>
+        <v>-0.06197800275134913</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.086210313005277</v>
+        <v>-3.083418064257633</v>
       </c>
       <c r="G168">
-        <v>-0.06259234620891985</v>
+        <v>-0.0606518993763554</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.090755329619352</v>
+        <v>-3.087051415932541</v>
       </c>
       <c r="G169">
-        <v>-0.06164011306227557</v>
+        <v>-0.05924935693491873</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.09541478286509</v>
+        <v>-3.092524094445389</v>
       </c>
       <c r="G170">
-        <v>-0.06030615160483777</v>
+        <v>-0.05968614133142269</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.099319758308169</v>
+        <v>-3.098504171061841</v>
       </c>
       <c r="G171">
-        <v>-0.05957749693314685</v>
+        <v>-0.06063032383153044</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.104411061220887</v>
+        <v>-3.099110157090988</v>
       </c>
       <c r="G172">
-        <v>-0.05890528494943581</v>
+        <v>-0.05620041574433354</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.108216530784265</v>
+        <v>-3.106207586596736</v>
       </c>
       <c r="G173">
-        <v>-0.05769176493308348</v>
+        <v>-0.05826195113373756</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.112076043615993</v>
+        <v>-3.110695750175132</v>
       </c>
       <c r="G174">
-        <v>-0.05754815652940726</v>
+        <v>-0.05771422059578923</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.117117679699107</v>
+        <v>-3.11265957069245</v>
       </c>
       <c r="G175">
-        <v>-0.05910025600342206</v>
+        <v>-0.0546421469967634</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.121953811437153</v>
+        <v>-3.120059264592225</v>
       </c>
       <c r="G176">
-        <v>-0.05890049362512462</v>
+        <v>-0.05700594678019499</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.124655965862926</v>
+        <v>-3.123119753375629</v>
       </c>
       <c r="G177">
-        <v>-0.05656675393455357</v>
+        <v>-0.05503054144725428</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.129546504520194</v>
+        <v>-3.128884790224527</v>
       </c>
       <c r="G178">
-        <v>-0.05483721534149244</v>
+        <v>-0.05575968417980881</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.134351362614454</v>
+        <v>-3.132358820267339</v>
       </c>
       <c r="G179">
-        <v>-0.05335267444082081</v>
+        <v>-0.05419782010627705</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.137942902934263</v>
+        <v>-3.137443318880831</v>
       </c>
       <c r="G180">
-        <v>-0.05417061394621847</v>
+        <v>-0.05424642460342466</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.142757013024269</v>
+        <v>-3.140756823093829</v>
       </c>
       <c r="G181">
-        <v>-0.0531643506291325</v>
+        <v>-0.05252403470007838</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.146944500819743</v>
+        <v>-3.145980646457931</v>
       </c>
       <c r="G182">
-        <v>-0.05137691652291798</v>
+        <v>-0.05271196394783628</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.150057229220582</v>
+        <v>-3.148685476834273</v>
       </c>
       <c r="G183">
-        <v>-0.04830714084723597</v>
+        <v>-0.05038090020783503</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.154809850094015</v>
+        <v>-3.151342989340305</v>
       </c>
       <c r="G184">
-        <v>-0.05039218603285556</v>
+        <v>-0.04800251859752269</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.158422704931644</v>
+        <v>-3.157249294426823</v>
       </c>
       <c r="G185">
-        <v>-0.04930103140751052</v>
+        <v>-0.04887292956769662</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.163259180437006</v>
+        <v>-3.162802937143749</v>
       </c>
       <c r="G186">
-        <v>-0.04792061383654611</v>
+        <v>-0.04939067816827869</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.166952189025364</v>
+        <v>-3.164991256859218</v>
       </c>
       <c r="G187">
-        <v>-0.04683058537160079</v>
+        <v>-0.04654310376740345</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.170735299492177</v>
+        <v>-3.167553446013544</v>
       </c>
       <c r="G188">
-        <v>-0.04556301783159888</v>
+        <v>-0.04406939880538541</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.175195436587968</v>
+        <v>-3.173041187324559</v>
       </c>
       <c r="G189">
-        <v>-0.04502648601232395</v>
+        <v>-0.04452124600005636</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.179976161113977</v>
+        <v>-3.178395936923247</v>
       </c>
       <c r="G190">
-        <v>-0.04395280424886217</v>
+        <v>-0.04484010148240014</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.183199795994115</v>
+        <v>-3.181565292847346</v>
       </c>
       <c r="G191">
-        <v>-0.04431234910513887</v>
+        <v>-0.04297356329015517</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.186695220999804</v>
+        <v>-3.185309891280312</v>
       </c>
       <c r="G192">
-        <v>-0.04238916172058044</v>
+        <v>-0.04168226760677696</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.19097381069816</v>
+        <v>-3.188709349670376</v>
       </c>
       <c r="G193">
-        <v>-0.04033497161545985</v>
+        <v>-0.04004583188049676</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.194647084072461</v>
+        <v>-3.191979202547706</v>
       </c>
       <c r="G194">
-        <v>-0.04048235394184091</v>
+        <v>-0.03827979064148346</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.197868812998283</v>
+        <v>-3.19653110633568</v>
       </c>
       <c r="G195">
-        <v>-0.0385531611848427</v>
+        <v>-0.03779580031311314</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.201323828732832</v>
+        <v>-3.199493280044088</v>
       </c>
       <c r="G196">
-        <v>-0.0366908125209664</v>
+        <v>-0.03572207990517756</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.205807865781132</v>
+        <v>-3.204901325634967</v>
       </c>
       <c r="G197">
-        <v>-0.03388136783089613</v>
+        <v>-0.03609423137971218</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.20899904035544</v>
+        <v>-3.208706636678056</v>
       </c>
       <c r="G198">
-        <v>-0.03506417600823741</v>
+        <v>-0.03486364830645772</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.212938992617377</v>
+        <v>-3.2136523877248</v>
       </c>
       <c r="G199">
-        <v>-0.03344836689124936</v>
+        <v>-0.03477350523685752</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.217861917603543</v>
+        <v>-3.215232075962943</v>
       </c>
       <c r="G200">
-        <v>-0.03264282115458733</v>
+        <v>-0.03131729935865663</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.221739844688217</v>
+        <v>-3.221747069534168</v>
       </c>
       <c r="G201">
-        <v>-0.0312912462203232</v>
+        <v>-0.03279639881353691</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.224828682623392</v>
+        <v>-3.222744998492633</v>
       </c>
       <c r="G202">
-        <v>-0.02867161517775124</v>
+        <v>-0.02875843365565778</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.228599617602548</v>
+        <v>-3.2284048231278</v>
       </c>
       <c r="G203">
-        <v>-0.02878886944701037</v>
+        <v>-0.02938236417448131</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.231512870871587</v>
+        <v>-3.23190342481209</v>
       </c>
       <c r="G204">
-        <v>-0.02602266354051486</v>
+        <v>-0.02784507174242745</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.236639325749034</v>
+        <v>-3.234779782552937</v>
       </c>
       <c r="G205">
-        <v>-0.02492430947048149</v>
+        <v>-0.02568553536693</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.240170930485071</v>
+        <v>-3.237397639308404</v>
       </c>
       <c r="G206">
-        <v>-0.02427890049990783</v>
+        <v>-0.02326749800605263</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.243689116698892</v>
+        <v>-3.241081536896742</v>
       </c>
       <c r="G207">
-        <v>-0.02244984210796933</v>
+        <v>-0.02191550147804766</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.246809879674016</v>
+        <v>-3.245852057347526</v>
       </c>
       <c r="G208">
-        <v>-0.0216421995727476</v>
+        <v>-0.02165012781248737</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.250526449836825</v>
+        <v>-3.248082740752708</v>
       </c>
       <c r="G209">
-        <v>-0.02041980312474595</v>
+        <v>-0.01884491710132483</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.253967040895849</v>
+        <v>-3.253098217835149</v>
       </c>
       <c r="G210">
-        <v>-0.01810010629055583</v>
+        <v>-0.0188245000674219</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.256814787997958</v>
+        <v>-3.256221944041042</v>
       </c>
       <c r="G211">
-        <v>-0.01618793838010568</v>
+        <v>-0.01691233215697124</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.259662535100067</v>
+        <v>-3.258938141323194</v>
       </c>
       <c r="G212">
-        <v>-0.01411124854747615</v>
+        <v>-0.01459263532277903</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5294,7 +5294,7 @@
         <v>-3.262510282202175</v>
       </c>
       <c r="G213">
-        <v>-0.01240448830855077</v>
+        <v>-0.01312888208541627</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>-3.265358029304284</v>
       </c>
       <c r="G214">
-        <v>-0.01094073507118537</v>
+        <v>-0.01094073507118111</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.268205776406394</v>
+        <v>-3.268205776406393</v>
       </c>
       <c r="G215">
-        <v>-0.008752588056951144</v>
+        <v>-0.008752588056946398</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-3.271053523508503</v>
       </c>
       <c r="G216">
-        <v>-0.006564441042716022</v>
+        <v>-0.006564441042711686</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.273901270610612</v>
       </c>
       <c r="G217">
-        <v>-0.004376294028480901</v>
+        <v>-0.004376294028476529</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.276749017712717</v>
       </c>
       <c r="G218">
-        <v>-0.002188147014242227</v>
+        <v>-0.002188147014237821</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.279596764814823</v>
       </c>
       <c r="G219">
-        <v>-4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-2.631196380133147</v>
       </c>
       <c r="G220">
-        <v>-1.77635683940025e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.731972433853234</v>
+        <v>-2.731456718506644</v>
       </c>
       <c r="G221">
-        <v>-0.0263041469597125</v>
+        <v>-0.02578843161311051</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827612903228113</v>
+        <v>-2.826254513181702</v>
       </c>
       <c r="G222">
-        <v>-0.04471816874925771</v>
+        <v>-0.04363192263576954</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.918454755362013</v>
+        <v>-2.916088138156867</v>
       </c>
       <c r="G223">
-        <v>-0.05887786116368043</v>
+        <v>-0.05651124395853557</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.002964187817497</v>
+        <v>-3.001573393326426</v>
       </c>
       <c r="G224">
-        <v>-0.06436687984845135</v>
+        <v>-0.06504219547569612</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.082759192201372</v>
+        <v>-3.082070285057197</v>
       </c>
       <c r="G225">
-        <v>-0.06584126804800361</v>
+        <v>-0.06858478355406805</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.157818572476866</v>
+        <v>-3.15637583041538</v>
       </c>
       <c r="G226">
-        <v>-0.06472657528897496</v>
+        <v>-0.06593602525985154</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.226290460952506</v>
+        <v>-3.225129274315716</v>
       </c>
       <c r="G227">
-        <v>-0.05889635214455213</v>
+        <v>-0.05773516550778812</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.288918451112358</v>
+        <v>-3.289035350183279</v>
       </c>
       <c r="G228">
-        <v>-0.04435738485237894</v>
+        <v>-0.04468693772295207</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.347234244117862</v>
+        <v>-3.346976676268064</v>
       </c>
       <c r="G229">
-        <v>-0.02452909186368024</v>
+        <v>-0.02567396015533885</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.398257019765125</v>
       </c>
       <c r="G230">
-        <v>4.529709940470639e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-2.689721342252327</v>
       </c>
       <c r="G231">
-        <v>7.682743330406083e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794019383523477</v>
+        <v>-2.793207808530402</v>
       </c>
       <c r="G232">
-        <v>-0.02519562002886611</v>
+        <v>-0.02521402309674592</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.891955724271923</v>
+        <v>-2.889322673011459</v>
       </c>
       <c r="G233">
-        <v>-0.04523560542262439</v>
+        <v>-0.04305644439647516</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.983746302193096</v>
+        <v>-2.981556386388953</v>
       </c>
       <c r="G234">
-        <v>-0.05920763039684052</v>
+        <v>-0.05701771459264005</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069404299669576</v>
+        <v>-3.069241431368999</v>
       </c>
       <c r="G235">
-        <v>-0.06570166380974518</v>
+        <v>-0.06643031639135688</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.149740919717072</v>
+        <v>-3.149458697811158</v>
       </c>
       <c r="G236">
-        <v>-0.06801042888989284</v>
+        <v>-0.06837513965218722</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.225786887941497</v>
+        <v>-3.224043735015975</v>
       </c>
       <c r="G237">
-        <v>-0.06524293213508248</v>
+        <v>-0.06468773367567615</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.295980745588373</v>
+        <v>-3.294566745035298</v>
       </c>
       <c r="G238">
-        <v>-0.05835230106698153</v>
+        <v>-0.05693830051367088</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.360970031860614</v>
+        <v>-3.359835870962689</v>
       </c>
       <c r="G239">
-        <v>-0.04476983249959998</v>
+        <v>-0.043934983259732</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.419995495763846</v>
+        <v>-3.419435343837202</v>
       </c>
       <c r="G240">
-        <v>-0.02560892099036965</v>
+        <v>-0.02526201295291675</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.47384349626528</v>
       </c>
       <c r="G241">
-        <v>-3.708144902248023e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-2.730186417221104</v>
       </c>
       <c r="G242">
-        <v>-2.442490654175344e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.835651834024163</v>
+        <v>-2.834844497784831</v>
       </c>
       <c r="G243">
-        <v>-0.02613223674155885</v>
+        <v>-0.0253249005021603</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.934885535066412</v>
+        <v>-2.931630617571627</v>
       </c>
       <c r="G244">
-        <v>-0.04556047169291499</v>
+        <v>-0.04277784022738862</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.026915033446114</v>
+        <v>-3.025002630873709</v>
       </c>
       <c r="G245">
-        <v>-0.0586279728362733</v>
+        <v>-0.05681667346790231</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.1141370882414</v>
+        <v>-3.114312888736589</v>
       </c>
       <c r="G246">
-        <v>-0.06540373717839798</v>
+        <v>-0.06593143409463353</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.197370157388343</v>
+        <v>-3.196046174778101</v>
       </c>
       <c r="G247">
-        <v>-0.06798454557614164</v>
+        <v>-0.06833154007457831</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.273623045215301</v>
+        <v>-3.27154751039525</v>
       </c>
       <c r="G248">
-        <v>-0.06528402099255004</v>
+        <v>-0.06449969563015978</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.344816291001537</v>
+        <v>-3.344276752618937</v>
       </c>
       <c r="G249">
-        <v>-0.05691300944307454</v>
+        <v>-0.05703344061769733</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.410835871652484</v>
+        <v>-3.409951121872572</v>
       </c>
       <c r="G250">
-        <v>-0.04283948153420702</v>
+        <v>-0.0433746298097657</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.471403519198373</v>
+        <v>-3.470605484396537</v>
       </c>
       <c r="G251">
-        <v>-0.02492641595001427</v>
+        <v>-0.02469581227216261</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.526105169360524</v>
       </c>
       <c r="G252">
-        <v>-4.560796185160143e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-2.75980554892974</v>
       </c>
       <c r="G253">
-        <v>-9.992007221626409e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.865655458859778</v>
+        <v>-2.864152185712789</v>
       </c>
       <c r="G254">
-        <v>-0.02534092139391753</v>
+        <v>-0.02417558309357482</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.966509689959533</v>
+        <v>-2.964166754932609</v>
       </c>
       <c r="G255">
-        <v>-0.04579344461772816</v>
+        <v>-0.04345050959066121</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.059754910708364</v>
+        <v>-3.056749789970032</v>
       </c>
       <c r="G256">
-        <v>-0.05886761167710519</v>
+        <v>-0.05586249093860918</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.14784228407112</v>
+        <v>-3.146573940343639</v>
       </c>
       <c r="G257">
-        <v>-0.06621534231714987</v>
+        <v>-0.06494699858948394</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.229580006990834</v>
+        <v>-3.229112169140764</v>
       </c>
       <c r="G258">
-        <v>-0.06738318208214666</v>
+        <v>-0.06731417369713366</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.3080783554396</v>
+        <v>-3.308199029402467</v>
       </c>
       <c r="G259">
-        <v>-0.06481173893260439</v>
+        <v>-0.06566139123610326</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.379761561964182</v>
+        <v>-3.379544286577301</v>
       </c>
       <c r="G260">
-        <v>-0.05645440751438702</v>
+        <v>-0.05683559472146327</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.447262209066148</v>
+        <v>-3.446764188813006</v>
       </c>
       <c r="G261">
-        <v>-0.043556172986424</v>
+        <v>-0.04331585423443407</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508374771565195</v>
+        <v>-3.508041400497357</v>
       </c>
       <c r="G262">
-        <v>-0.02471430157067073</v>
+        <v>-0.02442201222931162</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.564359030990779</v>
       </c>
       <c r="G263">
-        <v>-3.130828929442941e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-2.782412269774368</v>
       </c>
       <c r="G264">
-        <v>-4.560796185160143e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.888812297673966</v>
+        <v>-2.887237664363612</v>
       </c>
       <c r="G265">
-        <v>-0.02556166972479756</v>
+        <v>-0.02398703641398958</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.989551469347872</v>
+        <v>-2.987364033333085</v>
       </c>
       <c r="G266">
-        <v>-0.04494258717877075</v>
+        <v>-0.04288071375369462</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.084046376832509</v>
+        <v>-3.081801776527018</v>
       </c>
       <c r="G267">
-        <v>-0.0580772571885384</v>
+        <v>-0.05608576531786058</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.172359103294478</v>
+        <v>-3.170914914368768</v>
       </c>
       <c r="G268">
-        <v>-0.06514654208139392</v>
+        <v>-0.06436054498435584</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.255028671606877</v>
+        <v>-3.25428220152016</v>
       </c>
       <c r="G269">
-        <v>-0.06694752757991962</v>
+        <v>-0.0664951405059806</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.333539303775941</v>
+        <v>-3.332906049728331</v>
       </c>
       <c r="G270">
-        <v>-0.06409103153023543</v>
+        <v>-0.06388629708438365</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.406419311709374</v>
+        <v>-3.406583963891081</v>
       </c>
       <c r="G271">
-        <v>-0.05602471012058752</v>
+        <v>-0.05672585307187961</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.474337475803458</v>
+        <v>-3.47408692679528</v>
       </c>
       <c r="G272">
-        <v>-0.04290002986476638</v>
+        <v>-0.04299612434631106</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.536740187889488</v>
+        <v>-3.536469200504182</v>
       </c>
       <c r="G273">
-        <v>-0.02407904956334816</v>
+        <v>-0.02414570642544578</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.593556185708505</v>
       </c>
       <c r="G274">
-        <v>-4.383160501220118e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-2.800227823166563</v>
       </c>
       <c r="G275">
-        <v>-5.240252676230739e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.906377208112949</v>
+        <v>-2.90532869807098</v>
       </c>
       <c r="G276">
-        <v>-0.02477170827623576</v>
+        <v>-0.02372319823375335</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.00803048452345</v>
+        <v>-3.005551721911675</v>
       </c>
       <c r="G277">
-        <v>-0.04470769965783727</v>
+        <v>-0.04228400807276733</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.103121129412384</v>
+        <v>-3.100073367820231</v>
       </c>
       <c r="G278">
-        <v>-0.05819120157229118</v>
+        <v>-0.05514343997964355</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.191539384047386</v>
+        <v>-3.189762362822428</v>
       </c>
       <c r="G279">
-        <v>-0.06494724220560344</v>
+        <v>-0.06317022098016034</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.274793454771128</v>
+        <v>-3.273685652224454</v>
       </c>
       <c r="G280">
-        <v>-0.06601964904771429</v>
+        <v>-0.06543129638050638</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.353789064287123</v>
+        <v>-3.353301664716045</v>
       </c>
       <c r="G281">
-        <v>-0.06301967447549606</v>
+        <v>-0.06338509487041666</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.427622602678039</v>
+        <v>-3.427160611866017</v>
       </c>
       <c r="G282">
-        <v>-0.05604381883118736</v>
+        <v>-0.05558182801870848</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.495889113176514</v>
+        <v>-3.495935961820713</v>
       </c>
       <c r="G283">
-        <v>-0.04252179143327672</v>
+        <v>-0.0426949639717249</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559161474647937</v>
+        <v>-3.559064121980552</v>
       </c>
       <c r="G284">
-        <v>-0.02360406342838045</v>
+        <v>-0.02416091012988314</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.616565425852349</v>
       </c>
       <c r="G285">
-        <v>-4.267697306659102e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-2.814626610422591</v>
       </c>
       <c r="G286">
-        <v>1.35091937636389e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921874221611867</v>
+        <v>-2.920130724623413</v>
       </c>
       <c r="G287">
-        <v>-0.02516412594051465</v>
+        <v>-0.02347178965968411</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022945271367506</v>
+        <v>-3.020685891797658</v>
       </c>
       <c r="G288">
-        <v>-0.04425401186129019</v>
+        <v>-0.04199463229279177</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.1180508441091</v>
+        <v>-3.115340231378456</v>
       </c>
       <c r="G289">
-        <v>-0.05732726006174738</v>
+        <v>-0.05461664733245142</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.2072441290943</v>
+        <v>-3.205200438324078</v>
       </c>
       <c r="G290">
-        <v>-0.06448822050581038</v>
+        <v>-0.06244452973693626</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.29062123799677</v>
+        <v>-3.289917261095581</v>
       </c>
       <c r="G291">
-        <v>-0.06583300486714339</v>
+        <v>-0.06512902796730136</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.37007473677615</v>
+        <v>-3.36936577317718</v>
       </c>
       <c r="G292">
-        <v>-0.06265271445608311</v>
+        <v>-0.0625452155077626</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.444054800013642</v>
+        <v>-3.443998203793135</v>
       </c>
       <c r="G293">
-        <v>-0.05473873655121542</v>
+        <v>-0.05514532158258012</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.513069007494543</v>
+        <v>-3.512806011462259</v>
       </c>
       <c r="G294">
-        <v>-0.04198968676299619</v>
+        <v>-0.04192080471056625</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.57685735983039</v>
+        <v>-3.576832090555379</v>
       </c>
       <c r="G295">
-        <v>-0.02358795444891654</v>
+        <v>-0.02391455926254932</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.635161825664823</v>
       </c>
       <c r="G296">
-        <v>1.343369859796439e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.446480141186285</v>
+        <v>-2.447059250983429</v>
       </c>
       <c r="G20">
         <v>-0.02057069832693648</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.478990764474892</v>
+        <v>-2.480621223142577</v>
       </c>
       <c r="G22">
         <v>-0.02789836403380663</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.511741041838538</v>
+        <v>-2.512640028047731</v>
       </c>
       <c r="G24">
         <v>-0.03546568381571502</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.525476606081376</v>
+        <v>-2.529036269148326</v>
       </c>
       <c r="G25">
         <v>-0.03660976926768433</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.542060798729253</v>
+        <v>-2.542529486825067</v>
       </c>
       <c r="G26">
         <v>-0.0406024831246925</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.556797858672184</v>
+        <v>-2.559440913602337</v>
       </c>
       <c r="G27">
         <v>-0.04274806427675482</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.5724032820366</v>
+        <v>-2.574678732427914</v>
       </c>
       <c r="G28">
         <v>-0.04576200885030146</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.58685596954418</v>
+        <v>-2.587522727258067</v>
       </c>
       <c r="G29">
         <v>-0.04762321756701327</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.616406587545687</v>
+        <v>-2.617916485921847</v>
       </c>
       <c r="G31">
         <v>-0.05199087798678215</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.659511253904228</v>
+        <v>-2.661899314538928</v>
       </c>
       <c r="G34">
         <v>-0.05732110797271739</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.673131409076586</v>
+        <v>-2.676484956009442</v>
       </c>
       <c r="G35">
         <v>-0.05834978435420624</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.687113402800267</v>
+        <v>-2.688630481531128</v>
       </c>
       <c r="G36">
         <v>-0.05974029928701885</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.701495236833672</v>
+        <v>-2.703958051224792</v>
       </c>
       <c r="G37">
         <v>-0.06153065452955531</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.714396036577388</v>
+        <v>-2.715787854529593</v>
       </c>
       <c r="G38">
         <v>-0.06183997548240172</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.729660025782046</v>
+        <v>-2.730070744999135</v>
       </c>
       <c r="G39">
         <v>-0.06451248589619119</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.741690867570331</v>
+        <v>-2.741987375772597</v>
       </c>
       <c r="G40">
         <v>-0.06395184889360772</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.755013614691941</v>
+        <v>-2.755252329834027</v>
       </c>
       <c r="G41">
         <v>-0.06468311722434916</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.767184733689153</v>
+        <v>-2.768811041385018</v>
       </c>
       <c r="G42">
         <v>-0.06426275743069176</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.792263409414463</v>
+        <v>-2.79459571463581</v>
       </c>
       <c r="G44">
         <v>-0.06415847557426502</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.805597480545673</v>
+        <v>-2.807289948542994</v>
       </c>
       <c r="G45">
         <v>-0.06490106791460604</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.81747599179668</v>
+        <v>-2.818942271946513</v>
       </c>
       <c r="G46">
         <v>-0.06418810037474398</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.829028303695925</v>
+        <v>-2.832100299801997</v>
       </c>
       <c r="G47">
         <v>-0.06314893348312078</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.853307528606194</v>
+        <v>-2.85425333645411</v>
       </c>
       <c r="G49">
         <v>-0.06224520081165175</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.864877474521637</v>
+        <v>-2.866074068067556</v>
       </c>
       <c r="G50">
         <v>-0.06122366793622602</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.877461888106129</v>
+        <v>-2.877596839899635</v>
       </c>
       <c r="G51">
         <v>-0.06121660272984963</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.898325917015328</v>
+        <v>-2.90023993236375</v>
       </c>
       <c r="G53">
         <v>-0.05689767405731117</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.92057180376062</v>
+        <v>-2.922068594488994</v>
       </c>
       <c r="G55">
         <v>-0.05396060322086482</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.930802312493951</v>
+        <v>-2.932148939821566</v>
       </c>
       <c r="G56">
         <v>-0.05159963316332727</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.940141097228807</v>
+        <v>-2.942460765906797</v>
       </c>
       <c r="G57">
         <v>-0.04834693910731458</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.951249931116066</v>
+        <v>-2.95274964484246</v>
       </c>
       <c r="G58">
         <v>-0.04686429420370541</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.961602088217873</v>
+        <v>-2.963591048886629</v>
       </c>
       <c r="G59">
         <v>-0.04462497251464281</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.981505677864511</v>
+        <v>-2.984356951417557</v>
       </c>
       <c r="G61">
         <v>-0.03934560457954367</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.992220713909597</v>
+        <v>-2.994029861785173</v>
       </c>
       <c r="G62">
         <v>-0.03746916183376114</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.001709647539708</v>
+        <v>-3.002844623212825</v>
       </c>
       <c r="G63">
         <v>-0.03436661667300378</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.010511399325702</v>
+        <v>-3.011659384640478</v>
       </c>
       <c r="G64">
         <v>-0.03057688966812788</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.020000332955812</v>
+        <v>-3.020474146068129</v>
       </c>
       <c r="G65">
         <v>-0.02747434450736957</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.028815094383465</v>
+        <v>-3.029288907495782</v>
       </c>
       <c r="G66">
         <v>-0.02369762714415408</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.582514140042564</v>
+        <v>-2.583267218808687</v>
       </c>
       <c r="G78">
         <v>-0.01297844563224793</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.589146793647927</v>
+        <v>-2.58967413522111</v>
       </c>
       <c r="G79">
         <v>-0.01457520512126642</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.59592221035336</v>
+        <v>-2.596461423314933</v>
       </c>
       <c r="G80">
         <v>-0.01631472771035503</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.602531676262483</v>
+        <v>-2.603315161307515</v>
       </c>
       <c r="G81">
         <v>-0.01788829950313398</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.60867645522452</v>
+        <v>-2.610020445528925</v>
       </c>
       <c r="G82">
         <v>-0.01899718434882702</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.622176414772963</v>
+        <v>-2.622424622361492</v>
       </c>
       <c r="G84">
         <v>-0.02242535566458148</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.635214116349913</v>
+        <v>-2.635998128192881</v>
       </c>
       <c r="G86">
         <v>-0.02539126900884403</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.641312232126523</v>
+        <v>-2.643775942694741</v>
       </c>
       <c r="G87">
         <v>-0.02645349066911074</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.647701345018598</v>
+        <v>-2.648807862726446</v>
       </c>
       <c r="G88">
         <v>-0.02780670944484109</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.660914538920259</v>
+        <v>-2.661807267029981</v>
       </c>
       <c r="G90">
         <v>-0.03094811511381401</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.666277272968073</v>
+        <v>-2.666737057639267</v>
       </c>
       <c r="G91">
         <v>-0.03127495504528444</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.672575618104663</v>
+        <v>-2.673868425261839</v>
       </c>
       <c r="G92">
         <v>-0.03253740606552968</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.686631456011062</v>
+        <v>-2.686814879718783</v>
       </c>
       <c r="G94">
         <v>-0.03652145573924059</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.703329135003279</v>
+        <v>-2.704903382250272</v>
       </c>
       <c r="G97">
         <v>-0.03811145238242597</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.71546017632902</v>
+        <v>-2.717872357335449</v>
       </c>
       <c r="G99">
         <v>-0.04017070547547874</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.721341899015599</v>
+        <v>-2.723619315247606</v>
       </c>
       <c r="G100">
         <v>-0.04101653404571337</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.727172226512638</v>
+        <v>-2.730638460047739</v>
       </c>
       <c r="G101">
         <v>-0.04181096742640866</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.73442867490709</v>
+        <v>-2.735086280955219</v>
       </c>
       <c r="G102">
         <v>-0.04403152170451685</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.75326367772259</v>
+        <v>-2.75367153258764</v>
       </c>
       <c r="G105">
         <v>-0.04775884217098492</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.758413595658383</v>
+        <v>-2.760341799682231</v>
       </c>
       <c r="G106">
         <v>-0.0478728659904335</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.765514715490623</v>
+        <v>-2.765851465550798</v>
       </c>
       <c r="G107">
         <v>-0.0499380917063299</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.770536626843138</v>
+        <v>-2.772935000389651</v>
       </c>
       <c r="G108">
         <v>-0.04992410894250066</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.776464778325225</v>
+        <v>-2.777279827170495</v>
       </c>
       <c r="G109">
         <v>-0.05081636630824438</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.780120304973593</v>
+        <v>-2.78332186419509</v>
       </c>
       <c r="G110">
         <v>-0.04943599884026795</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.788399590217264</v>
+        <v>-2.789888593027233</v>
       </c>
       <c r="G111">
         <v>-0.05267938996759525</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.795157261434063</v>
+        <v>-2.795364871613568</v>
       </c>
       <c r="G112">
         <v>-0.0544011670680502</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.800061480597464</v>
+        <v>-2.801280030802533</v>
       </c>
       <c r="G113">
         <v>-0.05426949211510657</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.805374044502394</v>
+        <v>-2.806786750504227</v>
       </c>
       <c r="G114">
         <v>-0.05454616190369288</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.828976329764801</v>
+        <v>-2.828991172186337</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.832538933957353</v>
+        <v>-2.835471383944628</v>
       </c>
       <c r="G119">
         <v>-0.05653158077693177</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.838638041891356</v>
+        <v>-2.841394587191919</v>
       </c>
       <c r="G120">
         <v>-0.05759479459459071</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.852479367856354</v>
+        <v>-2.852809313378922</v>
       </c>
       <c r="G122">
         <v>-0.06136433232690086</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.85535414974745</v>
+        <v>-2.858074344866958</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.861001399259122</v>
+        <v>-2.862861256311493</v>
       </c>
       <c r="G124">
         <v>-0.05981457549698055</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.86760652185438</v>
+        <v>-2.869321517186286</v>
       </c>
       <c r="G125">
         <v>-0.06138380397589427</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.873587295433671</v>
+        <v>-2.873787123229308</v>
       </c>
       <c r="G126">
         <v>-0.06232868343884124</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.878833226682787</v>
+        <v>-2.879791625903398</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.894468214147051</v>
+        <v>-2.897495395175365</v>
       </c>
       <c r="G130">
         <v>-0.06306602568684583</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.905392128568187</v>
+        <v>-2.905938261106093</v>
       </c>
       <c r="G132">
         <v>-0.06391815187529315</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.927888449983945</v>
+        <v>-2.928727059966479</v>
       </c>
       <c r="G136">
         <v>-0.06627089682567555</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.931296003439798</v>
+        <v>-2.933485804043593</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.937636115712076</v>
+        <v>-2.939072421256427</v>
       </c>
       <c r="G138">
         <v>-0.06594677432111862</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.957614041027795</v>
+        <v>-2.959012405224682</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.96277022584239</v>
+        <v>-2.964672420112259</v>
       </c>
       <c r="G143">
         <v>-0.06590141386971204</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.969097382395602</v>
+        <v>-2.970159665896773</v>
       </c>
       <c r="G144">
         <v>-0.06719267630657955</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.974714411491609</v>
+        <v>-2.975300193968001</v>
       </c>
       <c r="G145">
         <v>-0.06777381128624294</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.979778105553086</v>
+        <v>-2.980398430309533</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.984594971531763</v>
+        <v>-2.986074974987577</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.988234240857292</v>
+        <v>-2.990266089744258</v>
       </c>
       <c r="G148">
         <v>-0.06618595830289431</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.998953667426068</v>
+        <v>-3.00004299280408</v>
       </c>
       <c r="G150">
         <v>-0.06683359663898147</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.003229621264929</v>
+        <v>-3.004809788988715</v>
       </c>
       <c r="G151">
         <v>-0.06607365636149898</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.013926285646146</v>
+        <v>-3.014007065776837</v>
       </c>
       <c r="G153">
         <v>-0.06669853251002755</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.019690476178463</v>
+        <v>-3.019816877807591</v>
       </c>
       <c r="G154">
         <v>-0.06742682892600071</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.022721835806566</v>
+        <v>-3.024300268454527</v>
       </c>
       <c r="G155">
         <v>-0.06542229443775982</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.027012263317086</v>
+        <v>-3.029392266178177</v>
       </c>
       <c r="G156">
         <v>-0.0646768278319354</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.033494150488635</v>
+        <v>-3.03454471886794</v>
       </c>
       <c r="G157">
         <v>-0.06612282088714139</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.038921194393627</v>
+        <v>-3.040018495425774</v>
       </c>
       <c r="G158">
         <v>-0.0665139706757889</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.041368148026009</v>
+        <v>-3.042784945362435</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.046118604642523</v>
+        <v>-3.048294178547453</v>
       </c>
       <c r="G160">
         <v>-0.06363959269199659</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.051721944452217</v>
+        <v>-3.052439921856876</v>
       </c>
       <c r="G161">
         <v>-0.06420703838534636</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.055850146685028</v>
+        <v>-3.058694008507461</v>
       </c>
       <c r="G162">
         <v>-0.06329934650181324</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.062467397710344</v>
+        <v>-3.062893400608167</v>
       </c>
       <c r="G163">
         <v>-0.06488070341078622</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.070747544736221</v>
+        <v>-3.071507296736984</v>
       </c>
       <c r="G165">
         <v>-0.06308906220397503</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.074381170328739</v>
+        <v>-3.075355836528174</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.083418064257633</v>
+        <v>-3.084335485633709</v>
       </c>
       <c r="G168">
         <v>-0.0606518993763554</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.087051415932541</v>
+        <v>-3.08817618979731</v>
       </c>
       <c r="G169">
         <v>-0.05924935693491873</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.092524094445389</v>
+        <v>-3.096014038275145</v>
       </c>
       <c r="G170">
         <v>-0.05968614133142269</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.099110157090988</v>
+        <v>-3.102110418282928</v>
       </c>
       <c r="G172">
         <v>-0.05620041574433354</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.110695750175132</v>
+        <v>-3.112065322668175</v>
       </c>
       <c r="G174">
         <v>-0.05771422059578923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.11265957069245</v>
+        <v>-3.115623629695337</v>
       </c>
       <c r="G175">
         <v>-0.0546421469967634</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.120059264592225</v>
+        <v>-3.120531776151132</v>
       </c>
       <c r="G176">
         <v>-0.05700594678019499</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.123119753375629</v>
+        <v>-3.124194863585673</v>
       </c>
       <c r="G177">
         <v>-0.05503054144725428</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.132358820267339</v>
+        <v>-3.132938710748341</v>
       </c>
       <c r="G179">
         <v>-0.05419782010627705</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.140756823093829</v>
+        <v>-3.141070966608082</v>
       </c>
       <c r="G181">
         <v>-0.05252403470007838</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.148685476834273</v>
+        <v>-3.150497942271952</v>
       </c>
       <c r="G183">
         <v>-0.05038090020783503</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.151342989340305</v>
+        <v>-3.152720877811154</v>
       </c>
       <c r="G184">
         <v>-0.04800251859752269</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.157249294426823</v>
+        <v>-3.158735485038942</v>
       </c>
       <c r="G185">
         <v>-0.04887292956769662</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.162802937143749</v>
+        <v>-3.162904427361136</v>
       </c>
       <c r="G186">
         <v>-0.04939067816827869</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.164991256859218</v>
+        <v>-3.165526196419208</v>
       </c>
       <c r="G187">
         <v>-0.04654310376740345</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.167553446013544</v>
+        <v>-3.170148934216532</v>
       </c>
       <c r="G188">
         <v>-0.04406939880538541</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173041187324559</v>
+        <v>-3.173998452929488</v>
       </c>
       <c r="G189">
         <v>-0.04452124600005636</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.185309891280312</v>
+        <v>-3.185854343309837</v>
       </c>
       <c r="G192">
         <v>-0.04168226760677696</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.188709349670376</v>
+        <v>-3.190148727181348</v>
       </c>
       <c r="G193">
         <v>-0.04004583188049676</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.191979202547706</v>
+        <v>-3.192581484328323</v>
       </c>
       <c r="G194">
         <v>-0.03827979064148346</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.19653110633568</v>
+        <v>-3.1978543392053</v>
       </c>
       <c r="G195">
         <v>-0.03779580031311314</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.199493280044088</v>
+        <v>-3.201603786440943</v>
       </c>
       <c r="G196">
         <v>-0.03572207990517756</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.208706636678056</v>
+        <v>-3.209452794178404</v>
       </c>
       <c r="G198">
         <v>-0.03486364830645772</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.215232075962943</v>
+        <v>-3.217627064800709</v>
       </c>
       <c r="G200">
         <v>-0.03131729935865663</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.222744998492633</v>
+        <v>-3.225333308978912</v>
       </c>
       <c r="G202">
         <v>-0.02875843365565778</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.23190342481209</v>
+        <v>-3.232017542813052</v>
       </c>
       <c r="G204">
         <v>-0.02784507174242745</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.237397639308404</v>
+        <v>-3.23950696652053</v>
       </c>
       <c r="G206">
         <v>-0.02326749800605263</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.241081536896742</v>
+        <v>-3.241630319845771</v>
       </c>
       <c r="G207">
         <v>-0.02191550147804766</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.245852057347526</v>
+        <v>-3.246631354609099</v>
       </c>
       <c r="G208">
         <v>-0.02165012781248737</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.248082740752708</v>
+        <v>-3.250526449836824</v>
       </c>
       <c r="G209">
         <v>-0.01884491710132483</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.256221944041042</v>
+        <v>-3.256380376467608</v>
       </c>
       <c r="G211">
         <v>-0.01691233215697124</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.258938141323194</v>
+        <v>-3.259662535100067</v>
       </c>
       <c r="G212">
         <v>-0.01459263532277903</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.916088138156867</v>
+        <v>-2.916739221328525</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.001573393326426</v>
+        <v>-3.001883858882588</v>
       </c>
       <c r="G224">
         <v>-0.06504219547569612</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.082070285057197</v>
+        <v>-3.0823675918827</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.15637583041538</v>
+        <v>-3.157335847221092</v>
       </c>
       <c r="G226">
         <v>-0.06593602525985154</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.225129274315716</v>
+        <v>-3.226152769048351</v>
       </c>
       <c r="G227">
         <v>-0.05773516550778812</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.346976676268064</v>
+        <v>-3.347404143085116</v>
       </c>
       <c r="G229">
         <v>-0.02567396015533885</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.793207808530402</v>
+        <v>-2.793495955477011</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.889322673011459</v>
+        <v>-2.890176083685128</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.981556386388953</v>
+        <v>-2.981886470629385</v>
       </c>
       <c r="G234">
         <v>-0.05701771459264005</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.149458697811158</v>
+        <v>-3.150159485354571</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.224043735015975</v>
+        <v>-3.225651227859915</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.294566745035298</v>
+        <v>-3.295614018787624</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.359835870962689</v>
+        <v>-3.360326671797938</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.419435343837202</v>
+        <v>-3.41986896939217</v>
       </c>
       <c r="G240">
         <v>-0.02526201295291675</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.931630617571627</v>
+        <v>-2.932966903492841</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025002630873709</v>
+        <v>-3.025281938943063</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.27154751039525</v>
+        <v>-3.273453643268688</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.344276752618937</v>
+        <v>-3.344940533918229</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.409951121872572</v>
+        <v>-3.410645178214803</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.470605484396537</v>
+        <v>-3.470830982107529</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.864152185712789</v>
+        <v>-2.864485362629514</v>
       </c>
       <c r="G254">
         <v>-0.02417558309357482</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.964166754932609</v>
+        <v>-2.964430954926683</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.056749789970032</v>
+        <v>-3.057075308078153</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.229112169140764</v>
+        <v>-3.229255587578124</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.379544286577301</v>
+        <v>-3.380064659989252</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.446764188813006</v>
+        <v>-3.44719022246222</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508041400497357</v>
+        <v>-3.508430400055294</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.887237664363612</v>
+        <v>-2.887401089758086</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.081801776527018</v>
+        <v>-3.081934987811363</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.170914914368768</v>
+        <v>-3.171295255239093</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.25428220152016</v>
+        <v>-3.254748240781896</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.332906049728331</v>
+        <v>-3.333436745097354</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.406583963891081</v>
+        <v>-3.406677443303352</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.536469200504182</v>
+        <v>-3.53675498596094</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.005551721911675</v>
+        <v>-3.005949894472389</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.100073367820231</v>
+        <v>-3.100721450016086</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.189762362822428</v>
+        <v>-3.1900729674821</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.273685652224454</v>
+        <v>-3.274173293205263</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.353301664716045</v>
+        <v>-3.354301226296149</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.427160611866017</v>
+        <v>-3.427351114119585</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.920130724623413</v>
+        <v>-2.920619276343247</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020685891797658</v>
+        <v>-3.020849247542559</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.115340231378456</v>
+        <v>-3.11598368280754</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.205200438324078</v>
+        <v>-3.205479011440648</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.289917261095581</v>
+        <v>-3.290416695417398</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.36936577317718</v>
+        <v>-3.370080993401873</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.443998203793135</v>
+        <v>-3.444286660407545</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.512806011462259</v>
+        <v>-3.513164304319323</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.587522727258067</v>
+        <v>-2.588334422053569</v>
       </c>
       <c r="G29">
         <v>-0.04762321756701327</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.617916485921847</v>
+        <v>-2.61831340885734</v>
       </c>
       <c r="G31">
         <v>-0.05199087798678215</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.715787854529593</v>
+        <v>-2.715818707018656</v>
       </c>
       <c r="G38">
         <v>-0.06183997548240172</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.741987375772597</v>
+        <v>-2.742058368969749</v>
       </c>
       <c r="G40">
         <v>-0.06395184889360772</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.755252329834027</v>
+        <v>-2.757091275750315</v>
       </c>
       <c r="G41">
         <v>-0.06468311722434916</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.768811041385018</v>
+        <v>-2.768861577808435</v>
       </c>
       <c r="G42">
         <v>-0.06426275743069176</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.79459571463581</v>
+        <v>-2.795066359554894</v>
       </c>
       <c r="G44">
         <v>-0.06415847557426502</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.866074068067556</v>
+        <v>-2.867395668807782</v>
       </c>
       <c r="G50">
         <v>-0.06122366793622602</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.877596839899635</v>
+        <v>-2.877994002372555</v>
       </c>
       <c r="G51">
         <v>-0.06121660272984963</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.922068594488994</v>
+        <v>-2.922396825860762</v>
       </c>
       <c r="G55">
         <v>-0.05396060322086482</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.932148939821566</v>
+        <v>-2.932382699598804</v>
       </c>
       <c r="G56">
         <v>-0.05159963316332727</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.95274964484246</v>
+        <v>-2.95325116928987</v>
       </c>
       <c r="G58">
         <v>-0.04686429420370541</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.568701487932056</v>
+        <v>-2.569001055335833</v>
       </c>
       <c r="G76">
         <v>-0.009237581754427016</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.583267218808687</v>
+        <v>-2.583540234681703</v>
       </c>
       <c r="G78">
         <v>-0.01297844563224793</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.596461423314933</v>
+        <v>-2.597181260768108</v>
       </c>
       <c r="G80">
         <v>-0.01631472771035503</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.603315161307515</v>
+        <v>-2.603620375920024</v>
       </c>
       <c r="G81">
         <v>-0.01788829950313398</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.622424622361492</v>
+        <v>-2.623206573919443</v>
       </c>
       <c r="G84">
         <v>-0.02242535566458148</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629538652013713</v>
+        <v>-2.629951584345965</v>
       </c>
       <c r="G85">
         <v>-0.02475169878898864</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.635998128192881</v>
+        <v>-2.636500647275354</v>
       </c>
       <c r="G86">
         <v>-0.02539126900884403</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.648807862726446</v>
+        <v>-2.649158319042564</v>
       </c>
       <c r="G88">
         <v>-0.02780670944484109</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.654796366092879</v>
+        <v>-2.655537884893902</v>
       </c>
       <c r="G89">
         <v>-0.02986583640277773</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.661807267029981</v>
+        <v>-2.662454007664363</v>
       </c>
       <c r="G90">
         <v>-0.03094811511381401</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.666737057639267</v>
+        <v>-2.668306406877585</v>
       </c>
       <c r="G91">
         <v>-0.03127495504528444</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.673868425261839</v>
+        <v>-2.673945865704942</v>
       </c>
       <c r="G92">
         <v>-0.03253740606552968</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.679897463810072</v>
+        <v>-2.680521136402144</v>
       </c>
       <c r="G93">
         <v>-0.03482335765459466</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.699230735943251</v>
+        <v>-2.699901657424724</v>
       </c>
       <c r="G96">
         <v>-0.03904894743874188</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.723619315247606</v>
+        <v>-2.724450072430121</v>
       </c>
       <c r="G100">
         <v>-0.04101653404571337</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730638460047739</v>
+        <v>-2.730801164605804</v>
       </c>
       <c r="G101">
         <v>-0.04181096742640866</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.735086280955219</v>
+        <v>-2.735989716642922</v>
       </c>
       <c r="G102">
         <v>-0.04403152170451685</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.741748866833105</v>
+        <v>-2.742303607198775</v>
       </c>
       <c r="G103">
         <v>-0.04631581951418795</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.74708332937836</v>
+        <v>-2.74729078576314</v>
       </c>
       <c r="G104">
         <v>-0.04661438794309825</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.760341799682231</v>
+        <v>-2.761124740246759</v>
       </c>
       <c r="G106">
         <v>-0.0478728659904335</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.765851465550798</v>
+        <v>-2.76618271297703</v>
       </c>
       <c r="G107">
         <v>-0.0499380917063299</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.777279827170495</v>
+        <v>-2.777573250843394</v>
       </c>
       <c r="G109">
         <v>-0.05081636630824438</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.78332186419509</v>
+        <v>-2.783568290966991</v>
       </c>
       <c r="G110">
         <v>-0.04943599884026795</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.795364871613568</v>
+        <v>-2.795910942609207</v>
       </c>
       <c r="G112">
         <v>-0.0544011670680502</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.801280030802533</v>
+        <v>-2.801634591682393</v>
       </c>
       <c r="G113">
         <v>-0.05426949211510657</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.806786750504227</v>
+        <v>-2.807433802505841</v>
       </c>
       <c r="G114">
         <v>-0.05454616190369288</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.81241053841341</v>
+        <v>-2.812970160094145</v>
       </c>
       <c r="G115">
         <v>-0.05654676169836437</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817512364526467</v>
+        <v>-2.817670315989148</v>
       </c>
       <c r="G116">
         <v>-0.05661269369507727</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.828991172186337</v>
+        <v>-2.830674998085986</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.841394587191919</v>
+        <v>-2.841954315742521</v>
       </c>
       <c r="G120">
         <v>-0.05759479459459071</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.852809313378922</v>
+        <v>-2.853018278353968</v>
       </c>
       <c r="G122">
         <v>-0.06136433232690086</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.858074344866958</v>
+        <v>-2.858606708893486</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.869321517186286</v>
+        <v>-2.869442094460163</v>
       </c>
       <c r="G125">
         <v>-0.06138380397589427</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.873787123229308</v>
+        <v>-2.873912539727428</v>
       </c>
       <c r="G126">
         <v>-0.06232868343884124</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.879791625903398</v>
+        <v>-2.880137544141972</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.885654616864878</v>
+        <v>-2.886035234162228</v>
       </c>
       <c r="G128">
         <v>-0.06432421663735988</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.890667546518509</v>
+        <v>-2.8917875856338</v>
       </c>
       <c r="G129">
         <v>-0.06430125217464711</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.897495395175365</v>
+        <v>-2.898022019724287</v>
       </c>
       <c r="G130">
         <v>-0.06306602568684583</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.901889011968561</v>
+        <v>-2.902234930207134</v>
       </c>
       <c r="G131">
         <v>-0.06545092939201069</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.905938261106093</v>
+        <v>-2.906542619290631</v>
       </c>
       <c r="G132">
         <v>-0.06391815187529315</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.91198864190489</v>
+        <v>-2.912376773634457</v>
       </c>
       <c r="G133">
         <v>-0.06547877109565259</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.923640965944715</v>
+        <v>-2.924161133939408</v>
       </c>
       <c r="G135">
         <v>-0.06705930690278916</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.948600573706654</v>
+        <v>-2.948841059740435</v>
       </c>
       <c r="G140">
         <v>-0.06683944408300801</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.959012405224682</v>
+        <v>-2.959452265771886</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.975300193968001</v>
+        <v>-2.975640882846944</v>
       </c>
       <c r="G145">
         <v>-0.06777381128624294</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.980398430309533</v>
+        <v>-2.981985979313749</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.986074974987577</v>
+        <v>-2.986814270360283</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.990266089744258</v>
+        <v>-2.990398011845504</v>
       </c>
       <c r="G148">
         <v>-0.06618595830289431</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.00004299280408</v>
+        <v>-3.001418279254316</v>
       </c>
       <c r="G150">
         <v>-0.06683359663898147</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.004809788988715</v>
+        <v>-3.005210266835389</v>
       </c>
       <c r="G151">
         <v>-0.06607365636149898</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.009886398324952</v>
+        <v>-3.010930814207043</v>
       </c>
       <c r="G152">
         <v>-0.06769453930517733</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.014007065776837</v>
+        <v>-3.014793646703282</v>
       </c>
       <c r="G153">
         <v>-0.06669853251002755</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.024300268454527</v>
+        <v>-3.024584583874319</v>
       </c>
       <c r="G155">
         <v>-0.06542229443775982</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.03454471886794</v>
+        <v>-3.034809871016396</v>
       </c>
       <c r="G157">
         <v>-0.06612282088714139</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.042784945362435</v>
+        <v>-3.04326345046576</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.048294178547453</v>
+        <v>-3.048612067315833</v>
       </c>
       <c r="G160">
         <v>-0.06363959269199659</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.075355836528174</v>
+        <v>-3.07585764423224</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.079708273516284</v>
+        <v>-3.081062059343754</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.08817618979731</v>
+        <v>-3.0891236260959</v>
       </c>
       <c r="G169">
         <v>-0.05924935693491873</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.106207586596736</v>
+        <v>-3.107158586216734</v>
       </c>
       <c r="G173">
         <v>-0.05826195113373756</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.112065322668175</v>
+        <v>-3.112453590908692</v>
       </c>
       <c r="G174">
         <v>-0.05771422059578923</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.124194863585673</v>
+        <v>-3.124448073303733</v>
       </c>
       <c r="G177">
         <v>-0.05503054144725428</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.128884790224527</v>
+        <v>-3.1291451402742</v>
       </c>
       <c r="G178">
         <v>-0.05575968417980881</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.132938710748341</v>
+        <v>-3.133085646454551</v>
       </c>
       <c r="G179">
         <v>-0.05419782010627705</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.137443318880831</v>
+        <v>-3.13877459822594</v>
       </c>
       <c r="G180">
         <v>-0.05424642460342466</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141070966608082</v>
+        <v>-3.141459517166771</v>
       </c>
       <c r="G181">
         <v>-0.05252403470007838</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.152720877811154</v>
+        <v>-3.152878446361018</v>
       </c>
       <c r="G184">
         <v>-0.04800251859752269</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.178395936923247</v>
+        <v>-3.178722407576799</v>
       </c>
       <c r="G190">
         <v>-0.04484010148240014</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.181565292847346</v>
+        <v>-3.181610935020764</v>
       </c>
       <c r="G191">
         <v>-0.04297356329015517</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.192581484328323</v>
+        <v>-3.192810382505882</v>
       </c>
       <c r="G194">
         <v>-0.03827979064148346</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.1978543392053</v>
+        <v>-3.198242724711479</v>
       </c>
       <c r="G195">
         <v>-0.03779580031311314</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.204901325634967</v>
+        <v>-3.205216564414906</v>
       </c>
       <c r="G197">
         <v>-0.03609423137971218</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.209452794178404</v>
+        <v>-3.209717547344753</v>
       </c>
       <c r="G198">
         <v>-0.03486364830645772</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.221747069534168</v>
+        <v>-3.221792100114282</v>
       </c>
       <c r="G201">
         <v>-0.03279639881353691</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.2284048231278</v>
+        <v>-3.228460107272547</v>
       </c>
       <c r="G203">
         <v>-0.02938236417448131</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.731456718506644</v>
+        <v>-2.731562396824516</v>
       </c>
       <c r="G221">
         <v>-0.02578843161311051</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.826254513181702</v>
+        <v>-2.827101576928034</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.916739221328525</v>
+        <v>-2.916867843864429</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.0823675918827</v>
+        <v>-3.083161634902463</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.347404143085116</v>
+        <v>-3.347593597516872</v>
       </c>
       <c r="G229">
         <v>-0.02567396015533885</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.793495955477011</v>
+        <v>-2.794198856954974</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.890176083685128</v>
+        <v>-2.890217205915159</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.981886470629385</v>
+        <v>-2.982408132331495</v>
       </c>
       <c r="G234">
         <v>-0.05701771459264005</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069241431368999</v>
+        <v>-3.069426918617335</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.150159485354571</v>
+        <v>-3.150250533611487</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.225651227859915</v>
+        <v>-3.225944828179716</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.295614018787624</v>
+        <v>-3.295695418917694</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.360326671797938</v>
+        <v>-3.360476801400738</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.41986896939217</v>
+        <v>-3.419971286415048</v>
       </c>
       <c r="G240">
         <v>-0.02526201295291675</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.834844497784831</v>
+        <v>-2.835176353902582</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.932966903492841</v>
+        <v>-2.933127670839059</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025281938943063</v>
+        <v>-3.025408140482333</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.114312888736589</v>
+        <v>-3.1149312464594</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.196046174778101</v>
+        <v>-3.197094549092903</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.273453643268688</v>
+        <v>-3.273900770886515</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.344940533918229</v>
+        <v>-3.345448338573651</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.410645178214803</v>
+        <v>-3.411135745156248</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.470830982107529</v>
+        <v>-3.470885971556126</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.864485362629514</v>
+        <v>-2.864903186235879</v>
       </c>
       <c r="G254">
         <v>-0.02417558309357482</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.964430954926683</v>
+        <v>-2.965062060005271</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.057075308078153</v>
+        <v>-3.057676511984901</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.146573940343639</v>
+        <v>-3.1475551313904</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.229255587578124</v>
+        <v>-3.230185281814743</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.308199029402467</v>
+        <v>-3.309468472773201</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.380064659989252</v>
+        <v>-3.381272698598519</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.44719022246222</v>
+        <v>-3.447853613170184</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508430400055294</v>
+        <v>-3.508694369319993</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.887401089758086</v>
+        <v>-2.887712949164633</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.987364033333085</v>
+        <v>-2.988124323824287</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.081934987811363</v>
+        <v>-3.083373621767634</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.171295255239093</v>
+        <v>-3.172720500243992</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.254748240781896</v>
+        <v>-3.256553898575399</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.333436745097354</v>
+        <v>-3.335553651407568</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.406677443303352</v>
+        <v>-3.407897101715244</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.47408692679528</v>
+        <v>-3.475298070941629</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.53675498596094</v>
+        <v>-3.537120598593019</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.90532869807098</v>
+        <v>-2.905817727657569</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.005949894472389</v>
+        <v>-3.006769145999509</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.100721450016086</v>
+        <v>-3.102357835084897</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.1900729674821</v>
+        <v>-3.192582553388487</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.274173293205263</v>
+        <v>-3.277070962153359</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.354301226296149</v>
+        <v>-3.356791855179519</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.427351114119585</v>
+        <v>-3.429339865077292</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.495935961820713</v>
+        <v>-3.497658518027693</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559064121980552</v>
+        <v>-3.559589444957363</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.920619276343247</v>
+        <v>-2.920901344335757</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.020849247542559</v>
+        <v>-3.022090372364645</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.11598368280754</v>
+        <v>-3.117966125559632</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.205479011440648</v>
+        <v>-3.208515196189859</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.290416695417398</v>
+        <v>-3.293837881369936</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.370080993401873</v>
+        <v>-3.372846665712971</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.444286660407545</v>
+        <v>-3.447033301492583</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.513164304319323</v>
+        <v>-3.514900388089952</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.576832090555379</v>
+        <v>-3.577491973289494</v>
       </c>
       <c r="G295">
         <v>-0.02391455926254932</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.542529486825067</v>
+        <v>-2.544203094776757</v>
       </c>
       <c r="G26">
         <v>-0.0406024831246925</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.588334422053569</v>
+        <v>-2.588571098577845</v>
       </c>
       <c r="G29">
         <v>-0.04762321756701327</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.61831340885734</v>
+        <v>-2.618394857745914</v>
       </c>
       <c r="G31">
         <v>-0.05199087798678215</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.715818707018656</v>
+        <v>-2.71657889330581</v>
       </c>
       <c r="G38">
         <v>-0.06183997548240172</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.742058368969749</v>
+        <v>-2.74343711457651</v>
       </c>
       <c r="G40">
         <v>-0.06395184889360772</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.807289948542994</v>
+        <v>-2.808086830902709</v>
       </c>
       <c r="G45">
         <v>-0.06490106791460604</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.85425333645411</v>
+        <v>-2.854937368498958</v>
       </c>
       <c r="G49">
         <v>-0.06224520081165175</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.877994002372555</v>
+        <v>-2.878746769254872</v>
       </c>
       <c r="G51">
         <v>-0.06121660272984963</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.932382699598804</v>
+        <v>-2.932628933144771</v>
       </c>
       <c r="G56">
         <v>-0.05159963316332727</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.942460765906797</v>
+        <v>-2.943030280330377</v>
       </c>
       <c r="G57">
         <v>-0.04834693910731458</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.9732122037768</v>
+        <v>-2.973627372860181</v>
       </c>
       <c r="G60">
         <v>-0.04364360928270128</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.569001055335833</v>
+        <v>-2.569274071208849</v>
       </c>
       <c r="G76">
         <v>-0.009237581754427016</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.583540234681703</v>
+        <v>-2.583622572446409</v>
       </c>
       <c r="G78">
         <v>-0.01297844563224793</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.603620375920024</v>
+        <v>-2.603778493377483</v>
       </c>
       <c r="G81">
         <v>-0.01788829950313398</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.616097545279995</v>
+        <v>-2.617274910573072</v>
       </c>
       <c r="G83">
         <v>-0.02138238028795802</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.623206573919443</v>
+        <v>-2.623358206484739</v>
       </c>
       <c r="G84">
         <v>-0.02242535566458148</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.629951584345965</v>
+        <v>-2.630314118679501</v>
       </c>
       <c r="G85">
         <v>-0.02475169878898864</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.643775942694741</v>
+        <v>-2.644278031576155</v>
       </c>
       <c r="G87">
         <v>-0.02645349066911074</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.649158319042564</v>
+        <v>-2.649724256429118</v>
       </c>
       <c r="G88">
         <v>-0.02780670944484109</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.655537884893902</v>
+        <v>-2.656889533885299</v>
       </c>
       <c r="G89">
         <v>-0.02986583640277773</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.662454007664363</v>
+        <v>-2.663173845117538</v>
       </c>
       <c r="G90">
         <v>-0.03094811511381401</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.668306406877585</v>
+        <v>-2.668553724776157</v>
       </c>
       <c r="G91">
         <v>-0.03127495504528444</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.673945865704942</v>
+        <v>-2.674706506686611</v>
       </c>
       <c r="G92">
         <v>-0.03253740606552968</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.680521136402144</v>
+        <v>-2.681637787111135</v>
       </c>
       <c r="G93">
         <v>-0.03482335765459466</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.686814879718783</v>
+        <v>-2.688222030086555</v>
       </c>
       <c r="G94">
         <v>-0.03652145573924059</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.699901657424724</v>
+        <v>-2.700019704036611</v>
       </c>
       <c r="G96">
         <v>-0.03904894743874188</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.717872357335449</v>
+        <v>-2.717894318217592</v>
       </c>
       <c r="G99">
         <v>-0.04017070547547874</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.742303607198775</v>
+        <v>-2.742629619796826</v>
       </c>
       <c r="G103">
         <v>-0.04631581951418795</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.74729078576314</v>
+        <v>-2.747879053211713</v>
       </c>
       <c r="G104">
         <v>-0.04661438794309825</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.75367153258764</v>
+        <v>-2.754626817601323</v>
       </c>
       <c r="G105">
         <v>-0.04775884217098492</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.76618271297703</v>
+        <v>-2.766311592757118</v>
       </c>
       <c r="G107">
         <v>-0.0499380917063299</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.777573250843394</v>
+        <v>-2.777754439105469</v>
       </c>
       <c r="G109">
         <v>-0.05081636630824438</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.783568290966991</v>
+        <v>-2.784459736573412</v>
       </c>
       <c r="G110">
         <v>-0.04943599884026795</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.789888593027233</v>
+        <v>-2.790550478779264</v>
       </c>
       <c r="G111">
         <v>-0.05267938996759525</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.795910942609207</v>
+        <v>-2.796729990228255</v>
       </c>
       <c r="G112">
         <v>-0.0544011670680502</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.801634591682393</v>
+        <v>-2.802934972767208</v>
       </c>
       <c r="G113">
         <v>-0.05426949211510657</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.807433802505841</v>
+        <v>-2.807476025412764</v>
       </c>
       <c r="G114">
         <v>-0.05454616190369288</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.812970160094145</v>
+        <v>-2.812991429791635</v>
       </c>
       <c r="G115">
         <v>-0.05654676169836437</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.817670315989148</v>
+        <v>-2.818594342185809</v>
       </c>
       <c r="G116">
         <v>-0.05661269369507727</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.823906227199774</v>
+        <v>-2.824032791749309</v>
       </c>
       <c r="G117">
         <v>-0.05797066225204062</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.830674998085986</v>
+        <v>-2.830741445741892</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.835471383944628</v>
+        <v>-2.836131555457962</v>
       </c>
       <c r="G119">
         <v>-0.05653158077693177</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.84705013450811</v>
+        <v>-2.847833280224414</v>
       </c>
       <c r="G121">
         <v>-0.0609709930950002</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.853018278353968</v>
+        <v>-2.853364624474008</v>
       </c>
       <c r="G122">
         <v>-0.06136433232690086</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.858606708893486</v>
+        <v>-2.859352761546141</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.862861256311493</v>
+        <v>-2.863130071613542</v>
       </c>
       <c r="G124">
         <v>-0.05981457549698055</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.869442094460163</v>
+        <v>-2.870094654008373</v>
       </c>
       <c r="G125">
         <v>-0.06138380397589427</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.873912539727428</v>
+        <v>-2.874517625323694</v>
       </c>
       <c r="G126">
         <v>-0.06232868343884124</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.880137544141972</v>
+        <v>-2.880626936097741</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.886035234162228</v>
+        <v>-2.886416944042302</v>
       </c>
       <c r="G128">
         <v>-0.06432421663735988</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.8917875856338</v>
+        <v>-2.891883387698792</v>
       </c>
       <c r="G129">
         <v>-0.06430125217464711</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.902234930207134</v>
+        <v>-2.902608273831085</v>
       </c>
       <c r="G131">
         <v>-0.06545092939201069</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.906542619290631</v>
+        <v>-2.906967441307551</v>
       </c>
       <c r="G132">
         <v>-0.06391815187529315</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.912376773634457</v>
+        <v>-2.913035124313005</v>
       </c>
       <c r="G133">
         <v>-0.06547877109565259</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.917826940556086</v>
+        <v>-2.918579703376213</v>
       </c>
       <c r="G134">
         <v>-0.06628117563050395</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.924161133939408</v>
+        <v>-2.924711486707948</v>
       </c>
       <c r="G135">
         <v>-0.06705930690278916</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.928727059966479</v>
+        <v>-2.92897856137065</v>
       </c>
       <c r="G136">
         <v>-0.06627089682567555</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.933485804043593</v>
+        <v>-2.933876080655708</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.939072421256427</v>
+        <v>-2.939574574455589</v>
       </c>
       <c r="G138">
         <v>-0.06594677432111862</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.944444168449988</v>
+        <v>-2.94451942001754</v>
       </c>
       <c r="G139">
         <v>-0.06771893294268683</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.948841059740435</v>
+        <v>-2.949899934021033</v>
       </c>
       <c r="G140">
         <v>-0.06683944408300801</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.95485263939826</v>
+        <v>-2.955107313854122</v>
       </c>
       <c r="G141">
         <v>-0.06805561565827012</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.964672420112259</v>
+        <v>-2.966362707716795</v>
       </c>
       <c r="G143">
         <v>-0.06590141386971204</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.970159665896773</v>
+        <v>-2.971865525169175</v>
       </c>
       <c r="G144">
         <v>-0.06719267630657955</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.975640882846944</v>
+        <v>-2.976099410484902</v>
       </c>
       <c r="G145">
         <v>-0.06777381128624294</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.981985979313749</v>
+        <v>-2.982049649886195</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.986814270360283</v>
+        <v>-2.987026347935604</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.990398011845504</v>
+        <v>-2.990657182030985</v>
       </c>
       <c r="G148">
         <v>-0.06618595830289431</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.994009086021631</v>
+        <v>-2.995602200623227</v>
       </c>
       <c r="G149">
         <v>-0.06692490935088924</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.001418279254316</v>
+        <v>-3.001480546805596</v>
       </c>
       <c r="G150">
         <v>-0.06683359663898147</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.014793646703282</v>
+        <v>-3.016399855420759</v>
       </c>
       <c r="G153">
         <v>-0.06669853251002755</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.019816877807591</v>
+        <v>-3.019828365112343</v>
       </c>
       <c r="G154">
         <v>-0.06742682892600071</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.029392266178177</v>
+        <v>-3.029984417303309</v>
       </c>
       <c r="G156">
         <v>-0.0646768278319354</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.040018495425774</v>
+        <v>-3.040274876922619</v>
       </c>
       <c r="G158">
         <v>-0.0665139706757889</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.04326345046576</v>
+        <v>-3.044480967979742</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.048612067315833</v>
+        <v>-3.049472578909308</v>
       </c>
       <c r="G160">
         <v>-0.06363959269199659</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.052439921856876</v>
+        <v>-3.0536283314683</v>
       </c>
       <c r="G161">
         <v>-0.06420703838534636</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.062893400608167</v>
+        <v>-3.063156460218726</v>
       </c>
       <c r="G163">
         <v>-0.06488070341078622</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.066460708844561</v>
+        <v>-3.068644399746657</v>
       </c>
       <c r="G164">
         <v>-0.06383812042865811</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.071507296736984</v>
+        <v>-3.072305298266548</v>
       </c>
       <c r="G165">
         <v>-0.06308906220397503</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.07585764423224</v>
+        <v>-3.076054120258825</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.081062059343754</v>
+        <v>-3.081724238286959</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.084335485633709</v>
+        <v>-3.084964739578377</v>
       </c>
       <c r="G168">
         <v>-0.0606518993763554</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.0891236260959</v>
+        <v>-3.090039848338694</v>
       </c>
       <c r="G169">
         <v>-0.05924935693491873</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.096014038275145</v>
+        <v>-3.096167860856815</v>
       </c>
       <c r="G170">
         <v>-0.05968614133142269</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.098504171061841</v>
+        <v>-3.098882494724026</v>
       </c>
       <c r="G171">
         <v>-0.06063032383153044</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.107158586216734</v>
+        <v>-3.107604904286164</v>
       </c>
       <c r="G173">
         <v>-0.05826195113373756</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.112453590908692</v>
+        <v>-3.112900432842978</v>
       </c>
       <c r="G174">
         <v>-0.05771422059578923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.115623629695337</v>
+        <v>-3.1162965506934</v>
       </c>
       <c r="G175">
         <v>-0.0546421469967634</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.1291451402742</v>
+        <v>-3.129433504716296</v>
       </c>
       <c r="G178">
         <v>-0.05575968417980881</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.133085646454551</v>
+        <v>-3.133941465965681</v>
       </c>
       <c r="G179">
         <v>-0.05419782010627705</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.13877459822594</v>
+        <v>-3.138855925227866</v>
       </c>
       <c r="G180">
         <v>-0.05424642460342466</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141459517166771</v>
+        <v>-3.141743458629547</v>
       </c>
       <c r="G181">
         <v>-0.05252403470007838</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.150497942271952</v>
+        <v>-3.150725237165981</v>
       </c>
       <c r="G183">
         <v>-0.05038090020783503</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.152878446361018</v>
+        <v>-3.153974720246354</v>
       </c>
       <c r="G184">
         <v>-0.04800251859752269</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.170148934216532</v>
+        <v>-3.170292870820544</v>
       </c>
       <c r="G188">
         <v>-0.04406939880538541</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173998452929488</v>
+        <v>-3.174407362636423</v>
       </c>
       <c r="G189">
         <v>-0.04452124600005636</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.178722407576799</v>
+        <v>-3.178944133287714</v>
       </c>
       <c r="G190">
         <v>-0.04484010148240014</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.190148727181348</v>
+        <v>-3.190323356979504</v>
       </c>
       <c r="G193">
         <v>-0.04004583188049676</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.192810382505882</v>
+        <v>-3.193094832681282</v>
       </c>
       <c r="G194">
         <v>-0.03827979064148346</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.205216564414906</v>
+        <v>-3.205389839079898</v>
       </c>
       <c r="G197">
         <v>-0.03609423137971218</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.2136523877248</v>
+        <v>-3.214249107797146</v>
       </c>
       <c r="G199">
         <v>-0.03477350523685752</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.225333308978912</v>
+        <v>-3.226456370607925</v>
       </c>
       <c r="G202">
         <v>-0.02875843365565778</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.232017542813052</v>
+        <v>-3.232033086531411</v>
       </c>
       <c r="G204">
         <v>-0.02784507174242745</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.234779782552937</v>
+        <v>-3.237127762664743</v>
       </c>
       <c r="G205">
         <v>-0.02568553536693</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.250526449836824</v>
+        <v>-3.25068488226339</v>
       </c>
       <c r="G209">
         <v>-0.01884491710132483</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.253098217835149</v>
+        <v>-3.253532629365499</v>
       </c>
       <c r="G210">
         <v>-0.0188245000674219</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.256380376467608</v>
+        <v>-3.256814787997958</v>
       </c>
       <c r="G211">
         <v>-0.01691233215697124</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.731562396824516</v>
+        <v>-2.731946593847857</v>
       </c>
       <c r="G221">
         <v>-0.02578843161311051</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827101576928034</v>
+        <v>-2.827551020885961</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.916867843864429</v>
+        <v>-2.917188916630372</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.001883858882588</v>
+        <v>-3.002126481485559</v>
       </c>
       <c r="G224">
         <v>-0.06504219547569612</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.083161634902463</v>
+        <v>-3.083377650750109</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.157335847221092</v>
+        <v>-3.157656983338768</v>
       </c>
       <c r="G226">
         <v>-0.06593602525985154</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.289035350183279</v>
+        <v>-3.289145908974344</v>
       </c>
       <c r="G228">
         <v>-0.04468693772295207</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794198856954974</v>
+        <v>-2.794376895288885</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.890217205915159</v>
+        <v>-2.890569975135918</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.982408132331495</v>
+        <v>-2.982731312744227</v>
       </c>
       <c r="G234">
         <v>-0.05701771459264005</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069426918617335</v>
+        <v>-3.069440346172515</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.150250533611487</v>
+        <v>-3.150637743161914</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.295695418917694</v>
+        <v>-3.295802350786619</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.835176353902582</v>
+        <v>-2.835571804671538</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.933127670839059</v>
+        <v>-2.9335071629841</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025408140482333</v>
+        <v>-3.025707458297326</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.197094549092903</v>
+        <v>-3.197408389989548</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.273900770886515</v>
+        <v>-3.274061582862316</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.345448338573651</v>
+        <v>-3.345491819974879</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.411135745156248</v>
+        <v>-3.41125650896916</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.470885971556126</v>
+        <v>-3.471045088423831</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.864903186235879</v>
+        <v>-2.865689131229216</v>
       </c>
       <c r="G254">
         <v>-0.02417558309357482</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.965062060005271</v>
+        <v>-2.965213840204285</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.057676511984901</v>
+        <v>-3.058073097882619</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.1475551313904</v>
+        <v>-3.147735261158705</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.230185281814743</v>
+        <v>-3.230410626855344</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.309468472773201</v>
+        <v>-3.309616762229115</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.381272698598519</v>
+        <v>-3.381406035722117</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.447853613170184</v>
+        <v>-3.447883374553376</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508694369319993</v>
+        <v>-3.508723527364931</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.887712949164633</v>
+        <v>-2.888004281936268</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.988124323824287</v>
+        <v>-2.988425517542108</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.083373621767634</v>
+        <v>-3.083585987825954</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.172720500243992</v>
+        <v>-3.172978090277196</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.256553898575399</v>
+        <v>-3.25675880217838</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.335553651407568</v>
+        <v>-3.335862520796991</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.407897101715244</v>
+        <v>-3.408043552215255</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.475298070941629</v>
+        <v>-3.475432922255699</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.537120598593019</v>
+        <v>-3.537140109207181</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.905817727657569</v>
+        <v>-2.905981075760011</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.006769145999509</v>
+        <v>-3.006932088602412</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.102357835084897</v>
+        <v>-3.102462547810179</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.192582553388487</v>
+        <v>-3.192881541735089</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.277070962153359</v>
+        <v>-3.277578983606263</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.356791855179519</v>
+        <v>-3.356904538646324</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.429339865077292</v>
+        <v>-3.429647704186537</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.497658518027693</v>
+        <v>-3.497887951023615</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.920901344335757</v>
+        <v>-2.921151262562207</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022090372364645</v>
+        <v>-3.022286765582745</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.117966125559632</v>
+        <v>-3.118229355006235</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.208515196189859</v>
+        <v>-3.209012826796394</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.293837881369936</v>
+        <v>-3.294223989572536</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.372846665712971</v>
+        <v>-3.373330741058799</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.447033301492583</v>
+        <v>-3.447384978283551</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.514900388089952</v>
+        <v>-3.515291134954186</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.577491973289494</v>
+        <v>-3.577633996215497</v>
       </c>
       <c r="G295">
         <v>-0.02391455926254932</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.496823099425011</v>
+        <v>-2.497402209222152</v>
       </c>
       <c r="G23">
         <v>-0.03313922019305648</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.843648544630093</v>
+        <v>-2.844321345760274</v>
       </c>
       <c r="G48">
         <v>-0.06517769562641951</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.878746769254872</v>
+        <v>-2.878779519913877</v>
       </c>
       <c r="G51">
         <v>-0.06121660272984963</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.943030280330377</v>
+        <v>-2.943276513876343</v>
       </c>
       <c r="G57">
         <v>-0.04834693910731458</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.95325116928987</v>
+        <v>-2.953725575358118</v>
       </c>
       <c r="G58">
         <v>-0.04686429420370541</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.973627372860181</v>
+        <v>-2.974439067655686</v>
       </c>
       <c r="G60">
         <v>-0.04364360928270128</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.58967413522111</v>
+        <v>-2.590029488858832</v>
       </c>
       <c r="G79">
         <v>-0.01457520512126642</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.603778493377483</v>
+        <v>-2.604014775100759</v>
       </c>
       <c r="G81">
         <v>-0.01788829950313398</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.610020445528925</v>
+        <v>-2.610293461401941</v>
       </c>
       <c r="G82">
         <v>-0.01899718434882702</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.630314118679501</v>
+        <v>-2.630472236136961</v>
       </c>
       <c r="G85">
         <v>-0.02475169878898864</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.636500647275354</v>
+        <v>-2.636574839397547</v>
       </c>
       <c r="G86">
         <v>-0.02539126900884403</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.674706506686611</v>
+        <v>-2.675190424327867</v>
       </c>
       <c r="G92">
         <v>-0.03253740606552968</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.735989716642922</v>
+        <v>-2.736084453682406</v>
       </c>
       <c r="G102">
         <v>-0.04403152170451685</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.747879053211713</v>
+        <v>-2.747933957419329</v>
       </c>
       <c r="G104">
         <v>-0.04661438794309825</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.772935000389651</v>
+        <v>-2.77334296713054</v>
       </c>
       <c r="G108">
         <v>-0.04992410894250066</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.784459736573412</v>
+        <v>-2.785004695112528</v>
       </c>
       <c r="G110">
         <v>-0.04943599884026795</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.807476025412764</v>
+        <v>-2.808160747802981</v>
       </c>
       <c r="G114">
         <v>-0.05454616190369288</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.812991429791635</v>
+        <v>-2.813752828847263</v>
       </c>
       <c r="G115">
         <v>-0.05654676169836437</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.818594342185809</v>
+        <v>-2.819399279290912</v>
       </c>
       <c r="G116">
         <v>-0.05661269369507727</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.824032791749309</v>
+        <v>-2.824641255619524</v>
       </c>
       <c r="G117">
         <v>-0.05797066225204062</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.830741445741892</v>
+        <v>-2.831127478838248</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.859352761546141</v>
+        <v>-2.859616521035583</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.870094654008373</v>
+        <v>-2.870426467230047</v>
       </c>
       <c r="G125">
         <v>-0.06138380397589427</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.874517625323694</v>
+        <v>-2.874863543562268</v>
       </c>
       <c r="G126">
         <v>-0.06232868343884124</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.880626936097741</v>
+        <v>-2.881427754682392</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.891883387698792</v>
+        <v>-2.892422270485358</v>
       </c>
       <c r="G129">
         <v>-0.06430125217464711</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.902608273831085</v>
+        <v>-2.903213497430408</v>
       </c>
       <c r="G131">
         <v>-0.06545092939201069</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.924711486707948</v>
+        <v>-2.925730579242675</v>
       </c>
       <c r="G135">
         <v>-0.06705930690278916</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.933876080655708</v>
+        <v>-2.934008002756953</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.94451942001754</v>
+        <v>-2.944913123994663</v>
       </c>
       <c r="G139">
         <v>-0.06771893294268683</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.949899934021033</v>
+        <v>-2.950087486896816</v>
       </c>
       <c r="G140">
         <v>-0.06683944408300801</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.955107313854122</v>
+        <v>-2.955747238721964</v>
       </c>
       <c r="G141">
         <v>-0.06805561565827012</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.959452265771886</v>
+        <v>-2.960312821871548</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.966362707716795</v>
+        <v>-2.967441701285426</v>
       </c>
       <c r="G143">
         <v>-0.06590141386971204</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.982049649886195</v>
+        <v>-2.983167736345029</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.987026347935604</v>
+        <v>-2.987548770154441</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.990657182030985</v>
+        <v>-2.991059149023443</v>
       </c>
       <c r="G148">
         <v>-0.06618595830289431</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.995602200623227</v>
+        <v>-2.996550719533401</v>
       </c>
       <c r="G149">
         <v>-0.06692490935088924</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.010930814207043</v>
+        <v>-3.011102256061273</v>
       </c>
       <c r="G152">
         <v>-0.06769453930517733</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.029984417303309</v>
+        <v>-3.030637657117178</v>
       </c>
       <c r="G156">
         <v>-0.0646768278319354</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.034809871016396</v>
+        <v>-3.035211555690682</v>
       </c>
       <c r="G157">
         <v>-0.06612282088714139</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.040274876922619</v>
+        <v>-3.040835814779886</v>
       </c>
       <c r="G158">
         <v>-0.0665139706757889</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.0536283314683</v>
+        <v>-3.053970139095812</v>
       </c>
       <c r="G161">
         <v>-0.06420703838534636</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.063156460218726</v>
+        <v>-3.063230357819583</v>
       </c>
       <c r="G163">
         <v>-0.06488070341078622</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.072305298266548</v>
+        <v>-3.072367051838911</v>
       </c>
       <c r="G165">
         <v>-0.06308906220397503</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.076054120258825</v>
+        <v>-3.076130660105256</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.098882494724026</v>
+        <v>-3.099267327649138</v>
       </c>
       <c r="G171">
         <v>-0.06063032383153044</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.107604904286164</v>
+        <v>-3.107882240413869</v>
       </c>
       <c r="G173">
         <v>-0.05826195113373756</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.112900432842978</v>
+        <v>-3.113249849236269</v>
       </c>
       <c r="G174">
         <v>-0.05771422059578923</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.124448073303733</v>
+        <v>-3.125344515567403</v>
       </c>
       <c r="G177">
         <v>-0.05503054144725428</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141743458629547</v>
+        <v>-3.141941468121281</v>
       </c>
       <c r="G181">
         <v>-0.05252403470007838</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.145980646457931</v>
+        <v>-3.146376920019861</v>
       </c>
       <c r="G182">
         <v>-0.05271196394783628</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.153974720246354</v>
+        <v>-3.155489628869495</v>
       </c>
       <c r="G184">
         <v>-0.04800251859752269</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.165526196419208</v>
+        <v>-3.165650392590527</v>
       </c>
       <c r="G187">
         <v>-0.04654310376740345</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.170292870820544</v>
+        <v>-3.170409488515443</v>
       </c>
       <c r="G188">
         <v>-0.04406939880538541</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.174407362636423</v>
+        <v>-3.174444384646081</v>
       </c>
       <c r="G189">
         <v>-0.04452124600005636</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.190323356979504</v>
+        <v>-3.190676031487144</v>
       </c>
       <c r="G193">
         <v>-0.04004583188049676</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.214249107797146</v>
+        <v>-3.214838559673591</v>
       </c>
       <c r="G199">
         <v>-0.03477350523685752</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.226456370607925</v>
+        <v>-3.226597836660986</v>
       </c>
       <c r="G202">
         <v>-0.02875843365565778</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.228460107272547</v>
+        <v>-3.229941079362404</v>
       </c>
       <c r="G203">
         <v>-0.02938236417448131</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.237127762664743</v>
+        <v>-3.237269228717805</v>
       </c>
       <c r="G205">
         <v>-0.02568553536693</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.23950696652053</v>
+        <v>-3.239561870005233</v>
       </c>
       <c r="G206">
         <v>-0.02326749800605263</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.241630319845771</v>
+        <v>-3.242282978319488</v>
       </c>
       <c r="G207">
         <v>-0.02191550147804766</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.731946593847857</v>
+        <v>-2.732350199434083</v>
       </c>
       <c r="G221">
         <v>-0.02578843161311051</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827551020885961</v>
+        <v>-2.827635833146573</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.083377650750109</v>
+        <v>-3.083687867416084</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.157656983338768</v>
+        <v>-3.157723842237273</v>
       </c>
       <c r="G226">
         <v>-0.06593602525985154</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.347593597516872</v>
+        <v>-3.347730368595508</v>
       </c>
       <c r="G229">
         <v>-0.02567396015533885</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794376895288885</v>
+        <v>-2.794503697237664</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.890569975135918</v>
+        <v>-2.890881435550429</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069440346172515</v>
+        <v>-3.069738356129859</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.225944828179716</v>
+        <v>-3.226203515750742</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.295802350786619</v>
+        <v>-3.295919430021463</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.419971286415048</v>
+        <v>-3.420123812458932</v>
       </c>
       <c r="G240">
         <v>-0.02526201295291675</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.835571804671538</v>
+        <v>-2.8357824915441</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.9335071629841</v>
+        <v>-2.933605427662355</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025707458297326</v>
+        <v>-3.025804944516007</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.197408389989548</v>
+        <v>-3.197580467111445</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.274061582862316</v>
+        <v>-3.27410437723603</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.345491819974879</v>
+        <v>-3.345510836243155</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.41125650896916</v>
+        <v>-3.411434816158006</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.471045088423831</v>
+        <v>-3.471162115529351</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.058073097882619</v>
+        <v>-3.058215058894736</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.147735261158705</v>
+        <v>-3.147848412998492</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.230410626855344</v>
+        <v>-3.230499199455352</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.309616762229115</v>
+        <v>-3.309646338323801</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.381406035722117</v>
+        <v>-3.381505146683081</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508723527364931</v>
+        <v>-3.508746708376969</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.888004281936268</v>
+        <v>-2.888318037993473</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.988425517542108</v>
+        <v>-2.988628285042694</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.083585987825954</v>
+        <v>-3.08360489798547</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.172978090277196</v>
+        <v>-3.173214696739061</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.25675880217838</v>
+        <v>-3.25684255514889</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.335862520796991</v>
+        <v>-3.335969643523266</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.408043552215255</v>
+        <v>-3.408191904704179</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.475432922255699</v>
+        <v>-3.475453163135906</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.537140109207181</v>
+        <v>-3.537166752384524</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.905981075760011</v>
+        <v>-2.906140707189809</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.006932088602412</v>
+        <v>-3.007082466183194</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.102462547810179</v>
+        <v>-3.102700571345419</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.192881541735089</v>
+        <v>-3.192970700219093</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.356904538646324</v>
+        <v>-3.357004804627509</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.429647704186537</v>
+        <v>-3.429698114690677</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.497887951023615</v>
+        <v>-3.497923377282819</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559589444957363</v>
+        <v>-3.559643550465242</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921151262562207</v>
+        <v>-2.921312504379258</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022286765582745</v>
+        <v>-3.022412642770648</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.118229355006235</v>
+        <v>-3.118272138959051</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.209012826796394</v>
+        <v>-3.209033562179153</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.294223989572536</v>
+        <v>-3.294234357263916</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.515291134954186</v>
+        <v>-3.515311870336947</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.588571098577845</v>
+        <v>-2.588884850359674</v>
       </c>
       <c r="G29">
         <v>-0.04762321756701327</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.661899314538928</v>
+        <v>-2.6619398616754</v>
       </c>
       <c r="G34">
         <v>-0.05732110797271739</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.783784387120714</v>
+        <v>-2.783820117860729</v>
       </c>
       <c r="G43">
         <v>-0.06827093207138479</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.984356951417557</v>
+        <v>-2.984959216500145</v>
       </c>
       <c r="G61">
         <v>-0.03934560457954367</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.704903382250272</v>
+        <v>-2.704958286457888</v>
       </c>
       <c r="G97">
         <v>-0.03811145238242597</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.736084453682406</v>
+        <v>-2.736883083368246</v>
       </c>
       <c r="G102">
         <v>-0.04403152170451685</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.742629619796826</v>
+        <v>-2.743239264370112</v>
       </c>
       <c r="G103">
         <v>-0.04631581951418795</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.777754439105469</v>
+        <v>-2.778097357900831</v>
       </c>
       <c r="G109">
         <v>-0.05081636630824438</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.819399279290912</v>
+        <v>-2.819843226735305</v>
       </c>
       <c r="G116">
         <v>-0.05661269369507727</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.831127478838248</v>
+        <v>-2.831282594372541</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.853364624474008</v>
+        <v>-2.853629990039777</v>
       </c>
       <c r="G122">
         <v>-0.06136433232690086</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.881427754682392</v>
+        <v>-2.881711724741467</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.892422270485358</v>
+        <v>-2.892561433480657</v>
       </c>
       <c r="G129">
         <v>-0.06430125217464711</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.934008002756953</v>
+        <v>-2.934690857354423</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.939574574455589</v>
+        <v>-2.940077580642476</v>
       </c>
       <c r="G138">
         <v>-0.06594677432111862</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.950087486896816</v>
+        <v>-2.950111704768489</v>
       </c>
       <c r="G140">
         <v>-0.06683944408300801</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.960312821871548</v>
+        <v>-2.960555589259702</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.971865525169175</v>
+        <v>-2.972469026407399</v>
       </c>
       <c r="G144">
         <v>-0.06719267630657955</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.976099410484902</v>
+        <v>-2.976785855963098</v>
       </c>
       <c r="G145">
         <v>-0.06777381128624294</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.996550719533401</v>
+        <v>-2.996743570250323</v>
       </c>
       <c r="G149">
         <v>-0.06692490935088924</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.024584583874319</v>
+        <v>-3.024646337446683</v>
       </c>
       <c r="G155">
         <v>-0.06542229443775982</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.044480967979742</v>
+        <v>-3.044631832753363</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.053970139095812</v>
+        <v>-3.054384486831217</v>
       </c>
       <c r="G161">
         <v>-0.06420703838534636</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.072367051838911</v>
+        <v>-3.07292302229013</v>
       </c>
       <c r="G165">
         <v>-0.06308906220397503</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.076130660105256</v>
+        <v>-3.076385097974205</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.081724238286959</v>
+        <v>-3.081848783340997</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.099267327649138</v>
+        <v>-3.099395354859766</v>
       </c>
       <c r="G171">
         <v>-0.06063032383153044</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.1162965506934</v>
+        <v>-3.11660190349568</v>
       </c>
       <c r="G175">
         <v>-0.0546421469967634</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.120531776151132</v>
+        <v>-3.121073104987869</v>
       </c>
       <c r="G176">
         <v>-0.05700594678019499</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.158735485038942</v>
+        <v>-3.158756602890213</v>
       </c>
       <c r="G185">
         <v>-0.04887292956769662</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.170409488515443</v>
+        <v>-3.170638386693004</v>
       </c>
       <c r="G188">
         <v>-0.04406939880538541</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.174444384646081</v>
+        <v>-3.174755882124129</v>
       </c>
       <c r="G189">
         <v>-0.04452124600005636</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.190676031487144</v>
+        <v>-3.191095765817449</v>
       </c>
       <c r="G193">
         <v>-0.04004583188049676</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.193094832681282</v>
+        <v>-3.193270863839472</v>
       </c>
       <c r="G194">
         <v>-0.03827979064148346</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.198242724711479</v>
+        <v>-3.198279746721137</v>
       </c>
       <c r="G195">
         <v>-0.03779580031311314</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.239561870005233</v>
+        <v>-3.240333239027066</v>
       </c>
       <c r="G206">
         <v>-0.02326749800605263</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.827635833146573</v>
+        <v>-2.828027604717427</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.917188916630372</v>
+        <v>-2.917251210813276</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794503697237664</v>
+        <v>-2.794571625439448</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.890881435550429</v>
+        <v>-2.890984437681853</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069738356129859</v>
+        <v>-3.069889339114409</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.150637743161914</v>
+        <v>-3.150653406338987</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.226203515750742</v>
+        <v>-3.226480293469178</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.360476801400738</v>
+        <v>-3.360496639860088</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.8357824915441</v>
+        <v>-2.835902387877726</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.933605427662355</v>
+        <v>-2.933793735858797</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025804944516007</v>
+        <v>-3.025817643989254</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.1149312464594</v>
+        <v>-3.115104460822721</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.965213840204285</v>
+        <v>-2.965298928543507</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.058215058894736</v>
+        <v>-3.058263883663249</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.230499199455352</v>
+        <v>-3.230599163765909</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.381505146683081</v>
+        <v>-3.381575643486203</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.447883374553376</v>
+        <v>-3.44789705873821</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.988628285042694</v>
+        <v>-2.988659284334399</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.08360489798547</v>
+        <v>-3.083632064913778</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.173214696739061</v>
+        <v>-3.173254871879283</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.25684255514889</v>
+        <v>-3.256960684761378</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.408191904704179</v>
+        <v>-3.408228257682898</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.906140707189809</v>
+        <v>-2.90615436509313</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.007082466183194</v>
+        <v>-3.007112591218636</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.102700571345419</v>
+        <v>-3.102714559959338</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.192970700219093</v>
+        <v>-3.193074221192884</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.277578983606263</v>
+        <v>-3.277628130449703</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.357004804627509</v>
+        <v>-3.357142774445607</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.429698114690677</v>
+        <v>-3.429775528410488</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.497923377282819</v>
+        <v>-3.497938593560319</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559643550465242</v>
+        <v>-3.559728454421457</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921312504379258</v>
+        <v>-2.921366365054613</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022412642770648</v>
+        <v>-3.022479627575048</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.373330741058799</v>
+        <v>-3.373368175764091</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.447384978283551</v>
+        <v>-3.447395345974931</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.515311870336947</v>
+        <v>-3.515332605719707</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.544203094776757</v>
+        <v>-2.544658832952886</v>
       </c>
       <c r="G26">
         <v>-0.0406024831246925</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.6619398616754</v>
+        <v>-2.662010854872549</v>
       </c>
       <c r="G34">
         <v>-0.05732110797271739</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.783820117860729</v>
+        <v>-2.78393849239236</v>
       </c>
       <c r="G43">
         <v>-0.06827093207138479</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.743239264370112</v>
+        <v>-2.743303458116032</v>
       </c>
       <c r="G103">
         <v>-0.04631581951418795</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.859616521035583</v>
+        <v>-2.859688137288702</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.934690857354423</v>
+        <v>-2.935016231113831</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.944913123994663</v>
+        <v>-2.94496490850895</v>
       </c>
       <c r="G139">
         <v>-0.06771893294268683</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.960555589259702</v>
+        <v>-2.961697060179396</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.983167736345029</v>
+        <v>-2.983483403006435</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.987548770154441</v>
+        <v>-2.987903920186128</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.044631832753363</v>
+        <v>-3.045040947880321</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.076385097974205</v>
+        <v>-3.076848312866436</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.081848783340997</v>
+        <v>-3.082192693774165</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.099395354859766</v>
+        <v>-3.099409957709688</v>
       </c>
       <c r="G171">
         <v>-0.06063032383153044</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.107882240413869</v>
+        <v>-3.108404416767727</v>
       </c>
       <c r="G173">
         <v>-0.05826195113373756</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.129433504716296</v>
+        <v>-3.129723744863679</v>
       </c>
       <c r="G178">
         <v>-0.05575968417980881</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.214838559673591</v>
+        <v>-3.214883590253704</v>
       </c>
       <c r="G199">
         <v>-0.03477350523685752</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.221792100114282</v>
+        <v>-3.221968131272471</v>
       </c>
       <c r="G201">
         <v>-0.03279639881353691</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.237269228717805</v>
+        <v>-3.237410694770866</v>
       </c>
       <c r="G205">
         <v>-0.02568553536693</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.246631354609099</v>
+        <v>-3.247402723630929</v>
       </c>
       <c r="G208">
         <v>-0.02165012781248737</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.917251210813276</v>
+        <v>-2.917365644341705</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.083687867416084</v>
+        <v>-3.083970597799034</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794571625439448</v>
+        <v>-2.794586220220479</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.890984437681853</v>
+        <v>-2.891081149682584</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.835902387877726</v>
+        <v>-2.836060888173908</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.933793735858797</v>
+        <v>-2.933852159970708</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.115104460822721</v>
+        <v>-3.115427630890263</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.411434816158006</v>
+        <v>-3.411452048657406</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.471162115529351</v>
+        <v>-3.471196493588239</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.865689131229216</v>
+        <v>-2.865717494008956</v>
       </c>
       <c r="G254">
         <v>-0.02417558309357482</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.965298928543507</v>
+        <v>-2.965327291323248</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.058263883663249</v>
+        <v>-3.058309749240126</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.147848412998492</v>
+        <v>-3.147880368250333</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.44789705873821</v>
+        <v>-3.4479240229145</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.083632064913778</v>
+        <v>-3.083671851621061</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.173254871879283</v>
+        <v>-3.173273420401134</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.256960684761378</v>
+        <v>-3.256989036475208</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.90615436509313</v>
+        <v>-2.906353646706152</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.007112591218636</v>
+        <v>-3.00719869147887</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.102714559959338</v>
+        <v>-3.102728548573257</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.193074221192884</v>
+        <v>-3.19311618703464</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.277628130449703</v>
+        <v>-3.277672260337563</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.357142774445607</v>
+        <v>-3.357228710689729</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.497938593560319</v>
+        <v>-3.497948810041466</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921366365054613</v>
+        <v>-2.921383487675264</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022479627575048</v>
+        <v>-3.022531010826183</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.118272138959051</v>
+        <v>-3.118292874341812</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.209033562179153</v>
+        <v>-3.209043929870533</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.294234357263916</v>
+        <v>-3.294251463142619</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.373368175764091</v>
+        <v>-3.373395416652491</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.515332605719707</v>
+        <v>-3.515342973411087</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.512640028047731</v>
+        <v>-2.514183195301727</v>
       </c>
       <c r="G24">
         <v>-0.03546568381571502</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.529036269148326</v>
+        <v>-2.529421014127308</v>
       </c>
       <c r="G25">
         <v>-0.03660976926768433</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.559440913602337</v>
+        <v>-2.559896651778467</v>
       </c>
       <c r="G27">
         <v>-0.04274806427675482</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.574678732427914</v>
+        <v>-2.575134470604045</v>
       </c>
       <c r="G28">
         <v>-0.04576200885030146</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.588884850359674</v>
+        <v>-2.589987544450644</v>
       </c>
       <c r="G29">
         <v>-0.04762321756701327</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.60343797803361</v>
+        <v>-2.604840618297242</v>
       </c>
       <c r="G30">
         <v>-0.05161374726557444</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.618394857745914</v>
+        <v>-2.619308947164862</v>
       </c>
       <c r="G31">
         <v>-0.05199087798678215</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.633511086974835</v>
+        <v>-2.634091027814309</v>
       </c>
       <c r="G32">
         <v>-0.05650389862506167</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.648084166154619</v>
+        <v>-2.648752883922202</v>
       </c>
       <c r="G33">
         <v>-0.05848549901397671</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.662010854872549</v>
+        <v>-2.663463971374498</v>
       </c>
       <c r="G34">
         <v>-0.05732110797271739</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.676484956009442</v>
+        <v>-2.677596967997247</v>
       </c>
       <c r="G35">
         <v>-0.05834978435420624</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.688630481531128</v>
+        <v>-2.691650853568705</v>
       </c>
       <c r="G36">
         <v>-0.05974029928701885</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.703958051224792</v>
+        <v>-2.707799152805971</v>
       </c>
       <c r="G37">
         <v>-0.06153065452955531</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.71657889330581</v>
+        <v>-2.717845010565255</v>
       </c>
       <c r="G38">
         <v>-0.06183997548240172</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.730070744999135</v>
+        <v>-2.73223906753812</v>
       </c>
       <c r="G39">
         <v>-0.06451248589619119</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.74343711457651</v>
+        <v>-2.745474045627692</v>
       </c>
       <c r="G40">
         <v>-0.06395184889360772</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.757091275750315</v>
+        <v>-2.758749080369149</v>
       </c>
       <c r="G41">
         <v>-0.06468311722434916</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.768861577808435</v>
+        <v>-2.770727155077383</v>
       </c>
       <c r="G42">
         <v>-0.06426275743069176</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.78393849239236</v>
+        <v>-2.785104987928533</v>
       </c>
       <c r="G43">
         <v>-0.06827093207138479</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.795066359554894</v>
+        <v>-2.798282941708224</v>
       </c>
       <c r="G44">
         <v>-0.06415847557426502</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.808086830902709</v>
+        <v>-2.809049974000436</v>
       </c>
       <c r="G45">
         <v>-0.06490106791460604</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.818942271946513</v>
+        <v>-2.82031120491799</v>
       </c>
       <c r="G46">
         <v>-0.06418810037474398</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.832100299801997</v>
+        <v>-2.833353621517723</v>
       </c>
       <c r="G47">
         <v>-0.06314893348312078</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.844321345760274</v>
+        <v>-2.844677489438317</v>
       </c>
       <c r="G48">
         <v>-0.06517769562641951</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.854937368498958</v>
+        <v>-2.856008793143051</v>
       </c>
       <c r="G49">
         <v>-0.06224520081165175</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.867395668807782</v>
+        <v>-2.868285548323598</v>
       </c>
       <c r="G50">
         <v>-0.06122366793622602</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.878779519913877</v>
+        <v>-2.879824724535656</v>
       </c>
       <c r="G51">
         <v>-0.06121660272984963</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.889177567559971</v>
+        <v>-2.889658559091152</v>
       </c>
       <c r="G52">
         <v>-0.06034080339282244</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.90023993236375</v>
+        <v>-2.900400114909865</v>
       </c>
       <c r="G53">
         <v>-0.05689767405731117</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.911127493042513</v>
+        <v>-2.911793846166018</v>
       </c>
       <c r="G54">
         <v>-0.05710777129362687</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.932628933144771</v>
+        <v>-2.93299980555551</v>
       </c>
       <c r="G56">
         <v>-0.05159963316332727</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.943276513876343</v>
+        <v>-2.94350767689493</v>
       </c>
       <c r="G57">
         <v>-0.04834693910731458</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.953725575358118</v>
+        <v>-2.953888978053793</v>
       </c>
       <c r="G58">
         <v>-0.04686429420370541</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.963591048886629</v>
+        <v>-2.964117865188244</v>
       </c>
       <c r="G59">
         <v>-0.04462497251464281</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.974439067655686</v>
+        <v>-2.974602470351364</v>
       </c>
       <c r="G60">
         <v>-0.04364360928270128</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.590029488858832</v>
+        <v>-2.590755654182837</v>
       </c>
       <c r="G79">
         <v>-0.01457520512126642</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.597181260768108</v>
+        <v>-2.597888735919264</v>
       </c>
       <c r="G80">
         <v>-0.01631472771035503</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.604014775100759</v>
+        <v>-2.605021817655692</v>
       </c>
       <c r="G81">
         <v>-0.01788829950313398</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.610293461401941</v>
+        <v>-2.61196422128381</v>
       </c>
       <c r="G82">
         <v>-0.01899718434882702</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.617274910573072</v>
+        <v>-2.618551271274206</v>
       </c>
       <c r="G83">
         <v>-0.02138238028795802</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.623358206484739</v>
+        <v>-2.625138321264602</v>
       </c>
       <c r="G84">
         <v>-0.02242535566458148</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.630472236136961</v>
+        <v>-2.631544875765667</v>
       </c>
       <c r="G85">
         <v>-0.02475169878898864</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.636574839397547</v>
+        <v>-2.638066328682289</v>
       </c>
       <c r="G86">
         <v>-0.02539126900884403</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.644278031576155</v>
+        <v>-2.644702680014466</v>
       </c>
       <c r="G87">
         <v>-0.02645349066911074</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.649724256429118</v>
+        <v>-2.651109596426889</v>
       </c>
       <c r="G88">
         <v>-0.02780670944484109</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.656889533885299</v>
+        <v>-2.657058195873095</v>
       </c>
       <c r="G89">
         <v>-0.02986583640277773</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.663173845117538</v>
+        <v>-2.663923429251732</v>
       </c>
       <c r="G90">
         <v>-0.03094811511381401</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.668553724776157</v>
+        <v>-2.670215809159955</v>
       </c>
       <c r="G91">
         <v>-0.03127495504528444</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.675190424327867</v>
+        <v>-2.676322526063624</v>
       </c>
       <c r="G92">
         <v>-0.03253740606552968</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.681637787111135</v>
+        <v>-2.682936759689759</v>
       </c>
       <c r="G93">
         <v>-0.03482335765459466</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.688222030086555</v>
+        <v>-2.689311477362688</v>
       </c>
       <c r="G94">
         <v>-0.03652145573924059</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.693730631094123</v>
+        <v>-2.695707849244771</v>
       </c>
       <c r="G95">
         <v>-0.03858473670595775</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.700019704036611</v>
+        <v>-2.701652659246429</v>
       </c>
       <c r="G96">
         <v>-0.03904894743874188</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.704958286457888</v>
+        <v>-2.708059575658852</v>
       </c>
       <c r="G97">
         <v>-0.03811145238242597</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.71236919790849</v>
+        <v>-2.71464995159691</v>
       </c>
       <c r="G98">
         <v>-0.04211562117129297</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.717894318217592</v>
+        <v>-2.720724283286585</v>
       </c>
       <c r="G99">
         <v>-0.04017070547547874</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.724450072430121</v>
+        <v>-2.727357031648711</v>
       </c>
       <c r="G100">
         <v>-0.04101653404571337</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.730801164605804</v>
+        <v>-2.733658666491312</v>
       </c>
       <c r="G101">
         <v>-0.04181096742640866</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.736883083368246</v>
+        <v>-2.740049109386685</v>
       </c>
       <c r="G102">
         <v>-0.04403152170451685</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.743303458116032</v>
+        <v>-2.745999823912621</v>
       </c>
       <c r="G103">
         <v>-0.04631581951418795</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.747933957419329</v>
+        <v>-2.752054161294824</v>
       </c>
       <c r="G104">
         <v>-0.04661438794309825</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.754626817601323</v>
+        <v>-2.757998855311713</v>
       </c>
       <c r="G105">
         <v>-0.04775884217098492</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.761124740246759</v>
+        <v>-2.764268375604729</v>
       </c>
       <c r="G106">
         <v>-0.0478728659904335</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.766311592757118</v>
+        <v>-2.770389496275547</v>
       </c>
       <c r="G107">
         <v>-0.0499380917063299</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.77334296713054</v>
+        <v>-2.775364843892423</v>
       </c>
       <c r="G108">
         <v>-0.04992410894250066</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.778097357900831</v>
+        <v>-2.782397395288399</v>
       </c>
       <c r="G109">
         <v>-0.05081636630824438</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.785004695112528</v>
+        <v>-2.787728373471652</v>
       </c>
       <c r="G110">
         <v>-0.04943599884026795</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.790550478779264</v>
+        <v>-2.794399358260578</v>
       </c>
       <c r="G111">
         <v>-0.05267938996759525</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.796729990228255</v>
+        <v>-2.799338236955943</v>
       </c>
       <c r="G112">
         <v>-0.0544011670680502</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.802934972767208</v>
+        <v>-2.806530217629196</v>
       </c>
       <c r="G113">
         <v>-0.05426949211510657</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.808160747802981</v>
+        <v>-2.811350739451028</v>
       </c>
       <c r="G114">
         <v>-0.05454616190369288</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.813752828847263</v>
+        <v>-2.818235400682157</v>
       </c>
       <c r="G115">
         <v>-0.05654676169836437</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.819843226735305</v>
+        <v>-2.823843820333975</v>
       </c>
       <c r="G116">
         <v>-0.05661269369507727</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.824641255619524</v>
+        <v>-2.829547729619378</v>
       </c>
       <c r="G117">
         <v>-0.05797066225204062</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.831282594372541</v>
+        <v>-2.83445078048595</v>
       </c>
       <c r="G118">
         <v>-0.05800487070072369</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.836131555457962</v>
+        <v>-2.840975606531044</v>
       </c>
       <c r="G119">
         <v>-0.05653158077693177</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.841954315742521</v>
+        <v>-2.84665548757219</v>
       </c>
       <c r="G120">
         <v>-0.05759479459459071</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.847833280224414</v>
+        <v>-2.853743473084557</v>
       </c>
       <c r="G121">
         <v>-0.0609709930950002</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.853629990039777</v>
+        <v>-2.859540744923693</v>
       </c>
       <c r="G122">
         <v>-0.06136433232690086</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.859688137288702</v>
+        <v>-2.861864444440834</v>
       </c>
       <c r="G123">
         <v>-0.05920322010165258</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.863130071613542</v>
+        <v>-2.871135288601965</v>
       </c>
       <c r="G124">
         <v>-0.05981457549698055</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.870426467230047</v>
+        <v>-2.876798853322632</v>
       </c>
       <c r="G125">
         <v>-0.06138380397589427</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.874863543562268</v>
+        <v>-2.881244858749857</v>
       </c>
       <c r="G126">
         <v>-0.06232868343884124</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.881711724741467</v>
+        <v>-2.887736493145451</v>
       </c>
       <c r="G127">
         <v>-0.06253872057161325</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.886416944042302</v>
+        <v>-2.893356596515338</v>
       </c>
       <c r="G128">
         <v>-0.06432421663735988</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.892561433480657</v>
+        <v>-2.897375198924309</v>
       </c>
       <c r="G129">
         <v>-0.06430125217464711</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.898022019724287</v>
+        <v>-2.900681371312653</v>
       </c>
       <c r="G130">
         <v>-0.06306602568684583</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.903213497430408</v>
+        <v>-2.908142202797296</v>
       </c>
       <c r="G131">
         <v>-0.06545092939201069</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.906967441307551</v>
+        <v>-2.91317318885797</v>
       </c>
       <c r="G132">
         <v>-0.06391815187529315</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.913035124313005</v>
+        <v>-2.919861939998984</v>
       </c>
       <c r="G133">
         <v>-0.06547877109565259</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.918579703376213</v>
+        <v>-2.924743473739884</v>
       </c>
       <c r="G134">
         <v>-0.06628117563050395</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.925730579242675</v>
+        <v>-2.930452714339131</v>
       </c>
       <c r="G135">
         <v>-0.06705930690278916</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.92897856137065</v>
+        <v>-2.934232976599223</v>
       </c>
       <c r="G136">
         <v>-0.06627089682567555</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.935016231113831</v>
+        <v>-2.940576527778431</v>
       </c>
       <c r="G137">
         <v>-0.06464255616518422</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.940077580642476</v>
+        <v>-2.94550152550867</v>
       </c>
       <c r="G138">
         <v>-0.06594677432111862</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.94496490850895</v>
+        <v>-2.950830422478949</v>
       </c>
       <c r="G139">
         <v>-0.06771893294268683</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.950111704768489</v>
+        <v>-2.955222119875654</v>
       </c>
       <c r="G140">
         <v>-0.06683944408300801</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.955747238721964</v>
+        <v>-2.961018386917938</v>
       </c>
       <c r="G141">
         <v>-0.06805561565827012</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.961697060179396</v>
+        <v>-2.964802968394587</v>
       </c>
       <c r="G142">
         <v>-0.06578112317146156</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.967441701285426</v>
+        <v>-2.970425214151654</v>
       </c>
       <c r="G143">
         <v>-0.06590141386971204</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.972469026407399</v>
+        <v>-2.976411731191526</v>
       </c>
       <c r="G144">
         <v>-0.06719267630657955</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.976785855963098</v>
+        <v>-2.981601806928063</v>
       </c>
       <c r="G145">
         <v>-0.06777381128624294</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.983483403006435</v>
+        <v>-2.98660799975346</v>
       </c>
       <c r="G146">
         <v>-0.0678016112313764</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.987903920186128</v>
+        <v>-2.991389663695291</v>
       </c>
       <c r="G147">
         <v>-0.06758258309370868</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.991059149023443</v>
+        <v>-2.994662319634436</v>
       </c>
       <c r="G148">
         <v>-0.06618595830289431</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.996743570250323</v>
+        <v>-2.999608615132676</v>
       </c>
       <c r="G149">
         <v>-0.06692490935088924</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.001480546805596</v>
+        <v>-3.006864870129408</v>
       </c>
       <c r="G150">
         <v>-0.06683359663898147</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.005210266835389</v>
+        <v>-3.011191592470901</v>
       </c>
       <c r="G151">
         <v>-0.06607365636149898</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.011102256061273</v>
+        <v>-3.016747626976871</v>
       </c>
       <c r="G152">
         <v>-0.06769453930517733</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.016399855420759</v>
+        <v>-3.020166836615247</v>
       </c>
       <c r="G153">
         <v>-0.06669853251002755</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.019828365112343</v>
+        <v>-3.023997075735552</v>
       </c>
       <c r="G154">
         <v>-0.06742682892600071</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.024646337446683</v>
+        <v>-3.031356869833226</v>
       </c>
       <c r="G155">
         <v>-0.06542229443775982</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.030637657117178</v>
+        <v>-3.034807475523179</v>
       </c>
       <c r="G156">
         <v>-0.0646768278319354</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.035211555690682</v>
+        <v>-3.039505302233531</v>
       </c>
       <c r="G157">
         <v>-0.06612282088714139</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.040835814779886</v>
+        <v>-3.044238273914004</v>
       </c>
       <c r="G158">
         <v>-0.0665139706757889</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.045040947880321</v>
+        <v>-3.048631452773241</v>
       </c>
       <c r="G159">
         <v>-0.06392503019182683</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.049472578909308</v>
+        <v>-3.052659852897483</v>
       </c>
       <c r="G160">
         <v>-0.06363959269199659</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.054384486831217</v>
+        <v>-3.058927271253949</v>
       </c>
       <c r="G161">
         <v>-0.06420703838534636</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.058694008507461</v>
+        <v>-3.062538451651911</v>
       </c>
       <c r="G162">
         <v>-0.06329934650181324</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.063230357819583</v>
+        <v>-3.067210590294311</v>
       </c>
       <c r="G163">
         <v>-0.06488070341078622</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.068644399746657</v>
+        <v>-3.072586923200463</v>
       </c>
       <c r="G164">
         <v>-0.06383812042865811</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.07292302229013</v>
+        <v>-3.077387147539517</v>
       </c>
       <c r="G165">
         <v>-0.06308906220397503</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.076848312866436</v>
+        <v>-3.080632064731304</v>
       </c>
       <c r="G166">
         <v>-0.06168679368014929</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.082192693774165</v>
+        <v>-3.084911015335432</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.084964739578377</v>
+        <v>-3.090797951329192</v>
       </c>
       <c r="G168">
         <v>-0.0606518993763554</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.090039848338694</v>
+        <v>-3.093815974062673</v>
       </c>
       <c r="G169">
         <v>-0.05924935693491873</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.096167860856815</v>
+        <v>-3.098615374194559</v>
       </c>
       <c r="G170">
         <v>-0.05968614133142269</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.099409957709688</v>
+        <v>-3.104048373157306</v>
       </c>
       <c r="G171">
         <v>-0.06063032383153044</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.102110418282928</v>
+        <v>-3.108341945057191</v>
       </c>
       <c r="G172">
         <v>-0.05620041574433354</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.108404416767727</v>
+        <v>-3.112332481954375</v>
       </c>
       <c r="G173">
         <v>-0.05826195113373756</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.113249849236269</v>
+        <v>-3.115766114268206</v>
       </c>
       <c r="G174">
         <v>-0.05771422059578923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.11660190349568</v>
+        <v>-3.120934485352642</v>
       </c>
       <c r="G175">
         <v>-0.0546421469967634</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.121073104987869</v>
+        <v>-3.125563103958435</v>
       </c>
       <c r="G176">
         <v>-0.05700594678019499</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.125344515567403</v>
+        <v>-3.129809804556619</v>
       </c>
       <c r="G177">
         <v>-0.05503054144725428</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.129723744863679</v>
+        <v>-3.134103376456505</v>
       </c>
       <c r="G178">
         <v>-0.05575968417980881</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.133941465965681</v>
+        <v>-3.13839694835639</v>
       </c>
       <c r="G179">
         <v>-0.05419782010627705</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.138855925227866</v>
+        <v>-3.141122582153756</v>
       </c>
       <c r="G180">
         <v>-0.05424642460342466</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.141941468121281</v>
+        <v>-3.146740677312618</v>
       </c>
       <c r="G181">
         <v>-0.05252403470007838</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.146376920019861</v>
+        <v>-3.150872161370885</v>
       </c>
       <c r="G182">
         <v>-0.05271196394783628</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.150725237165981</v>
+        <v>-3.154839262617219</v>
       </c>
       <c r="G183">
         <v>-0.05038090020783503</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.155489628869495</v>
+        <v>-3.158806363863554</v>
       </c>
       <c r="G184">
         <v>-0.04800251859752269</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.158756602890213</v>
+        <v>-3.162773465109888</v>
       </c>
       <c r="G185">
         <v>-0.04887292956769662</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.162904427361136</v>
+        <v>-3.166740566356222</v>
       </c>
       <c r="G186">
         <v>-0.04939067816827869</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.165650392590527</v>
+        <v>-3.170707667602557</v>
       </c>
       <c r="G187">
         <v>-0.04654310376740345</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.170638386693004</v>
+        <v>-3.174664271277927</v>
       </c>
       <c r="G188">
         <v>-0.04406939880538541</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.174755882124129</v>
+        <v>-3.178620874953297</v>
       </c>
       <c r="G189">
         <v>-0.04452124600005636</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.178944133287714</v>
+        <v>-3.182577478628667</v>
       </c>
       <c r="G190">
         <v>-0.04484010148240014</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.181610935020764</v>
+        <v>-3.186534082304037</v>
       </c>
       <c r="G191">
         <v>-0.04297356329015517</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.185854343309837</v>
+        <v>-3.190490685979408</v>
       </c>
       <c r="G192">
         <v>-0.04168226760677696</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.191095765817449</v>
+        <v>-3.194159262331335</v>
       </c>
       <c r="G193">
         <v>-0.04004583188049676</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.193270863839472</v>
+        <v>-3.197827838683262</v>
       </c>
       <c r="G194">
         <v>-0.03827979064148346</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.198279746721137</v>
+        <v>-3.201496415035189</v>
       </c>
       <c r="G195">
         <v>-0.03779580031311314</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.201603786440943</v>
+        <v>-3.205164991387115</v>
       </c>
       <c r="G196">
         <v>-0.03572207990517756</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.205389839079898</v>
+        <v>-3.208833567739039</v>
       </c>
       <c r="G197">
         <v>-0.03609423137971218</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.209717547344753</v>
+        <v>-3.212405708618017</v>
       </c>
       <c r="G198">
         <v>-0.03486364830645772</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.214883590253704</v>
+        <v>-3.215977849496995</v>
       </c>
       <c r="G199">
         <v>-0.03477350523685752</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.217627064800709</v>
+        <v>-3.219549990375974</v>
       </c>
       <c r="G200">
         <v>-0.03131729935865663</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.221968131272471</v>
+        <v>-3.223122131254953</v>
       </c>
       <c r="G201">
         <v>-0.03279639881353691</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.226597836660986</v>
+        <v>-3.226694272133931</v>
       </c>
       <c r="G202">
         <v>-0.02875843365565778</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.229941079362404</v>
+        <v>-3.23026641301291</v>
       </c>
       <c r="G203">
         <v>-0.02938236417448131</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.232033086531411</v>
+        <v>-3.233838553891888</v>
       </c>
       <c r="G204">
         <v>-0.02784507174242745</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.240333239027066</v>
+        <v>-3.240982835649845</v>
       </c>
       <c r="G206">
         <v>-0.02326749800605263</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.242282978319488</v>
+        <v>-3.244554976528823</v>
       </c>
       <c r="G207">
         <v>-0.02191550147804766</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.247402723630929</v>
+        <v>-3.247837135161282</v>
       </c>
       <c r="G208">
         <v>-0.02165012781248737</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.25068488226339</v>
+        <v>-3.25111929379374</v>
       </c>
       <c r="G209">
         <v>-0.01884491710132483</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.253532629365499</v>
+        <v>-3.253967040895849</v>
       </c>
       <c r="G210">
         <v>-0.0188245000674219</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.732350199434083</v>
+        <v>-2.736516801022835</v>
       </c>
       <c r="G221">
         <v>-0.02578843161311051</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.828027604717427</v>
+        <v>-2.831325790559936</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.917365644341705</v>
+        <v>-2.923035896311438</v>
       </c>
       <c r="G223">
         <v>-0.05651124395853557</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.002126481485559</v>
+        <v>-3.00973532970289</v>
       </c>
       <c r="G224">
         <v>-0.06504219547569612</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.083970597799034</v>
+        <v>-3.088461857700038</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.157723842237273</v>
+        <v>-3.162724059593378</v>
       </c>
       <c r="G226">
         <v>-0.06593602525985154</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.226152769048351</v>
+        <v>-3.229832842161124</v>
       </c>
       <c r="G227">
         <v>-0.05773516550778812</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.289145908974344</v>
+        <v>-3.292003883458548</v>
       </c>
       <c r="G228">
         <v>-0.04468693772295207</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.347730368595508</v>
+        <v>-3.349032206439218</v>
       </c>
       <c r="G229">
         <v>-0.02567396015533885</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.794586220220479</v>
+        <v>-2.798184026329658</v>
       </c>
       <c r="G232">
         <v>-0.02521402309674592</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.891081149682584</v>
+        <v>-2.895301991345509</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.982731312744227</v>
+        <v>-2.987641501721487</v>
       </c>
       <c r="G234">
         <v>-0.05701771459264005</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.069889339114409</v>
+        <v>-3.075957543388514</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.150653406338987</v>
+        <v>-3.156612734378507</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.226480293469178</v>
+        <v>-3.232211373710447</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.295919430021463</v>
+        <v>-3.301415167249954</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.360496639860088</v>
+        <v>-3.364940133891626</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.420123812458932</v>
+        <v>-3.422610956002971</v>
       </c>
       <c r="G240">
         <v>-0.02526201295291675</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.836060888173908</v>
+        <v>-2.839129450926211</v>
       </c>
       <c r="G243">
         <v>-0.0253249005021603</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.933852159970708</v>
+        <v>-2.938242072693209</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.025817643989254</v>
+        <v>-3.031824782199238</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.115427630890263</v>
+        <v>-3.121725663156628</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.197580467111445</v>
+        <v>-3.203354383809145</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.27410437723603</v>
+        <v>-3.279529374050734</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.345510836243155</v>
+        <v>-3.349970449967221</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.411452048657406</v>
+        <v>-3.414870695705065</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.471196493588239</v>
+        <v>-3.473796724742657</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.865717494008956</v>
+        <v>-2.868733623231646</v>
       </c>
       <c r="G254">
         <v>-0.02417558309357482</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.965327291323248</v>
+        <v>-2.970115554221141</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.058309749240126</v>
+        <v>-3.064291047582473</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.147880368250333</v>
+        <v>-3.153757475618097</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.230599163765909</v>
+        <v>-3.237041874348577</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.309646338323801</v>
+        <v>-3.314889573825196</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.381575643486203</v>
+        <v>-3.385947777270595</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.4479240229145</v>
+        <v>-3.451187454388573</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.508746708376969</v>
+        <v>-3.511337627598301</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.888318037993473</v>
+        <v>-2.891620307603564</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.988659284334399</v>
+        <v>-2.993876367160069</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.083671851621061</v>
+        <v>-3.088893675714548</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.173273420401134</v>
+        <v>-3.178914092315852</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.256989036475208</v>
+        <v>-3.262790279297371</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.335969643523266</v>
+        <v>-3.341027373431244</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.408228257682898</v>
+        <v>-3.41296377574822</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.475453163135906</v>
+        <v>-3.478406606280414</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.537166752384524</v>
+        <v>-3.540238872919648</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.906353646706152</v>
+        <v>-2.909606191532258</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.00719869147887</v>
+        <v>-3.012481706800254</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.102728548573257</v>
+        <v>-3.107838656860881</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.19311618703464</v>
+        <v>-3.198706262754369</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.277672260337563</v>
+        <v>-3.283302637414541</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.357228710689729</v>
+        <v>-3.361598557372696</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.429775528410488</v>
+        <v>-3.434115725004761</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.497948810041466</v>
+        <v>-3.500505577632324</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.559728454421457</v>
+        <v>-3.562403645451279</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.921383487675264</v>
+        <v>-2.924401608571623</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.022531010826183</v>
+        <v>-3.02774396554939</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.118292874341812</v>
+        <v>-3.123649970061178</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.209043929870533</v>
+        <v>-3.214528374149231</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.294251463142619</v>
+        <v>-3.299586371810608</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.373395416652491</v>
+        <v>-3.378216947747962</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.447395345974931</v>
+        <v>-3.45132119877322</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.515342973411087</v>
+        <v>-3.517962166595791</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.577633996215497</v>
+        <v>-3.580143861609597</v>
       </c>
       <c r="G295">
         <v>-0.02391455926254932</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.663463971374498</v>
+        <v>-2.66353496457165</v>
       </c>
       <c r="G34">
         <v>-0.05732110797271739</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.844677489438317</v>
+        <v>-2.845346146903971</v>
       </c>
       <c r="G48">
         <v>-0.06517769562641951</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.708059575658852</v>
+        <v>-2.708141913423557</v>
       </c>
       <c r="G97">
         <v>-0.03811145238242597</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.831325790559936</v>
+        <v>-2.83138251077724</v>
       </c>
       <c r="G222">
         <v>-0.04363192263576954</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.895301991345509</v>
+        <v>-2.895331132870845</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.075957543388514</v>
+        <v>-3.075982770929091</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.156612734378507</v>
+        <v>-3.156768663681192</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.232211373710447</v>
+        <v>-3.23249249296272</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.301415167249954</v>
+        <v>-3.301625368040363</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.364940133891626</v>
+        <v>-3.365212511293333</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.031824782199238</v>
+        <v>-3.031867705690357</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.121725663156628</v>
+        <v>-3.121821670151349</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.203354383809145</v>
+        <v>-3.203435030915405</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.279529374050734</v>
+        <v>-3.279764768201313</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.349970449967221</v>
+        <v>-3.350026758962322</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.414870695705065</v>
+        <v>-3.414895540780051</v>
       </c>
       <c r="G250">
         <v>-0.0433746298097657</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.970115554221141</v>
+        <v>-2.970141095787907</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.064291047582473</v>
+        <v>-3.064305598595263</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.153757475618097</v>
+        <v>-3.153948691021859</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.237041874348577</v>
+        <v>-3.237205793045215</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.314889573825196</v>
+        <v>-3.315007832859247</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.385947777270595</v>
+        <v>-3.386102466154913</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.451187454388573</v>
+        <v>-3.451256624969683</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.511337627598301</v>
+        <v>-3.511380006847845</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.891620307603564</v>
+        <v>-2.891643798612552</v>
       </c>
       <c r="G265">
         <v>-0.02398703641398958</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.993876367160069</v>
+        <v>-2.993918230427845</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.088893675714548</v>
+        <v>-3.088962835896341</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.178914092315852</v>
+        <v>-3.179108504035864</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.262790279297371</v>
+        <v>-3.262950143256267</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.341027373431244</v>
+        <v>-3.341165281343149</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.41296377574822</v>
+        <v>-3.413037038932867</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.478406606280414</v>
+        <v>-3.478424672520685</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.540238872919648</v>
+        <v>-3.540270203990681</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.012481706800254</v>
+        <v>-3.01253022473793</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.107838656860881</v>
+        <v>-3.107913804174648</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.198706262754369</v>
+        <v>-3.198847462815395</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.283302637414541</v>
+        <v>-3.283427504529709</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.361598557372696</v>
+        <v>-3.361700913705779</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.434115725004761</v>
+        <v>-3.434240156171208</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.500505577632324</v>
+        <v>-3.50059046892006</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.562403645451279</v>
+        <v>-3.562444724854605</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.924401608571623</v>
+        <v>-2.924418113692358</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.02774396554939</v>
+        <v>-3.027850741732404</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.123649970061178</v>
+        <v>-3.123726447797153</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.214528374149231</v>
+        <v>-3.214699996109661</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.299586371810608</v>
+        <v>-3.299742795544406</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.378216947747962</v>
+        <v>-3.378354440222516</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.45132119877322</v>
+        <v>-3.451567985561884</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.517962166595791</v>
+        <v>-3.518009547848501</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.580143861609597</v>
+        <v>-3.580206106046978</v>
       </c>
       <c r="G295">
         <v>-0.02391455926254932</v>

--- a/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
+++ b/data/bimetallic_results/elongated-pentagonal-bipyramid/elongated-pentagonal-bipyramid_AgAu_data.xlsx
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.708141913423557</v>
+        <v>-2.70839660103508</v>
       </c>
       <c r="G97">
         <v>-0.03811145238242597</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.908142202797296</v>
+        <v>-2.908824141720203</v>
       </c>
       <c r="G131">
         <v>-0.06545092939201069</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.084911015335432</v>
+        <v>-3.085155573255059</v>
       </c>
       <c r="G167">
         <v>-0.06197800275134913</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.088461857700038</v>
+        <v>-3.088553320874992</v>
       </c>
       <c r="G225">
         <v>-0.06858478355406805</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.229832842161124</v>
+        <v>-3.229877717220833</v>
       </c>
       <c r="G227">
         <v>-0.05773516550778812</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.895331132870845</v>
+        <v>-2.895387060048617</v>
       </c>
       <c r="G233">
         <v>-0.04305644439647516</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.987641501721487</v>
+        <v>-2.9876609700155</v>
       </c>
       <c r="G234">
         <v>-0.05701771459264005</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.075982770929091</v>
+        <v>-3.076119082493735</v>
       </c>
       <c r="G235">
         <v>-0.06643031639135688</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.156768663681192</v>
+        <v>-3.156841014294737</v>
       </c>
       <c r="G236">
         <v>-0.06837513965218722</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.23249249296272</v>
+        <v>-3.232635645961833</v>
       </c>
       <c r="G237">
         <v>-0.06468773367567615</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.301625368040363</v>
+        <v>-3.301852815474192</v>
       </c>
       <c r="G238">
         <v>-0.05693830051367088</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.365212511293333</v>
+        <v>-3.365299299391165</v>
       </c>
       <c r="G239">
         <v>-0.043934983259732</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.938242072693209</v>
+        <v>-2.938279780915998</v>
       </c>
       <c r="G244">
         <v>-0.04277784022738862</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.031867705690357</v>
+        <v>-3.032004440591519</v>
       </c>
       <c r="G245">
         <v>-0.05681667346790231</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.121821670151349</v>
+        <v>-3.121887998862527</v>
       </c>
       <c r="G246">
         <v>-0.06593143409463353</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.203435030915405</v>
+        <v>-3.203478647311622</v>
       </c>
       <c r="G247">
         <v>-0.06833154007457831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.279764768201313</v>
+        <v>-3.279925322707479</v>
       </c>
       <c r="G248">
         <v>-0.06449969563015978</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.350026758962322</v>
+        <v>-3.350111587692362</v>
       </c>
       <c r="G249">
         <v>-0.05703344061769733</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.473796724742657</v>
+        <v>-3.47386110415418</v>
       </c>
       <c r="G251">
         <v>-0.02469581227216261</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.970141095787907</v>
+        <v>-2.970206960398298</v>
       </c>
       <c r="G255">
         <v>-0.04345050959066121</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.064305598595263</v>
+        <v>-3.064399216206886</v>
       </c>
       <c r="G256">
         <v>-0.05586249093860918</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.153948691021859</v>
+        <v>-3.154054121300869</v>
       </c>
       <c r="G257">
         <v>-0.06494699858948394</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.237205793045215</v>
+        <v>-3.237449143665855</v>
       </c>
       <c r="G258">
         <v>-0.06731417369713366</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.315007832859247</v>
+        <v>-3.315063021516835</v>
       </c>
       <c r="G259">
         <v>-0.06566139123610326</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.386102466154913</v>
+        <v>-3.38620214393144</v>
       </c>
       <c r="G260">
         <v>-0.05683559472146327</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.451256624969683</v>
+        <v>-3.451270854869662</v>
       </c>
       <c r="G261">
         <v>-0.04331585423443407</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.511380006847845</v>
+        <v>-3.511390806071741</v>
       </c>
       <c r="G262">
         <v>-0.02442201222931162</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.993918230427845</v>
+        <v>-2.994025960215024</v>
       </c>
       <c r="G266">
         <v>-0.04288071375369462</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.088962835896341</v>
+        <v>-3.08901892377176</v>
       </c>
       <c r="G267">
         <v>-0.05608576531786058</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.179108504035864</v>
+        <v>-3.179218742640926</v>
       </c>
       <c r="G268">
         <v>-0.06436054498435584</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.262950143256267</v>
+        <v>-3.263134382318205</v>
       </c>
       <c r="G269">
         <v>-0.0664951405059806</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.341165281343149</v>
+        <v>-3.341356750434859</v>
       </c>
       <c r="G270">
         <v>-0.06388629708438365</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.413037038932867</v>
+        <v>-3.413147311768553</v>
       </c>
       <c r="G271">
         <v>-0.05672585307187961</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.478424672520685</v>
+        <v>-3.478558492305782</v>
       </c>
       <c r="G272">
         <v>-0.04299612434631106</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.540270203990681</v>
+        <v>-3.540292840095328</v>
       </c>
       <c r="G273">
         <v>-0.02414570642544578</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.909606191532258</v>
+        <v>-2.909639595848577</v>
       </c>
       <c r="G276">
         <v>-0.02372319823375335</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.01253022473793</v>
+        <v>-3.012595817874272</v>
       </c>
       <c r="G277">
         <v>-0.04228400807276733</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.107913804174648</v>
+        <v>-3.107994760722714</v>
       </c>
       <c r="G278">
         <v>-0.05514343997964355</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.198847462815395</v>
+        <v>-3.199004451997095</v>
       </c>
       <c r="G279">
         <v>-0.06317022098016034</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.283427504529709</v>
+        <v>-3.283653586238278</v>
       </c>
       <c r="G280">
         <v>-0.06543129638050638</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.361700913705779</v>
+        <v>-3.361895465534884</v>
       </c>
       <c r="G281">
         <v>-0.06338509487041666</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.434240156171208</v>
+        <v>-3.434395144730894</v>
       </c>
       <c r="G282">
         <v>-0.05558182801870848</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.50059046892006</v>
+        <v>-3.500676970736536</v>
       </c>
       <c r="G283">
         <v>-0.0426949639717249</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.562444724854605</v>
+        <v>-3.562509430125085</v>
       </c>
       <c r="G284">
         <v>-0.02416091012988314</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.924418113692358</v>
+        <v>-2.924463606756232</v>
       </c>
       <c r="G287">
         <v>-0.02347178965968411</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.027850741732404</v>
+        <v>-3.028015824526825</v>
       </c>
       <c r="G288">
         <v>-0.04199463229279177</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.123726447797153</v>
+        <v>-3.123802716506282</v>
       </c>
       <c r="G289">
         <v>-0.05461664733245142</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.214699996109661</v>
+        <v>-3.214949615540631</v>
       </c>
       <c r="G290">
         <v>-0.06244452973693626</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.299742795544406</v>
+        <v>-3.299909325829562</v>
       </c>
       <c r="G291">
         <v>-0.06512902796730136</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.378354440222516</v>
+        <v>-3.3785631971931</v>
       </c>
       <c r="G292">
         <v>-0.0625452155077626</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.451567985561884</v>
+        <v>-3.451779212684299</v>
       </c>
       <c r="G293">
         <v>-0.05514532158258012</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.518009547848501</v>
+        <v>-3.518087488191135</v>
       </c>
       <c r="G294">
         <v>-0.04192080471056625</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.580206106046978</v>
+        <v>-3.5803593421197</v>
       </c>
       <c r="G295">
         <v>-0.02391455926254932</v>
